--- a/BackTest/2020-01-16 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-16 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M265"/>
+  <dimension ref="A1:M266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,19 +436,19 @@
         <v>968</v>
       </c>
       <c r="C2" t="n">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="D2" t="n">
         <v>968</v>
       </c>
       <c r="E2" t="n">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="F2" t="n">
-        <v>1063.1169</v>
+        <v>81.3</v>
       </c>
       <c r="G2" t="n">
-        <v>955.3333333333333</v>
+        <v>955.1799999999999</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>968</v>
+      </c>
+      <c r="C3" t="n">
         <v>963</v>
       </c>
-      <c r="C3" t="n">
-        <v>960</v>
-      </c>
       <c r="D3" t="n">
+        <v>968</v>
+      </c>
+      <c r="E3" t="n">
         <v>963</v>
       </c>
-      <c r="E3" t="n">
-        <v>960</v>
-      </c>
       <c r="F3" t="n">
-        <v>1510.974</v>
+        <v>1063.1169</v>
       </c>
       <c r="G3" t="n">
-        <v>955.4366666666665</v>
+        <v>955.3333333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>963</v>
+      </c>
+      <c r="C4" t="n">
         <v>960</v>
       </c>
-      <c r="C4" t="n">
-        <v>951</v>
-      </c>
       <c r="D4" t="n">
+        <v>963</v>
+      </c>
+      <c r="E4" t="n">
         <v>960</v>
       </c>
-      <c r="E4" t="n">
-        <v>951</v>
-      </c>
       <c r="F4" t="n">
-        <v>2896.7305</v>
+        <v>1510.974</v>
       </c>
       <c r="G4" t="n">
-        <v>955.4866666666665</v>
+        <v>955.4366666666665</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>952.1</v>
+        <v>960</v>
       </c>
       <c r="C5" t="n">
-        <v>951.3</v>
+        <v>951</v>
       </c>
       <c r="D5" t="n">
-        <v>952.1</v>
+        <v>960</v>
       </c>
       <c r="E5" t="n">
-        <v>951.3</v>
+        <v>951</v>
       </c>
       <c r="F5" t="n">
-        <v>3836.5381</v>
+        <v>2896.7305</v>
       </c>
       <c r="G5" t="n">
-        <v>955.5416666666665</v>
+        <v>955.4866666666665</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
+        <v>952.1</v>
+      </c>
+      <c r="C6" t="n">
         <v>951.3</v>
       </c>
-      <c r="C6" t="n">
-        <v>947</v>
-      </c>
       <c r="D6" t="n">
+        <v>952.1</v>
+      </c>
+      <c r="E6" t="n">
         <v>951.3</v>
       </c>
-      <c r="E6" t="n">
-        <v>947</v>
-      </c>
       <c r="F6" t="n">
-        <v>1298.04</v>
+        <v>3836.5381</v>
       </c>
       <c r="G6" t="n">
-        <v>955.5249999999999</v>
+        <v>955.5416666666665</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
+        <v>951.3</v>
+      </c>
+      <c r="C7" t="n">
         <v>947</v>
       </c>
-      <c r="C7" t="n">
-        <v>945</v>
-      </c>
       <c r="D7" t="n">
+        <v>951.3</v>
+      </c>
+      <c r="E7" t="n">
         <v>947</v>
       </c>
-      <c r="E7" t="n">
-        <v>945</v>
-      </c>
       <c r="F7" t="n">
-        <v>2212.7986</v>
+        <v>1298.04</v>
       </c>
       <c r="G7" t="n">
-        <v>955.3916666666665</v>
+        <v>955.5249999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>947</v>
+      </c>
+      <c r="C8" t="n">
         <v>945</v>
       </c>
-      <c r="C8" t="n">
-        <v>936</v>
-      </c>
       <c r="D8" t="n">
+        <v>947</v>
+      </c>
+      <c r="E8" t="n">
         <v>945</v>
       </c>
-      <c r="E8" t="n">
-        <v>936</v>
-      </c>
       <c r="F8" t="n">
-        <v>7526.5517</v>
+        <v>2212.7986</v>
       </c>
       <c r="G8" t="n">
-        <v>955.1116666666665</v>
+        <v>955.3916666666665</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,32 +678,38 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C9" t="n">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="D9" t="n">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="E9" t="n">
-        <v>943</v>
+        <v>936</v>
       </c>
       <c r="F9" t="n">
-        <v>1233.9827</v>
+        <v>7526.5517</v>
       </c>
       <c r="G9" t="n">
-        <v>954.9483333333332</v>
+        <v>955.1116666666665</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>945</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -713,32 +719,38 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="C10" t="n">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="D10" t="n">
-        <v>938</v>
+        <v>943</v>
       </c>
       <c r="E10" t="n">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="F10" t="n">
-        <v>16406.6858</v>
+        <v>1233.9827</v>
       </c>
       <c r="G10" t="n">
-        <v>954.6649999999997</v>
+        <v>954.9483333333332</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>936</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -748,22 +760,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>938</v>
+      </c>
+      <c r="C11" t="n">
         <v>935</v>
       </c>
-      <c r="C11" t="n">
-        <v>943</v>
-      </c>
       <c r="D11" t="n">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="E11" t="n">
         <v>935</v>
       </c>
       <c r="F11" t="n">
-        <v>1292.6576</v>
+        <v>16406.6858</v>
       </c>
       <c r="G11" t="n">
-        <v>954.4316666666665</v>
+        <v>954.6649999999997</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -773,7 +785,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,7 +799,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="C12" t="n">
         <v>943</v>
@@ -792,13 +808,13 @@
         <v>943</v>
       </c>
       <c r="E12" t="n">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="F12" t="n">
-        <v>892.2401</v>
+        <v>1292.6576</v>
       </c>
       <c r="G12" t="n">
-        <v>954.2149999999998</v>
+        <v>954.4316666666665</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -808,7 +824,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -818,22 +838,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="C13" t="n">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="D13" t="n">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="E13" t="n">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="F13" t="n">
-        <v>315.78947368</v>
+        <v>892.2401</v>
       </c>
       <c r="G13" t="n">
-        <v>954.1149999999998</v>
+        <v>954.2149999999998</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -843,7 +863,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -865,10 +889,10 @@
         <v>950</v>
       </c>
       <c r="F14" t="n">
-        <v>5.9185</v>
+        <v>315.78947368</v>
       </c>
       <c r="G14" t="n">
-        <v>953.9649999999998</v>
+        <v>954.1149999999998</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -878,7 +902,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -888,32 +916,38 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="C15" t="n">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="D15" t="n">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="E15" t="n">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="F15" t="n">
-        <v>1043.1337</v>
+        <v>5.9185</v>
       </c>
       <c r="G15" t="n">
-        <v>953.7483333333331</v>
+        <v>953.9649999999998</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>950</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -923,22 +957,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>946.2</v>
+        <v>946</v>
       </c>
       <c r="C16" t="n">
-        <v>946.1</v>
+        <v>946</v>
       </c>
       <c r="D16" t="n">
-        <v>946.2</v>
+        <v>946</v>
       </c>
       <c r="E16" t="n">
-        <v>946.1</v>
+        <v>946</v>
       </c>
       <c r="F16" t="n">
-        <v>58.7516</v>
+        <v>1043.1337</v>
       </c>
       <c r="G16" t="n">
-        <v>953.5333333333331</v>
+        <v>953.7483333333331</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -948,7 +982,11 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -958,32 +996,38 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>953</v>
+        <v>946.2</v>
       </c>
       <c r="C17" t="n">
-        <v>955</v>
+        <v>946.1</v>
       </c>
       <c r="D17" t="n">
-        <v>955</v>
+        <v>946.2</v>
       </c>
       <c r="E17" t="n">
-        <v>953</v>
+        <v>946.1</v>
       </c>
       <c r="F17" t="n">
-        <v>138.6287</v>
+        <v>58.7516</v>
       </c>
       <c r="G17" t="n">
-        <v>953.5499999999997</v>
+        <v>953.5333333333331</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>946</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -993,7 +1037,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C18" t="n">
         <v>955</v>
@@ -1002,13 +1046,13 @@
         <v>955</v>
       </c>
       <c r="E18" t="n">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F18" t="n">
-        <v>758.7003</v>
+        <v>138.6287</v>
       </c>
       <c r="G18" t="n">
-        <v>953.6166666666664</v>
+        <v>953.5499999999997</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,7 +1062,11 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1040,10 +1088,10 @@
         <v>955</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0001</v>
+        <v>758.7003</v>
       </c>
       <c r="G19" t="n">
-        <v>953.6666666666664</v>
+        <v>953.6166666666664</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1053,7 +1101,11 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1075,10 +1127,10 @@
         <v>955</v>
       </c>
       <c r="F20" t="n">
-        <v>698.0802</v>
+        <v>0.0001</v>
       </c>
       <c r="G20" t="n">
-        <v>953.7499999999998</v>
+        <v>953.6666666666664</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,7 +1140,11 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1110,10 +1166,10 @@
         <v>955</v>
       </c>
       <c r="F21" t="n">
-        <v>138.7203</v>
+        <v>698.0802</v>
       </c>
       <c r="G21" t="n">
-        <v>953.8499999999998</v>
+        <v>953.7499999999998</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,7 +1179,11 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1133,22 +1193,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C22" t="n">
-        <v>957.1</v>
+        <v>955</v>
       </c>
       <c r="D22" t="n">
-        <v>957.1</v>
+        <v>955</v>
       </c>
       <c r="E22" t="n">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F22" t="n">
-        <v>168.7522</v>
+        <v>138.7203</v>
       </c>
       <c r="G22" t="n">
-        <v>953.9849999999998</v>
+        <v>953.8499999999998</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1158,7 +1218,11 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1168,10 +1232,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>957</v>
+      </c>
+      <c r="C23" t="n">
         <v>957.1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>957</v>
       </c>
       <c r="D23" t="n">
         <v>957.1</v>
@@ -1180,10 +1244,10 @@
         <v>957</v>
       </c>
       <c r="F23" t="n">
-        <v>955.2711</v>
+        <v>168.7522</v>
       </c>
       <c r="G23" t="n">
-        <v>954.1183333333331</v>
+        <v>953.9849999999998</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,7 +1257,11 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1203,22 +1271,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
+        <v>957.1</v>
+      </c>
+      <c r="C24" t="n">
         <v>957</v>
       </c>
-      <c r="C24" t="n">
-        <v>958</v>
-      </c>
       <c r="D24" t="n">
-        <v>958</v>
+        <v>957.1</v>
       </c>
       <c r="E24" t="n">
         <v>957</v>
       </c>
       <c r="F24" t="n">
-        <v>596.057</v>
+        <v>955.2711</v>
       </c>
       <c r="G24" t="n">
-        <v>954.2683333333331</v>
+        <v>954.1183333333331</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1228,7 +1296,11 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1238,22 +1310,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
+        <v>957</v>
+      </c>
+      <c r="C25" t="n">
         <v>958</v>
       </c>
-      <c r="C25" t="n">
-        <v>959</v>
-      </c>
       <c r="D25" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E25" t="n">
-        <v>955</v>
+        <v>957</v>
       </c>
       <c r="F25" t="n">
-        <v>3010.9153</v>
+        <v>596.057</v>
       </c>
       <c r="G25" t="n">
-        <v>954.4349999999997</v>
+        <v>954.2683333333331</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,7 +1335,11 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1273,22 +1349,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>956</v>
+        <v>958</v>
       </c>
       <c r="C26" t="n">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="D26" t="n">
-        <v>956</v>
+        <v>959</v>
       </c>
       <c r="E26" t="n">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F26" t="n">
-        <v>70.55240000000001</v>
+        <v>3010.9153</v>
       </c>
       <c r="G26" t="n">
-        <v>954.5516666666664</v>
+        <v>954.4349999999997</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,7 +1374,11 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1320,10 +1400,10 @@
         <v>956</v>
       </c>
       <c r="F27" t="n">
-        <v>69.6996</v>
+        <v>70.55240000000001</v>
       </c>
       <c r="G27" t="n">
-        <v>954.6683333333331</v>
+        <v>954.5516666666664</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,7 +1413,11 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1343,22 +1427,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="C28" t="n">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="D28" t="n">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="E28" t="n">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>69.6996</v>
       </c>
       <c r="G28" t="n">
-        <v>954.8683333333331</v>
+        <v>954.6683333333331</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,7 +1452,11 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1390,10 +1478,10 @@
         <v>961</v>
       </c>
       <c r="F29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>955.0849999999997</v>
+        <v>954.8683333333331</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,7 +1491,11 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1425,10 +1517,10 @@
         <v>961</v>
       </c>
       <c r="F30" t="n">
-        <v>1058.8</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
-        <v>955.2516666666664</v>
+        <v>955.0849999999997</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,7 +1530,11 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1451,19 +1547,19 @@
         <v>961</v>
       </c>
       <c r="C31" t="n">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="D31" t="n">
         <v>961</v>
       </c>
       <c r="E31" t="n">
-        <v>955</v>
+        <v>961</v>
       </c>
       <c r="F31" t="n">
-        <v>363.0511</v>
+        <v>1058.8</v>
       </c>
       <c r="G31" t="n">
-        <v>955.318333333333</v>
+        <v>955.2516666666664</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,7 +1569,11 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1483,22 +1583,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="C32" t="n">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D32" t="n">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="E32" t="n">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F32" t="n">
-        <v>743.9775</v>
+        <v>363.0511</v>
       </c>
       <c r="G32" t="n">
-        <v>955.2683333333331</v>
+        <v>955.318333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,7 +1608,11 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1530,10 +1634,10 @@
         <v>956</v>
       </c>
       <c r="F33" t="n">
-        <v>330.7066</v>
+        <v>743.9775</v>
       </c>
       <c r="G33" t="n">
-        <v>955.2016666666664</v>
+        <v>955.2683333333331</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,7 +1647,11 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1553,22 +1661,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C34" t="n">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="D34" t="n">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="E34" t="n">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="F34" t="n">
-        <v>8336.2467</v>
+        <v>330.7066</v>
       </c>
       <c r="G34" t="n">
-        <v>955.218333333333</v>
+        <v>955.2016666666664</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,7 +1686,11 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1588,22 +1700,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C35" t="n">
         <v>960</v>
       </c>
       <c r="D35" t="n">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E35" t="n">
         <v>960</v>
       </c>
       <c r="F35" t="n">
-        <v>576.79735197</v>
+        <v>8336.2467</v>
       </c>
       <c r="G35" t="n">
-        <v>955.2849999999997</v>
+        <v>955.218333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,7 +1725,11 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1623,22 +1739,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>962</v>
+      </c>
+      <c r="C36" t="n">
         <v>960</v>
       </c>
-      <c r="C36" t="n">
-        <v>961</v>
-      </c>
       <c r="D36" t="n">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="E36" t="n">
         <v>960</v>
       </c>
       <c r="F36" t="n">
-        <v>903.1917999999999</v>
+        <v>576.79735197</v>
       </c>
       <c r="G36" t="n">
-        <v>955.3683333333331</v>
+        <v>955.2849999999997</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,7 +1764,11 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1658,22 +1778,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="C37" t="n">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="D37" t="n">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="E37" t="n">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="F37" t="n">
-        <v>51.92052313</v>
+        <v>903.1917999999999</v>
       </c>
       <c r="G37" t="n">
-        <v>955.6016666666663</v>
+        <v>955.3683333333331</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,7 +1803,11 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1693,7 +1817,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C38" t="n">
         <v>964</v>
@@ -1702,13 +1826,13 @@
         <v>964</v>
       </c>
       <c r="E38" t="n">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F38" t="n">
-        <v>43.32797687</v>
+        <v>51.92052313</v>
       </c>
       <c r="G38" t="n">
-        <v>955.8516666666663</v>
+        <v>955.6016666666663</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,7 +1842,11 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1728,22 +1856,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>964.1</v>
+        <v>964</v>
       </c>
       <c r="C39" t="n">
-        <v>964.1</v>
+        <v>964</v>
       </c>
       <c r="D39" t="n">
-        <v>964.1</v>
+        <v>964</v>
       </c>
       <c r="E39" t="n">
-        <v>964.1</v>
+        <v>964</v>
       </c>
       <c r="F39" t="n">
-        <v>52.64</v>
+        <v>43.32797687</v>
       </c>
       <c r="G39" t="n">
-        <v>956.0866666666664</v>
+        <v>955.8516666666663</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,7 +1881,11 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1763,22 +1895,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>965</v>
+        <v>964.1</v>
       </c>
       <c r="C40" t="n">
-        <v>967.9</v>
+        <v>964.1</v>
       </c>
       <c r="D40" t="n">
-        <v>967.9</v>
+        <v>964.1</v>
       </c>
       <c r="E40" t="n">
-        <v>965</v>
+        <v>964.1</v>
       </c>
       <c r="F40" t="n">
-        <v>172.7534</v>
+        <v>52.64</v>
       </c>
       <c r="G40" t="n">
-        <v>956.4016666666664</v>
+        <v>956.0866666666664</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,7 +1920,11 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1798,7 +1934,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>967.9</v>
+        <v>965</v>
       </c>
       <c r="C41" t="n">
         <v>967.9</v>
@@ -1807,13 +1943,13 @@
         <v>967.9</v>
       </c>
       <c r="E41" t="n">
-        <v>967.9</v>
+        <v>965</v>
       </c>
       <c r="F41" t="n">
-        <v>0.745</v>
+        <v>172.7534</v>
       </c>
       <c r="G41" t="n">
-        <v>956.7333333333331</v>
+        <v>956.4016666666664</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,7 +1959,11 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1845,10 +1985,10 @@
         <v>967.9</v>
       </c>
       <c r="F42" t="n">
-        <v>73.42749999999999</v>
+        <v>0.745</v>
       </c>
       <c r="G42" t="n">
-        <v>956.8983333333331</v>
+        <v>956.7333333333331</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,7 +1998,11 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1880,10 +2024,10 @@
         <v>967.9</v>
       </c>
       <c r="F43" t="n">
-        <v>445</v>
+        <v>73.42749999999999</v>
       </c>
       <c r="G43" t="n">
-        <v>957.0633333333332</v>
+        <v>956.8983333333331</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,7 +2037,11 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1915,10 +2063,10 @@
         <v>967.9</v>
       </c>
       <c r="F44" t="n">
-        <v>149.6508</v>
+        <v>445</v>
       </c>
       <c r="G44" t="n">
-        <v>957.2116666666665</v>
+        <v>957.0633333333332</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,7 +2076,11 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1938,22 +2090,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>969</v>
+        <v>967.9</v>
       </c>
       <c r="C45" t="n">
-        <v>970</v>
+        <v>967.9</v>
       </c>
       <c r="D45" t="n">
-        <v>970</v>
+        <v>967.9</v>
       </c>
       <c r="E45" t="n">
-        <v>969</v>
+        <v>967.9</v>
       </c>
       <c r="F45" t="n">
-        <v>152.2128</v>
+        <v>149.6508</v>
       </c>
       <c r="G45" t="n">
-        <v>957.4283333333332</v>
+        <v>957.2116666666665</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,7 +2115,11 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2129,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C46" t="n">
         <v>970</v>
@@ -1982,13 +2138,13 @@
         <v>970</v>
       </c>
       <c r="E46" t="n">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F46" t="n">
-        <v>36.1023</v>
+        <v>152.2128</v>
       </c>
       <c r="G46" t="n">
-        <v>957.6116666666665</v>
+        <v>957.4283333333332</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,7 +2154,11 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2011,19 +2171,19 @@
         <v>970</v>
       </c>
       <c r="C47" t="n">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="D47" t="n">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="E47" t="n">
         <v>970</v>
       </c>
       <c r="F47" t="n">
-        <v>53.6027</v>
+        <v>36.1023</v>
       </c>
       <c r="G47" t="n">
-        <v>957.8616666666665</v>
+        <v>957.6116666666665</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,7 +2193,11 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2043,22 +2207,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>976.7</v>
+        <v>970</v>
       </c>
       <c r="C48" t="n">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="D48" t="n">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="E48" t="n">
-        <v>976.7</v>
+        <v>970</v>
       </c>
       <c r="F48" t="n">
-        <v>1692.3377</v>
+        <v>53.6027</v>
       </c>
       <c r="G48" t="n">
-        <v>958.1949999999998</v>
+        <v>957.8616666666665</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,7 +2232,11 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2078,22 +2246,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>979</v>
+        <v>976.7</v>
       </c>
       <c r="C49" t="n">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="D49" t="n">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E49" t="n">
-        <v>975</v>
+        <v>976.7</v>
       </c>
       <c r="F49" t="n">
-        <v>3645.699</v>
+        <v>1692.3377</v>
       </c>
       <c r="G49" t="n">
-        <v>958.4616666666665</v>
+        <v>958.1949999999998</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,7 +2271,11 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2113,22 +2285,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C50" t="n">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="D50" t="n">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E50" t="n">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="F50" t="n">
-        <v>1</v>
+        <v>3645.699</v>
       </c>
       <c r="G50" t="n">
-        <v>958.7116666666665</v>
+        <v>958.4616666666665</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,7 +2310,11 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2148,22 +2324,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C51" t="n">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D51" t="n">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E51" t="n">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F51" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>959.0449999999998</v>
+        <v>958.7116666666665</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,7 +2349,11 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2183,32 +2363,36 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>982.6</v>
+        <v>981</v>
       </c>
       <c r="C52" t="n">
-        <v>987.9</v>
+        <v>981</v>
       </c>
       <c r="D52" t="n">
-        <v>989.9</v>
+        <v>981</v>
       </c>
       <c r="E52" t="n">
         <v>981</v>
       </c>
       <c r="F52" t="n">
-        <v>4716.5918</v>
+        <v>50</v>
       </c>
       <c r="G52" t="n">
-        <v>959.4933333333332</v>
+        <v>959.0449999999998</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2402,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>981.2</v>
+        <v>982.6</v>
       </c>
       <c r="C53" t="n">
-        <v>981</v>
+        <v>987.9</v>
       </c>
       <c r="D53" t="n">
-        <v>989</v>
+        <v>989.9</v>
       </c>
       <c r="E53" t="n">
         <v>981</v>
       </c>
       <c r="F53" t="n">
-        <v>7173.9715</v>
+        <v>4716.5918</v>
       </c>
       <c r="G53" t="n">
-        <v>959.8266666666665</v>
+        <v>959.4933333333332</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,7 +2427,11 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2253,22 +2441,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>986.8</v>
+        <v>981.2</v>
       </c>
       <c r="C54" t="n">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="D54" t="n">
         <v>989</v>
       </c>
       <c r="E54" t="n">
-        <v>986.8</v>
+        <v>981</v>
       </c>
       <c r="F54" t="n">
-        <v>3.6789</v>
+        <v>7173.9715</v>
       </c>
       <c r="G54" t="n">
-        <v>960.3099999999998</v>
+        <v>959.8266666666665</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,32 +2466,34 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>987</v>
+        <v>986.8</v>
       </c>
       <c r="C55" t="n">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="D55" t="n">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="E55" t="n">
-        <v>987</v>
+        <v>986.8</v>
       </c>
       <c r="F55" t="n">
-        <v>2.25126646</v>
+        <v>3.6789</v>
       </c>
       <c r="G55" t="n">
-        <v>960.7599999999999</v>
+        <v>960.3099999999998</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,7 +2513,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>978</v>
+        <v>987</v>
       </c>
       <c r="C56" t="n">
         <v>987</v>
@@ -2332,13 +2522,13 @@
         <v>987</v>
       </c>
       <c r="E56" t="n">
-        <v>978</v>
+        <v>987</v>
       </c>
       <c r="F56" t="n">
-        <v>415.8677</v>
+        <v>2.25126646</v>
       </c>
       <c r="G56" t="n">
-        <v>961.0599999999998</v>
+        <v>960.7599999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,28 +2548,28 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C57" t="n">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="D57" t="n">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="E57" t="n">
         <v>978</v>
       </c>
       <c r="F57" t="n">
-        <v>3324.2294</v>
+        <v>415.8677</v>
       </c>
       <c r="G57" t="n">
-        <v>961.4933333333332</v>
+        <v>961.0599999999998</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2393,28 +2583,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C58" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="D58" t="n">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E58" t="n">
         <v>978</v>
       </c>
       <c r="F58" t="n">
-        <v>454.0044</v>
+        <v>3324.2294</v>
       </c>
       <c r="G58" t="n">
-        <v>961.9066666666665</v>
+        <v>961.4933333333332</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2428,7 +2618,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="C59" t="n">
         <v>986</v>
@@ -2437,13 +2627,13 @@
         <v>986</v>
       </c>
       <c r="E59" t="n">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="F59" t="n">
-        <v>34.7888</v>
+        <v>454.0044</v>
       </c>
       <c r="G59" t="n">
-        <v>962.3199999999999</v>
+        <v>961.9066666666665</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2653,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C60" t="n">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="D60" t="n">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="E60" t="n">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="F60" t="n">
-        <v>55</v>
+        <v>34.7888</v>
       </c>
       <c r="G60" t="n">
-        <v>962.8166666666667</v>
+        <v>962.3199999999999</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,28 +2688,28 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C61" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="D61" t="n">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E61" t="n">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F61" t="n">
-        <v>7.86349848</v>
+        <v>55</v>
       </c>
       <c r="G61" t="n">
-        <v>963.1666666666666</v>
+        <v>962.8166666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
@@ -2536,25 +2726,25 @@
         <v>989</v>
       </c>
       <c r="C62" t="n">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="D62" t="n">
         <v>989</v>
       </c>
       <c r="E62" t="n">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="F62" t="n">
-        <v>2442.7393</v>
+        <v>7.86349848</v>
       </c>
       <c r="G62" t="n">
-        <v>963.4333333333333</v>
+        <v>963.1666666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
@@ -2568,28 +2758,28 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>987.9</v>
+        <v>989</v>
       </c>
       <c r="C63" t="n">
-        <v>988.9</v>
+        <v>979</v>
       </c>
       <c r="D63" t="n">
-        <v>988.9</v>
+        <v>989</v>
       </c>
       <c r="E63" t="n">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F63" t="n">
-        <v>546.8394</v>
+        <v>2442.7393</v>
       </c>
       <c r="G63" t="n">
-        <v>963.9150000000001</v>
+        <v>963.4333333333333</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
@@ -2603,22 +2793,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>987.8</v>
+        <v>987.9</v>
       </c>
       <c r="C64" t="n">
-        <v>981</v>
+        <v>988.9</v>
       </c>
       <c r="D64" t="n">
-        <v>987.8</v>
+        <v>988.9</v>
       </c>
       <c r="E64" t="n">
         <v>981</v>
       </c>
       <c r="F64" t="n">
-        <v>27.2</v>
+        <v>546.8394</v>
       </c>
       <c r="G64" t="n">
-        <v>964.4150000000001</v>
+        <v>963.9150000000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2638,10 +2828,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
+        <v>987.8</v>
+      </c>
+      <c r="C65" t="n">
         <v>981</v>
-      </c>
-      <c r="C65" t="n">
-        <v>987.8</v>
       </c>
       <c r="D65" t="n">
         <v>987.8</v>
@@ -2650,10 +2840,10 @@
         <v>981</v>
       </c>
       <c r="F65" t="n">
-        <v>562</v>
+        <v>27.2</v>
       </c>
       <c r="G65" t="n">
-        <v>965.0233333333333</v>
+        <v>964.4150000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2863,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C66" t="n">
-        <v>982</v>
+        <v>987.8</v>
       </c>
       <c r="D66" t="n">
-        <v>982</v>
+        <v>987.8</v>
       </c>
       <c r="E66" t="n">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F66" t="n">
-        <v>294.942</v>
+        <v>562</v>
       </c>
       <c r="G66" t="n">
-        <v>965.6066666666667</v>
+        <v>965.0233333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2898,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>987.8</v>
+        <v>982</v>
       </c>
       <c r="C67" t="n">
-        <v>987.8</v>
+        <v>982</v>
       </c>
       <c r="D67" t="n">
-        <v>987.8</v>
+        <v>982</v>
       </c>
       <c r="E67" t="n">
-        <v>981.1</v>
+        <v>982</v>
       </c>
       <c r="F67" t="n">
-        <v>2362.4499</v>
+        <v>294.942</v>
       </c>
       <c r="G67" t="n">
-        <v>966.3200000000001</v>
+        <v>965.6066666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2933,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>981</v>
+        <v>987.8</v>
       </c>
       <c r="C68" t="n">
-        <v>981</v>
+        <v>987.8</v>
       </c>
       <c r="D68" t="n">
-        <v>981</v>
+        <v>987.8</v>
       </c>
       <c r="E68" t="n">
-        <v>981</v>
+        <v>981.1</v>
       </c>
       <c r="F68" t="n">
-        <v>1033.1342</v>
+        <v>2362.4499</v>
       </c>
       <c r="G68" t="n">
-        <v>967.0700000000001</v>
+        <v>966.3200000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2968,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C69" t="n">
-        <v>982.7</v>
+        <v>981</v>
       </c>
       <c r="D69" t="n">
-        <v>982.7</v>
+        <v>981</v>
       </c>
       <c r="E69" t="n">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F69" t="n">
-        <v>832.1973</v>
+        <v>1033.1342</v>
       </c>
       <c r="G69" t="n">
-        <v>967.7316666666667</v>
+        <v>967.0700000000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +3003,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>981.9</v>
+        <v>982</v>
       </c>
       <c r="C70" t="n">
-        <v>981.9</v>
+        <v>982.7</v>
       </c>
       <c r="D70" t="n">
-        <v>981.9</v>
+        <v>982.7</v>
       </c>
       <c r="E70" t="n">
-        <v>981.9</v>
+        <v>982</v>
       </c>
       <c r="F70" t="n">
-        <v>249.0591</v>
+        <v>832.1973</v>
       </c>
       <c r="G70" t="n">
-        <v>968.5133333333334</v>
+        <v>967.7316666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2860,10 +3050,10 @@
         <v>981.9</v>
       </c>
       <c r="F71" t="n">
-        <v>249.0593</v>
+        <v>249.0591</v>
       </c>
       <c r="G71" t="n">
-        <v>969.1616666666667</v>
+        <v>968.5133333333334</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2895,10 +3085,10 @@
         <v>981.9</v>
       </c>
       <c r="F72" t="n">
-        <v>65.04949999999999</v>
+        <v>249.0593</v>
       </c>
       <c r="G72" t="n">
-        <v>969.8100000000001</v>
+        <v>969.1616666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +3108,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>981</v>
+        <v>981.9</v>
       </c>
       <c r="C73" t="n">
-        <v>981</v>
+        <v>981.9</v>
       </c>
       <c r="D73" t="n">
-        <v>981</v>
+        <v>981.9</v>
       </c>
       <c r="E73" t="n">
-        <v>981</v>
+        <v>981.9</v>
       </c>
       <c r="F73" t="n">
-        <v>18.1608</v>
+        <v>65.04949999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>970.3266666666667</v>
+        <v>969.8100000000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2953,22 +3143,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="C74" t="n">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="D74" t="n">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="E74" t="n">
-        <v>977</v>
+        <v>981</v>
       </c>
       <c r="F74" t="n">
-        <v>33.7597</v>
+        <v>18.1608</v>
       </c>
       <c r="G74" t="n">
-        <v>970.7766666666668</v>
+        <v>970.3266666666667</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2991,19 +3181,19 @@
         <v>977</v>
       </c>
       <c r="C75" t="n">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="D75" t="n">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="E75" t="n">
         <v>977</v>
       </c>
       <c r="F75" t="n">
-        <v>1558.1882</v>
+        <v>33.7597</v>
       </c>
       <c r="G75" t="n">
-        <v>971.3600000000001</v>
+        <v>970.7766666666668</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3213,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>975</v>
+        <v>977</v>
       </c>
       <c r="C76" t="n">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="D76" t="n">
-        <v>975</v>
+        <v>981</v>
       </c>
       <c r="E76" t="n">
-        <v>974</v>
+        <v>977</v>
       </c>
       <c r="F76" t="n">
-        <v>832.9425</v>
+        <v>1558.1882</v>
       </c>
       <c r="G76" t="n">
-        <v>971.8250000000002</v>
+        <v>971.3600000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3248,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>974.3</v>
+        <v>975</v>
       </c>
       <c r="C77" t="n">
-        <v>974.3</v>
+        <v>974</v>
       </c>
       <c r="D77" t="n">
-        <v>974.3</v>
+        <v>975</v>
       </c>
       <c r="E77" t="n">
-        <v>974.3</v>
+        <v>974</v>
       </c>
       <c r="F77" t="n">
-        <v>8.378</v>
+        <v>832.9425</v>
       </c>
       <c r="G77" t="n">
-        <v>972.1466666666669</v>
+        <v>971.8250000000002</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,22 +3283,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>982</v>
+        <v>974.3</v>
       </c>
       <c r="C78" t="n">
-        <v>982</v>
+        <v>974.3</v>
       </c>
       <c r="D78" t="n">
-        <v>982</v>
+        <v>974.3</v>
       </c>
       <c r="E78" t="n">
-        <v>982</v>
+        <v>974.3</v>
       </c>
       <c r="F78" t="n">
-        <v>115.0345</v>
+        <v>8.378</v>
       </c>
       <c r="G78" t="n">
-        <v>972.5966666666668</v>
+        <v>972.1466666666669</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3318,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="C79" t="n">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="D79" t="n">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="E79" t="n">
-        <v>980</v>
+        <v>982</v>
       </c>
       <c r="F79" t="n">
-        <v>43.5125</v>
+        <v>115.0345</v>
       </c>
       <c r="G79" t="n">
-        <v>973.0133333333335</v>
+        <v>972.5966666666668</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3353,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C80" t="n">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="D80" t="n">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="E80" t="n">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="F80" t="n">
-        <v>494.7802</v>
+        <v>43.5125</v>
       </c>
       <c r="G80" t="n">
-        <v>973.4966666666668</v>
+        <v>973.0133333333335</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3198,22 +3388,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C81" t="n">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="D81" t="n">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="E81" t="n">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="F81" t="n">
-        <v>38.1</v>
+        <v>494.7802</v>
       </c>
       <c r="G81" t="n">
-        <v>974.0466666666669</v>
+        <v>973.4966666666668</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3245,10 +3435,10 @@
         <v>988</v>
       </c>
       <c r="F82" t="n">
-        <v>8.378</v>
+        <v>38.1</v>
       </c>
       <c r="G82" t="n">
-        <v>974.5616666666668</v>
+        <v>974.0466666666669</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,22 +3458,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C83" t="n">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="D83" t="n">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E83" t="n">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F83" t="n">
-        <v>50.4291</v>
+        <v>8.378</v>
       </c>
       <c r="G83" t="n">
-        <v>975.0950000000001</v>
+        <v>974.5616666666668</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3493,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>988.1</v>
+        <v>989</v>
       </c>
       <c r="C84" t="n">
-        <v>988.1</v>
+        <v>989</v>
       </c>
       <c r="D84" t="n">
-        <v>988.1</v>
+        <v>989</v>
       </c>
       <c r="E84" t="n">
-        <v>988.1</v>
+        <v>989</v>
       </c>
       <c r="F84" t="n">
-        <v>35.71</v>
+        <v>50.4291</v>
       </c>
       <c r="G84" t="n">
-        <v>975.5966666666668</v>
+        <v>975.0950000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3338,22 +3528,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>988</v>
+        <v>988.1</v>
       </c>
       <c r="C85" t="n">
-        <v>990</v>
+        <v>988.1</v>
       </c>
       <c r="D85" t="n">
-        <v>990</v>
+        <v>988.1</v>
       </c>
       <c r="E85" t="n">
-        <v>988</v>
+        <v>988.1</v>
       </c>
       <c r="F85" t="n">
-        <v>1058.584</v>
+        <v>35.71</v>
       </c>
       <c r="G85" t="n">
-        <v>976.1133333333335</v>
+        <v>975.5966666666668</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3376,19 +3566,19 @@
         <v>988</v>
       </c>
       <c r="C86" t="n">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="D86" t="n">
-        <v>988</v>
+        <v>990</v>
       </c>
       <c r="E86" t="n">
         <v>988</v>
       </c>
       <c r="F86" t="n">
-        <v>199.7309</v>
+        <v>1058.584</v>
       </c>
       <c r="G86" t="n">
-        <v>976.6466666666669</v>
+        <v>976.1133333333335</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3598,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="C87" t="n">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="D87" t="n">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="E87" t="n">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="F87" t="n">
-        <v>180.6891</v>
+        <v>199.7309</v>
       </c>
       <c r="G87" t="n">
-        <v>977.1466666666669</v>
+        <v>976.6466666666669</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3633,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>987.9</v>
+        <v>986</v>
       </c>
       <c r="C88" t="n">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="D88" t="n">
-        <v>987.9</v>
+        <v>986</v>
       </c>
       <c r="E88" t="n">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="F88" t="n">
-        <v>56.492</v>
+        <v>180.6891</v>
       </c>
       <c r="G88" t="n">
-        <v>977.5300000000002</v>
+        <v>977.1466666666669</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3668,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>983</v>
+        <v>987.9</v>
       </c>
       <c r="C89" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D89" t="n">
-        <v>983</v>
+        <v>987.9</v>
       </c>
       <c r="E89" t="n">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="F89" t="n">
-        <v>539.9289</v>
+        <v>56.492</v>
       </c>
       <c r="G89" t="n">
-        <v>977.8966666666669</v>
+        <v>977.5300000000002</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3516,19 +3706,19 @@
         <v>983</v>
       </c>
       <c r="C90" t="n">
-        <v>982.1</v>
+        <v>983</v>
       </c>
       <c r="D90" t="n">
         <v>983</v>
       </c>
       <c r="E90" t="n">
-        <v>982.1</v>
+        <v>983</v>
       </c>
       <c r="F90" t="n">
-        <v>39.95</v>
+        <v>539.9289</v>
       </c>
       <c r="G90" t="n">
-        <v>978.2483333333334</v>
+        <v>977.8966666666669</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3738,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>982.1</v>
+        <v>983</v>
       </c>
       <c r="C91" t="n">
         <v>982.1</v>
       </c>
       <c r="D91" t="n">
-        <v>982.1</v>
+        <v>983</v>
       </c>
       <c r="E91" t="n">
         <v>982.1</v>
       </c>
       <c r="F91" t="n">
-        <v>1638.6868</v>
+        <v>39.95</v>
       </c>
       <c r="G91" t="n">
-        <v>978.7000000000002</v>
+        <v>978.2483333333334</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3773,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>982</v>
+        <v>982.1</v>
       </c>
       <c r="C92" t="n">
-        <v>982</v>
+        <v>982.1</v>
       </c>
       <c r="D92" t="n">
-        <v>982</v>
+        <v>982.1</v>
       </c>
       <c r="E92" t="n">
-        <v>982</v>
+        <v>982.1</v>
       </c>
       <c r="F92" t="n">
-        <v>4.7719</v>
+        <v>1638.6868</v>
       </c>
       <c r="G92" t="n">
-        <v>979.1333333333334</v>
+        <v>978.7000000000002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3808,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>978.2</v>
+        <v>982</v>
       </c>
       <c r="C93" t="n">
-        <v>978.2</v>
+        <v>982</v>
       </c>
       <c r="D93" t="n">
-        <v>978.2</v>
+        <v>982</v>
       </c>
       <c r="E93" t="n">
-        <v>978.2</v>
+        <v>982</v>
       </c>
       <c r="F93" t="n">
-        <v>1318.6741</v>
+        <v>4.7719</v>
       </c>
       <c r="G93" t="n">
-        <v>979.5033333333334</v>
+        <v>979.1333333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3665,10 +3855,10 @@
         <v>978.2</v>
       </c>
       <c r="F94" t="n">
-        <v>176.9184</v>
+        <v>1318.6741</v>
       </c>
       <c r="G94" t="n">
-        <v>979.8066666666667</v>
+        <v>979.5033333333334</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3878,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>978.5</v>
+        <v>978.2</v>
       </c>
       <c r="C95" t="n">
-        <v>978.3</v>
+        <v>978.2</v>
       </c>
       <c r="D95" t="n">
-        <v>978.5</v>
+        <v>978.2</v>
       </c>
       <c r="E95" t="n">
-        <v>978.3</v>
+        <v>978.2</v>
       </c>
       <c r="F95" t="n">
-        <v>698.1337</v>
+        <v>176.9184</v>
       </c>
       <c r="G95" t="n">
-        <v>980.1116666666668</v>
+        <v>979.8066666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3913,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>978.3</v>
+        <v>978.5</v>
       </c>
       <c r="C96" t="n">
         <v>978.3</v>
       </c>
       <c r="D96" t="n">
-        <v>978.3</v>
+        <v>978.5</v>
       </c>
       <c r="E96" t="n">
         <v>978.3</v>
       </c>
       <c r="F96" t="n">
-        <v>32.9725</v>
+        <v>698.1337</v>
       </c>
       <c r="G96" t="n">
-        <v>980.4000000000001</v>
+        <v>980.1116666666668</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3761,19 +3951,19 @@
         <v>978.3</v>
       </c>
       <c r="C97" t="n">
-        <v>978.2</v>
+        <v>978.3</v>
       </c>
       <c r="D97" t="n">
         <v>978.3</v>
       </c>
       <c r="E97" t="n">
-        <v>978.2</v>
+        <v>978.3</v>
       </c>
       <c r="F97" t="n">
-        <v>2749.4828</v>
+        <v>32.9725</v>
       </c>
       <c r="G97" t="n">
-        <v>980.6366666666668</v>
+        <v>980.4000000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3793,22 +3983,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
+        <v>978.3</v>
+      </c>
+      <c r="C98" t="n">
         <v>978.2</v>
       </c>
-      <c r="C98" t="n">
-        <v>978.1</v>
-      </c>
       <c r="D98" t="n">
+        <v>978.3</v>
+      </c>
+      <c r="E98" t="n">
         <v>978.2</v>
       </c>
-      <c r="E98" t="n">
-        <v>978.1</v>
-      </c>
       <c r="F98" t="n">
-        <v>2037.1898</v>
+        <v>2749.4828</v>
       </c>
       <c r="G98" t="n">
-        <v>980.8716666666667</v>
+        <v>980.6366666666668</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +4018,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>982</v>
+        <v>978.2</v>
       </c>
       <c r="C99" t="n">
         <v>978.1</v>
       </c>
       <c r="D99" t="n">
-        <v>982</v>
+        <v>978.2</v>
       </c>
       <c r="E99" t="n">
         <v>978.1</v>
       </c>
       <c r="F99" t="n">
-        <v>1683.8689</v>
+        <v>2037.1898</v>
       </c>
       <c r="G99" t="n">
-        <v>981.105</v>
+        <v>980.8716666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +4053,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
+        <v>982</v>
+      </c>
+      <c r="C100" t="n">
         <v>978.1</v>
       </c>
-      <c r="C100" t="n">
-        <v>978</v>
-      </c>
       <c r="D100" t="n">
+        <v>982</v>
+      </c>
+      <c r="E100" t="n">
         <v>978.1</v>
       </c>
-      <c r="E100" t="n">
-        <v>978</v>
-      </c>
       <c r="F100" t="n">
-        <v>1829.2583</v>
+        <v>1683.8689</v>
       </c>
       <c r="G100" t="n">
-        <v>981.2733333333333</v>
+        <v>981.105</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +4088,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>978.5</v>
+        <v>978.1</v>
       </c>
       <c r="C101" t="n">
-        <v>978.5</v>
+        <v>978</v>
       </c>
       <c r="D101" t="n">
-        <v>978.5</v>
+        <v>978.1</v>
       </c>
       <c r="E101" t="n">
-        <v>978.5</v>
+        <v>978</v>
       </c>
       <c r="F101" t="n">
-        <v>952.7177</v>
+        <v>1829.2583</v>
       </c>
       <c r="G101" t="n">
-        <v>981.45</v>
+        <v>981.2733333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +4123,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>978</v>
+        <v>978.5</v>
       </c>
       <c r="C102" t="n">
-        <v>972</v>
+        <v>978.5</v>
       </c>
       <c r="D102" t="n">
-        <v>978</v>
+        <v>978.5</v>
       </c>
       <c r="E102" t="n">
-        <v>972</v>
+        <v>978.5</v>
       </c>
       <c r="F102" t="n">
-        <v>236.2746</v>
+        <v>952.7177</v>
       </c>
       <c r="G102" t="n">
-        <v>981.5183333333333</v>
+        <v>981.45</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +4158,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
+        <v>978</v>
+      </c>
+      <c r="C103" t="n">
         <v>972</v>
       </c>
-      <c r="C103" t="n">
-        <v>971.1</v>
-      </c>
       <c r="D103" t="n">
+        <v>978</v>
+      </c>
+      <c r="E103" t="n">
         <v>972</v>
       </c>
-      <c r="E103" t="n">
-        <v>971.1</v>
-      </c>
       <c r="F103" t="n">
-        <v>630</v>
+        <v>236.2746</v>
       </c>
       <c r="G103" t="n">
-        <v>981.5716666666666</v>
+        <v>981.5183333333333</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4193,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C104" t="n">
-        <v>971</v>
+        <v>971.1</v>
       </c>
       <c r="D104" t="n">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E104" t="n">
-        <v>971</v>
+        <v>971.1</v>
       </c>
       <c r="F104" t="n">
-        <v>74.8553</v>
+        <v>630</v>
       </c>
       <c r="G104" t="n">
-        <v>981.6233333333332</v>
+        <v>981.5716666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4041,19 +4231,19 @@
         <v>971</v>
       </c>
       <c r="C105" t="n">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D105" t="n">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E105" t="n">
         <v>971</v>
       </c>
       <c r="F105" t="n">
-        <v>2264.8172</v>
+        <v>74.8553</v>
       </c>
       <c r="G105" t="n">
-        <v>981.6899999999999</v>
+        <v>981.6233333333332</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4263,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>977.7</v>
+        <v>971</v>
       </c>
       <c r="C106" t="n">
-        <v>977.7</v>
+        <v>974</v>
       </c>
       <c r="D106" t="n">
-        <v>977.7</v>
+        <v>974</v>
       </c>
       <c r="E106" t="n">
-        <v>977.7</v>
+        <v>971</v>
       </c>
       <c r="F106" t="n">
-        <v>237.9362</v>
+        <v>2264.8172</v>
       </c>
       <c r="G106" t="n">
-        <v>981.8183333333332</v>
+        <v>981.6899999999999</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4108,19 +4298,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>974</v>
+        <v>977.7</v>
       </c>
       <c r="C107" t="n">
-        <v>974</v>
+        <v>977.7</v>
       </c>
       <c r="D107" t="n">
-        <v>974</v>
+        <v>977.7</v>
       </c>
       <c r="E107" t="n">
-        <v>974</v>
+        <v>977.7</v>
       </c>
       <c r="F107" t="n">
-        <v>526</v>
+        <v>237.9362</v>
       </c>
       <c r="G107" t="n">
         <v>981.8183333333332</v>
@@ -4155,10 +4345,10 @@
         <v>974</v>
       </c>
       <c r="F108" t="n">
-        <v>310</v>
+        <v>526</v>
       </c>
       <c r="G108" t="n">
-        <v>981.7183333333331</v>
+        <v>981.8183333333332</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4380,10 @@
         <v>974</v>
       </c>
       <c r="F109" t="n">
-        <v>105</v>
+        <v>310</v>
       </c>
       <c r="G109" t="n">
-        <v>981.7016666666665</v>
+        <v>981.7183333333331</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4216,19 +4406,19 @@
         <v>974</v>
       </c>
       <c r="C110" t="n">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="D110" t="n">
         <v>974</v>
       </c>
       <c r="E110" t="n">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="F110" t="n">
-        <v>889.6532</v>
+        <v>105</v>
       </c>
       <c r="G110" t="n">
-        <v>981.5183333333332</v>
+        <v>981.7016666666665</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4438,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="C111" t="n">
         <v>971</v>
       </c>
       <c r="D111" t="n">
-        <v>971</v>
+        <v>974</v>
       </c>
       <c r="E111" t="n">
         <v>971</v>
       </c>
       <c r="F111" t="n">
-        <v>1146.8289</v>
+        <v>889.6532</v>
       </c>
       <c r="G111" t="n">
-        <v>981.3516666666666</v>
+        <v>981.5183333333332</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4473,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C112" t="n">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="D112" t="n">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="E112" t="n">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="F112" t="n">
-        <v>345</v>
+        <v>1146.8289</v>
       </c>
       <c r="G112" t="n">
-        <v>981.0366666666665</v>
+        <v>981.3516666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4318,22 +4508,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="C113" t="n">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="D113" t="n">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="E113" t="n">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="F113" t="n">
-        <v>93.3053</v>
+        <v>345</v>
       </c>
       <c r="G113" t="n">
-        <v>980.8033333333332</v>
+        <v>981.0366666666665</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4356,35 +4546,29 @@
         <v>967</v>
       </c>
       <c r="C114" t="n">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="D114" t="n">
         <v>967</v>
       </c>
       <c r="E114" t="n">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="F114" t="n">
-        <v>68.1036</v>
+        <v>93.3053</v>
       </c>
       <c r="G114" t="n">
-        <v>980.3866666666665</v>
+        <v>980.8033333333332</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>967</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4394,38 +4578,32 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="C115" t="n">
         <v>964</v>
       </c>
       <c r="D115" t="n">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="E115" t="n">
         <v>964</v>
       </c>
       <c r="F115" t="n">
-        <v>459.7813</v>
+        <v>68.1036</v>
       </c>
       <c r="G115" t="n">
-        <v>980.0033333333332</v>
+        <v>980.3866666666665</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>964</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4447,26 +4625,20 @@
         <v>964</v>
       </c>
       <c r="F116" t="n">
-        <v>2.313e-05</v>
+        <v>459.7813</v>
       </c>
       <c r="G116" t="n">
-        <v>979.6199999999998</v>
+        <v>980.0033333333332</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>964</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4488,26 +4660,20 @@
         <v>964</v>
       </c>
       <c r="F117" t="n">
-        <v>94.73237687</v>
+        <v>2.313e-05</v>
       </c>
       <c r="G117" t="n">
-        <v>979.2699999999999</v>
+        <v>979.6199999999998</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>964</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4517,38 +4683,32 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="C118" t="n">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="D118" t="n">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="E118" t="n">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="F118" t="n">
-        <v>10.5296</v>
+        <v>94.73237687</v>
       </c>
       <c r="G118" t="n">
-        <v>978.9866666666665</v>
+        <v>979.2699999999999</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>964</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4558,38 +4718,32 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>970.1</v>
+        <v>969</v>
       </c>
       <c r="C119" t="n">
-        <v>970.1</v>
+        <v>969</v>
       </c>
       <c r="D119" t="n">
-        <v>970.1</v>
+        <v>969</v>
       </c>
       <c r="E119" t="n">
-        <v>970.1</v>
+        <v>969</v>
       </c>
       <c r="F119" t="n">
-        <v>235</v>
+        <v>10.5296</v>
       </c>
       <c r="G119" t="n">
-        <v>978.7216666666665</v>
+        <v>978.9866666666665</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>969</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4611,26 +4765,20 @@
         <v>970.1</v>
       </c>
       <c r="F120" t="n">
-        <v>102.47</v>
+        <v>235</v>
       </c>
       <c r="G120" t="n">
-        <v>978.3899999999998</v>
+        <v>978.7216666666665</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>970.1</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4652,26 +4800,20 @@
         <v>970.1</v>
       </c>
       <c r="F121" t="n">
-        <v>785.2499</v>
+        <v>102.47</v>
       </c>
       <c r="G121" t="n">
-        <v>978.0749999999997</v>
+        <v>978.3899999999998</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>970.1</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4693,10 +4835,10 @@
         <v>970.1</v>
       </c>
       <c r="F122" t="n">
-        <v>206.76</v>
+        <v>785.2499</v>
       </c>
       <c r="G122" t="n">
-        <v>977.9266666666664</v>
+        <v>978.0749999999997</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4706,11 +4848,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4720,22 +4858,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>970.2</v>
+        <v>970.1</v>
       </c>
       <c r="C123" t="n">
-        <v>970.2</v>
+        <v>970.1</v>
       </c>
       <c r="D123" t="n">
-        <v>970.2</v>
+        <v>970.1</v>
       </c>
       <c r="E123" t="n">
-        <v>970.2</v>
+        <v>970.1</v>
       </c>
       <c r="F123" t="n">
-        <v>320.8702</v>
+        <v>206.76</v>
       </c>
       <c r="G123" t="n">
-        <v>977.6149999999997</v>
+        <v>977.9266666666664</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4745,11 +4883,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4759,22 +4893,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>971.1</v>
+        <v>970.2</v>
       </c>
       <c r="C124" t="n">
-        <v>971.1</v>
+        <v>970.2</v>
       </c>
       <c r="D124" t="n">
-        <v>971.1</v>
+        <v>970.2</v>
       </c>
       <c r="E124" t="n">
-        <v>971.1</v>
+        <v>970.2</v>
       </c>
       <c r="F124" t="n">
-        <v>77.3013</v>
+        <v>320.8702</v>
       </c>
       <c r="G124" t="n">
-        <v>977.4499999999996</v>
+        <v>977.6149999999997</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4784,11 +4918,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4798,22 +4928,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>970.3</v>
+        <v>971.1</v>
       </c>
       <c r="C125" t="n">
-        <v>970.2</v>
+        <v>971.1</v>
       </c>
       <c r="D125" t="n">
-        <v>970.3</v>
+        <v>971.1</v>
       </c>
       <c r="E125" t="n">
-        <v>970.2</v>
+        <v>971.1</v>
       </c>
       <c r="F125" t="n">
-        <v>277.5007</v>
+        <v>77.3013</v>
       </c>
       <c r="G125" t="n">
-        <v>977.1566666666662</v>
+        <v>977.4499999999996</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4823,11 +4953,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4837,22 +4963,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>970.2</v>
+        <v>970.3</v>
       </c>
       <c r="C126" t="n">
         <v>970.2</v>
       </c>
       <c r="D126" t="n">
-        <v>970.2</v>
+        <v>970.3</v>
       </c>
       <c r="E126" t="n">
         <v>970.2</v>
       </c>
       <c r="F126" t="n">
-        <v>473.4222</v>
+        <v>277.5007</v>
       </c>
       <c r="G126" t="n">
-        <v>976.9599999999995</v>
+        <v>977.1566666666662</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4862,11 +4988,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4876,22 +4998,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>970.4</v>
+        <v>970.2</v>
       </c>
       <c r="C127" t="n">
-        <v>970.4</v>
+        <v>970.2</v>
       </c>
       <c r="D127" t="n">
-        <v>970.4</v>
+        <v>970.2</v>
       </c>
       <c r="E127" t="n">
-        <v>970.4</v>
+        <v>970.2</v>
       </c>
       <c r="F127" t="n">
-        <v>475.4387</v>
+        <v>473.4222</v>
       </c>
       <c r="G127" t="n">
-        <v>976.6699999999995</v>
+        <v>976.9599999999995</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4901,11 +5023,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4918,35 +5036,29 @@
         <v>970.4</v>
       </c>
       <c r="C128" t="n">
-        <v>970.3</v>
+        <v>970.4</v>
       </c>
       <c r="D128" t="n">
         <v>970.4</v>
       </c>
       <c r="E128" t="n">
-        <v>970.3</v>
+        <v>970.4</v>
       </c>
       <c r="F128" t="n">
-        <v>220.11</v>
+        <v>475.4387</v>
       </c>
       <c r="G128" t="n">
-        <v>976.4916666666662</v>
+        <v>976.6699999999995</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>970.4</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4956,22 +5068,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>970.2</v>
+        <v>970.4</v>
       </c>
       <c r="C129" t="n">
-        <v>970.2</v>
+        <v>970.3</v>
       </c>
       <c r="D129" t="n">
-        <v>970.2</v>
+        <v>970.4</v>
       </c>
       <c r="E129" t="n">
-        <v>970.2</v>
+        <v>970.3</v>
       </c>
       <c r="F129" t="n">
-        <v>648.3099</v>
+        <v>220.11</v>
       </c>
       <c r="G129" t="n">
-        <v>976.2833333333328</v>
+        <v>976.4916666666662</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4981,11 +5093,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5007,10 +5115,10 @@
         <v>970.2</v>
       </c>
       <c r="F130" t="n">
-        <v>2406.2712</v>
+        <v>648.3099</v>
       </c>
       <c r="G130" t="n">
-        <v>976.0883333333328</v>
+        <v>976.2833333333328</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5020,11 +5128,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5034,22 +5138,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>972.7</v>
+        <v>970.2</v>
       </c>
       <c r="C131" t="n">
-        <v>976</v>
+        <v>970.2</v>
       </c>
       <c r="D131" t="n">
-        <v>976</v>
+        <v>970.2</v>
       </c>
       <c r="E131" t="n">
-        <v>972.7</v>
+        <v>970.2</v>
       </c>
       <c r="F131" t="n">
-        <v>800</v>
+        <v>2406.2712</v>
       </c>
       <c r="G131" t="n">
-        <v>975.9899999999994</v>
+        <v>976.0883333333328</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5059,11 +5163,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5073,22 +5173,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>975</v>
+        <v>972.7</v>
       </c>
       <c r="C132" t="n">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="D132" t="n">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E132" t="n">
-        <v>975</v>
+        <v>972.7</v>
       </c>
       <c r="F132" t="n">
-        <v>245.5901</v>
+        <v>800</v>
       </c>
       <c r="G132" t="n">
-        <v>975.8749999999994</v>
+        <v>975.9899999999994</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5098,11 +5198,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5112,22 +5208,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="C133" t="n">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="D133" t="n">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="E133" t="n">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="F133" t="n">
-        <v>14.1433</v>
+        <v>245.5901</v>
       </c>
       <c r="G133" t="n">
-        <v>975.7416666666661</v>
+        <v>975.8749999999994</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5137,11 +5233,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5163,10 +5255,10 @@
         <v>973</v>
       </c>
       <c r="F134" t="n">
-        <v>88.9933</v>
+        <v>14.1433</v>
       </c>
       <c r="G134" t="n">
-        <v>975.6749999999994</v>
+        <v>975.7416666666661</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5176,11 +5268,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5202,10 +5290,10 @@
         <v>973</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0001</v>
+        <v>88.9933</v>
       </c>
       <c r="G135" t="n">
-        <v>975.5416666666661</v>
+        <v>975.6749999999994</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5215,11 +5303,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5229,22 +5313,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C136" t="n">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D136" t="n">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E136" t="n">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F136" t="n">
         <v>0.0001</v>
       </c>
       <c r="G136" t="n">
-        <v>975.5583333333327</v>
+        <v>975.5416666666661</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5254,11 +5338,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5268,22 +5348,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="C137" t="n">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="D137" t="n">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="E137" t="n">
-        <v>972</v>
+        <v>975</v>
       </c>
       <c r="F137" t="n">
-        <v>13.2013</v>
+        <v>0.0001</v>
       </c>
       <c r="G137" t="n">
-        <v>975.5199999999993</v>
+        <v>975.5583333333327</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5293,11 +5373,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5307,22 +5383,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>971.3</v>
+        <v>972</v>
       </c>
       <c r="C138" t="n">
-        <v>971.2</v>
+        <v>972</v>
       </c>
       <c r="D138" t="n">
-        <v>971.3</v>
+        <v>972</v>
       </c>
       <c r="E138" t="n">
-        <v>971.2</v>
+        <v>972</v>
       </c>
       <c r="F138" t="n">
-        <v>37.4513</v>
+        <v>13.2013</v>
       </c>
       <c r="G138" t="n">
-        <v>975.3399999999993</v>
+        <v>975.5199999999993</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5332,11 +5408,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5346,22 +5418,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>972</v>
+        <v>971.3</v>
       </c>
       <c r="C139" t="n">
-        <v>970.5</v>
+        <v>971.2</v>
       </c>
       <c r="D139" t="n">
-        <v>972</v>
+        <v>971.3</v>
       </c>
       <c r="E139" t="n">
-        <v>970.5</v>
+        <v>971.2</v>
       </c>
       <c r="F139" t="n">
-        <v>633.6436</v>
+        <v>37.4513</v>
       </c>
       <c r="G139" t="n">
-        <v>975.1816666666659</v>
+        <v>975.3399999999993</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5371,11 +5443,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5385,22 +5453,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C140" t="n">
-        <v>978</v>
+        <v>970.5</v>
       </c>
       <c r="D140" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="E140" t="n">
-        <v>977</v>
+        <v>970.5</v>
       </c>
       <c r="F140" t="n">
-        <v>123.2387</v>
+        <v>633.6436</v>
       </c>
       <c r="G140" t="n">
-        <v>975.0816666666659</v>
+        <v>975.1816666666659</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5410,11 +5478,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5424,22 +5488,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="C141" t="n">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="D141" t="n">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="E141" t="n">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F141" t="n">
-        <v>713.2138</v>
+        <v>123.2387</v>
       </c>
       <c r="G141" t="n">
-        <v>975.0149999999993</v>
+        <v>975.0816666666659</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5449,11 +5513,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5463,22 +5523,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="C142" t="n">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="D142" t="n">
         <v>985</v>
       </c>
       <c r="E142" t="n">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="F142" t="n">
-        <v>630</v>
+        <v>713.2138</v>
       </c>
       <c r="G142" t="n">
-        <v>974.9649999999993</v>
+        <v>975.0149999999993</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5488,11 +5548,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5514,10 +5570,10 @@
         <v>985</v>
       </c>
       <c r="F143" t="n">
-        <v>711.7296</v>
+        <v>630</v>
       </c>
       <c r="G143" t="n">
-        <v>974.8983333333326</v>
+        <v>974.9649999999993</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5527,11 +5583,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5553,10 +5605,10 @@
         <v>985</v>
       </c>
       <c r="F144" t="n">
-        <v>355.8648</v>
+        <v>711.7296</v>
       </c>
       <c r="G144" t="n">
-        <v>974.846666666666</v>
+        <v>974.8983333333326</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5566,11 +5618,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5592,10 +5640,10 @@
         <v>985</v>
       </c>
       <c r="F145" t="n">
-        <v>687.8086</v>
+        <v>355.8648</v>
       </c>
       <c r="G145" t="n">
-        <v>974.7633333333326</v>
+        <v>974.846666666666</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5605,11 +5653,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5619,22 +5663,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>982.1</v>
+        <v>985</v>
       </c>
       <c r="C146" t="n">
-        <v>982.1</v>
+        <v>985</v>
       </c>
       <c r="D146" t="n">
-        <v>982.1</v>
+        <v>985</v>
       </c>
       <c r="E146" t="n">
-        <v>982.1</v>
+        <v>985</v>
       </c>
       <c r="F146" t="n">
-        <v>50</v>
+        <v>687.8086</v>
       </c>
       <c r="G146" t="n">
-        <v>974.6649999999993</v>
+        <v>974.7633333333326</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5644,11 +5688,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5658,22 +5698,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>984</v>
+        <v>982.1</v>
       </c>
       <c r="C147" t="n">
-        <v>984</v>
+        <v>982.1</v>
       </c>
       <c r="D147" t="n">
-        <v>984</v>
+        <v>982.1</v>
       </c>
       <c r="E147" t="n">
-        <v>984</v>
+        <v>982.1</v>
       </c>
       <c r="F147" t="n">
-        <v>9.03252032</v>
+        <v>50</v>
       </c>
       <c r="G147" t="n">
-        <v>974.631666666666</v>
+        <v>974.6649999999993</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5683,11 +5723,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5697,22 +5733,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="C148" t="n">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="D148" t="n">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="E148" t="n">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="F148" t="n">
-        <v>7.8267</v>
+        <v>9.03252032</v>
       </c>
       <c r="G148" t="n">
-        <v>974.5983333333327</v>
+        <v>974.631666666666</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5722,11 +5758,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5736,22 +5768,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="C149" t="n">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="D149" t="n">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="E149" t="n">
-        <v>979</v>
+        <v>982</v>
       </c>
       <c r="F149" t="n">
-        <v>35.2</v>
+        <v>7.8267</v>
       </c>
       <c r="G149" t="n">
-        <v>974.531666666666</v>
+        <v>974.5983333333327</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5761,11 +5793,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5787,10 +5815,10 @@
         <v>979</v>
       </c>
       <c r="F150" t="n">
-        <v>59.4866</v>
+        <v>35.2</v>
       </c>
       <c r="G150" t="n">
-        <v>974.4799999999993</v>
+        <v>974.531666666666</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5800,11 +5828,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5814,22 +5838,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C151" t="n">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D151" t="n">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="E151" t="n">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="F151" t="n">
-        <v>30</v>
+        <v>59.4866</v>
       </c>
       <c r="G151" t="n">
-        <v>974.4949999999993</v>
+        <v>974.4799999999993</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5839,11 +5863,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5853,22 +5873,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="C152" t="n">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="D152" t="n">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="E152" t="n">
-        <v>979</v>
+        <v>983</v>
       </c>
       <c r="F152" t="n">
-        <v>1.69</v>
+        <v>30</v>
       </c>
       <c r="G152" t="n">
-        <v>974.4449999999994</v>
+        <v>974.4949999999993</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5878,11 +5898,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5892,22 +5908,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C153" t="n">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D153" t="n">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E153" t="n">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="F153" t="n">
-        <v>40.9</v>
+        <v>1.69</v>
       </c>
       <c r="G153" t="n">
-        <v>974.5083333333328</v>
+        <v>974.4449999999994</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5917,11 +5933,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5934,19 +5946,19 @@
         <v>982</v>
       </c>
       <c r="C154" t="n">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D154" t="n">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E154" t="n">
         <v>982</v>
       </c>
       <c r="F154" t="n">
-        <v>195.1579</v>
+        <v>40.9</v>
       </c>
       <c r="G154" t="n">
-        <v>974.5883333333328</v>
+        <v>974.5083333333328</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5956,11 +5968,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5970,7 +5978,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C155" t="n">
         <v>983</v>
@@ -5979,13 +5987,13 @@
         <v>983</v>
       </c>
       <c r="E155" t="n">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F155" t="n">
-        <v>136.4366</v>
+        <v>195.1579</v>
       </c>
       <c r="G155" t="n">
-        <v>974.6666666666661</v>
+        <v>974.5883333333328</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5995,11 +6003,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6021,10 +6025,10 @@
         <v>983</v>
       </c>
       <c r="F156" t="n">
-        <v>346.5839</v>
+        <v>136.4366</v>
       </c>
       <c r="G156" t="n">
-        <v>974.7449999999993</v>
+        <v>974.6666666666661</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6034,11 +6038,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6060,10 +6060,10 @@
         <v>983</v>
       </c>
       <c r="F157" t="n">
-        <v>466.1398</v>
+        <v>346.5839</v>
       </c>
       <c r="G157" t="n">
-        <v>974.8249999999994</v>
+        <v>974.7449999999993</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6073,11 +6073,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6099,10 +6095,10 @@
         <v>983</v>
       </c>
       <c r="F158" t="n">
-        <v>151.3654</v>
+        <v>466.1398</v>
       </c>
       <c r="G158" t="n">
-        <v>974.9066666666661</v>
+        <v>974.8249999999994</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6112,11 +6108,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6138,10 +6130,10 @@
         <v>983</v>
       </c>
       <c r="F159" t="n">
-        <v>233.0699</v>
+        <v>151.3654</v>
       </c>
       <c r="G159" t="n">
-        <v>974.9883333333328</v>
+        <v>974.9066666666661</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6151,11 +6143,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6177,10 +6165,10 @@
         <v>983</v>
       </c>
       <c r="F160" t="n">
-        <v>922.2789</v>
+        <v>233.0699</v>
       </c>
       <c r="G160" t="n">
-        <v>975.0716666666661</v>
+        <v>974.9883333333328</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6190,11 +6178,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6216,10 +6200,10 @@
         <v>983</v>
       </c>
       <c r="F161" t="n">
-        <v>1282.6984</v>
+        <v>922.2789</v>
       </c>
       <c r="G161" t="n">
-        <v>975.1466666666661</v>
+        <v>975.0716666666661</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6229,11 +6213,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6255,10 +6235,10 @@
         <v>983</v>
       </c>
       <c r="F162" t="n">
-        <v>510.8532</v>
+        <v>1282.6984</v>
       </c>
       <c r="G162" t="n">
-        <v>975.3299999999995</v>
+        <v>975.1466666666661</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6268,11 +6248,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6294,10 +6270,10 @@
         <v>983</v>
       </c>
       <c r="F163" t="n">
-        <v>1</v>
+        <v>510.8532</v>
       </c>
       <c r="G163" t="n">
-        <v>975.5283333333329</v>
+        <v>975.3299999999995</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6307,11 +6283,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6321,22 +6293,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="C164" t="n">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="D164" t="n">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="E164" t="n">
-        <v>980</v>
+        <v>983</v>
       </c>
       <c r="F164" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="G164" t="n">
-        <v>975.6783333333328</v>
+        <v>975.5283333333329</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6346,11 +6318,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6360,22 +6328,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="C165" t="n">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="D165" t="n">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="E165" t="n">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="F165" t="n">
-        <v>160.1759</v>
+        <v>34</v>
       </c>
       <c r="G165" t="n">
-        <v>975.8283333333328</v>
+        <v>975.6783333333328</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6385,11 +6353,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6411,10 +6375,10 @@
         <v>983</v>
       </c>
       <c r="F166" t="n">
-        <v>4535.7584</v>
+        <v>160.1759</v>
       </c>
       <c r="G166" t="n">
-        <v>975.9166666666662</v>
+        <v>975.8283333333328</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6424,11 +6388,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6450,10 +6410,10 @@
         <v>983</v>
       </c>
       <c r="F167" t="n">
-        <v>464.2415</v>
+        <v>4535.7584</v>
       </c>
       <c r="G167" t="n">
-        <v>976.0666666666662</v>
+        <v>975.9166666666662</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6463,11 +6423,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6489,10 +6445,10 @@
         <v>983</v>
       </c>
       <c r="F168" t="n">
-        <v>10.2004</v>
+        <v>464.2415</v>
       </c>
       <c r="G168" t="n">
-        <v>976.2166666666661</v>
+        <v>976.0666666666662</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6502,11 +6458,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6516,22 +6468,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>978.1</v>
+        <v>983</v>
       </c>
       <c r="C169" t="n">
-        <v>977.2</v>
+        <v>983</v>
       </c>
       <c r="D169" t="n">
-        <v>978.2</v>
+        <v>983</v>
       </c>
       <c r="E169" t="n">
-        <v>977.2</v>
+        <v>983</v>
       </c>
       <c r="F169" t="n">
-        <v>1022.3494</v>
+        <v>10.2004</v>
       </c>
       <c r="G169" t="n">
-        <v>976.2699999999994</v>
+        <v>976.2166666666661</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6541,11 +6493,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6555,22 +6503,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>979</v>
+        <v>978.1</v>
       </c>
       <c r="C170" t="n">
-        <v>978</v>
+        <v>977.2</v>
       </c>
       <c r="D170" t="n">
-        <v>979</v>
+        <v>978.2</v>
       </c>
       <c r="E170" t="n">
-        <v>978</v>
+        <v>977.2</v>
       </c>
       <c r="F170" t="n">
-        <v>162.129</v>
+        <v>1022.3494</v>
       </c>
       <c r="G170" t="n">
-        <v>976.3866666666661</v>
+        <v>976.2699999999994</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6580,11 +6528,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6594,22 +6538,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C171" t="n">
         <v>978</v>
       </c>
       <c r="D171" t="n">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E171" t="n">
         <v>978</v>
       </c>
       <c r="F171" t="n">
-        <v>581.6648</v>
+        <v>162.129</v>
       </c>
       <c r="G171" t="n">
-        <v>976.5033333333328</v>
+        <v>976.3866666666661</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6619,11 +6563,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6633,22 +6573,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>983.7</v>
+        <v>978</v>
       </c>
       <c r="C172" t="n">
-        <v>983.7</v>
+        <v>978</v>
       </c>
       <c r="D172" t="n">
-        <v>983.7</v>
+        <v>978</v>
       </c>
       <c r="E172" t="n">
-        <v>983.7</v>
+        <v>978</v>
       </c>
       <c r="F172" t="n">
-        <v>507.0172</v>
+        <v>581.6648</v>
       </c>
       <c r="G172" t="n">
-        <v>976.7483333333328</v>
+        <v>976.5033333333328</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6658,11 +6598,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6672,22 +6608,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>984</v>
+        <v>983.7</v>
       </c>
       <c r="C173" t="n">
-        <v>984</v>
+        <v>983.7</v>
       </c>
       <c r="D173" t="n">
-        <v>984</v>
+        <v>983.7</v>
       </c>
       <c r="E173" t="n">
-        <v>984</v>
+        <v>983.7</v>
       </c>
       <c r="F173" t="n">
-        <v>43.7662</v>
+        <v>507.0172</v>
       </c>
       <c r="G173" t="n">
-        <v>977.0316666666661</v>
+        <v>976.7483333333328</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6697,11 +6633,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6711,22 +6643,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>986.9</v>
+        <v>984</v>
       </c>
       <c r="C174" t="n">
-        <v>986.9</v>
+        <v>984</v>
       </c>
       <c r="D174" t="n">
-        <v>986.9</v>
+        <v>984</v>
       </c>
       <c r="E174" t="n">
-        <v>986.9</v>
+        <v>984</v>
       </c>
       <c r="F174" t="n">
-        <v>200</v>
+        <v>43.7662</v>
       </c>
       <c r="G174" t="n">
-        <v>977.4133333333327</v>
+        <v>977.0316666666661</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6736,11 +6668,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6753,19 +6681,19 @@
         <v>986.9</v>
       </c>
       <c r="C175" t="n">
-        <v>987.9</v>
+        <v>986.9</v>
       </c>
       <c r="D175" t="n">
-        <v>987.9</v>
+        <v>986.9</v>
       </c>
       <c r="E175" t="n">
         <v>986.9</v>
       </c>
       <c r="F175" t="n">
-        <v>212.597</v>
+        <v>200</v>
       </c>
       <c r="G175" t="n">
-        <v>977.8116666666662</v>
+        <v>977.4133333333327</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6775,11 +6703,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6789,22 +6713,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>989</v>
+        <v>986.9</v>
       </c>
       <c r="C176" t="n">
-        <v>989</v>
+        <v>987.9</v>
       </c>
       <c r="D176" t="n">
-        <v>989</v>
+        <v>987.9</v>
       </c>
       <c r="E176" t="n">
-        <v>989</v>
+        <v>986.9</v>
       </c>
       <c r="F176" t="n">
-        <v>37.8565</v>
+        <v>212.597</v>
       </c>
       <c r="G176" t="n">
-        <v>978.2283333333328</v>
+        <v>977.8116666666662</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6814,11 +6738,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6828,22 +6748,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>989.9</v>
+        <v>989</v>
       </c>
       <c r="C177" t="n">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="D177" t="n">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E177" t="n">
-        <v>989.9</v>
+        <v>989</v>
       </c>
       <c r="F177" t="n">
-        <v>225</v>
+        <v>37.8565</v>
       </c>
       <c r="G177" t="n">
-        <v>978.6616666666662</v>
+        <v>978.2283333333328</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6853,11 +6773,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6867,7 +6783,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>990</v>
+        <v>989.9</v>
       </c>
       <c r="C178" t="n">
         <v>990</v>
@@ -6876,13 +6792,13 @@
         <v>990</v>
       </c>
       <c r="E178" t="n">
-        <v>990</v>
+        <v>989.9</v>
       </c>
       <c r="F178" t="n">
-        <v>260.3977</v>
+        <v>225</v>
       </c>
       <c r="G178" t="n">
-        <v>979.0116666666661</v>
+        <v>978.6616666666662</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6892,11 +6808,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6918,10 +6830,10 @@
         <v>990</v>
       </c>
       <c r="F179" t="n">
-        <v>258.7725</v>
+        <v>260.3977</v>
       </c>
       <c r="G179" t="n">
-        <v>979.3433333333328</v>
+        <v>979.0116666666661</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6931,11 +6843,7 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6957,10 +6865,10 @@
         <v>990</v>
       </c>
       <c r="F180" t="n">
-        <v>171.7006</v>
+        <v>258.7725</v>
       </c>
       <c r="G180" t="n">
-        <v>979.6749999999995</v>
+        <v>979.3433333333328</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6970,11 +6878,7 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6996,10 +6900,10 @@
         <v>990</v>
       </c>
       <c r="F181" t="n">
-        <v>379.873</v>
+        <v>171.7006</v>
       </c>
       <c r="G181" t="n">
-        <v>980.0066666666662</v>
+        <v>979.6749999999995</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7009,11 +6913,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7023,22 +6923,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>990.1</v>
+        <v>990</v>
       </c>
       <c r="C182" t="n">
-        <v>990.1</v>
+        <v>990</v>
       </c>
       <c r="D182" t="n">
-        <v>990.1</v>
+        <v>990</v>
       </c>
       <c r="E182" t="n">
-        <v>990.1</v>
+        <v>990</v>
       </c>
       <c r="F182" t="n">
-        <v>70.7079</v>
+        <v>379.873</v>
       </c>
       <c r="G182" t="n">
-        <v>980.3399999999996</v>
+        <v>980.0066666666662</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7048,11 +6948,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7074,10 +6970,10 @@
         <v>990.1</v>
       </c>
       <c r="F183" t="n">
-        <v>485.3405</v>
+        <v>70.7079</v>
       </c>
       <c r="G183" t="n">
-        <v>980.6716666666663</v>
+        <v>980.3399999999996</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7087,11 +6983,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7101,22 +6993,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>990</v>
+        <v>990.1</v>
       </c>
       <c r="C184" t="n">
-        <v>984.1</v>
+        <v>990.1</v>
       </c>
       <c r="D184" t="n">
-        <v>990</v>
+        <v>990.1</v>
       </c>
       <c r="E184" t="n">
-        <v>984.1</v>
+        <v>990.1</v>
       </c>
       <c r="F184" t="n">
-        <v>155.9988</v>
+        <v>485.3405</v>
       </c>
       <c r="G184" t="n">
-        <v>980.8883333333329</v>
+        <v>980.6716666666663</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7126,11 +7018,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7140,22 +7028,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="C185" t="n">
-        <v>984</v>
+        <v>984.1</v>
       </c>
       <c r="D185" t="n">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="E185" t="n">
-        <v>984</v>
+        <v>984.1</v>
       </c>
       <c r="F185" t="n">
-        <v>189.6065</v>
+        <v>155.9988</v>
       </c>
       <c r="G185" t="n">
-        <v>981.118333333333</v>
+        <v>980.8883333333329</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7165,11 +7053,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7179,22 +7063,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>983.1</v>
+        <v>984</v>
       </c>
       <c r="C186" t="n">
-        <v>983.1</v>
+        <v>984</v>
       </c>
       <c r="D186" t="n">
-        <v>983.1</v>
+        <v>984</v>
       </c>
       <c r="E186" t="n">
-        <v>983.1</v>
+        <v>984</v>
       </c>
       <c r="F186" t="n">
-        <v>186.0041</v>
+        <v>189.6065</v>
       </c>
       <c r="G186" t="n">
-        <v>981.3333333333329</v>
+        <v>981.118333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7204,11 +7088,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7218,22 +7098,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>982</v>
+        <v>983.1</v>
       </c>
       <c r="C187" t="n">
-        <v>982</v>
+        <v>983.1</v>
       </c>
       <c r="D187" t="n">
-        <v>982</v>
+        <v>983.1</v>
       </c>
       <c r="E187" t="n">
-        <v>982</v>
+        <v>983.1</v>
       </c>
       <c r="F187" t="n">
-        <v>22.7502</v>
+        <v>186.0041</v>
       </c>
       <c r="G187" t="n">
-        <v>981.5266666666663</v>
+        <v>981.3333333333329</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7243,11 +7123,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7257,22 +7133,22 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C188" t="n">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="D188" t="n">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E188" t="n">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F188" t="n">
-        <v>198.1328</v>
+        <v>22.7502</v>
       </c>
       <c r="G188" t="n">
-        <v>981.7049999999996</v>
+        <v>981.5266666666663</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7282,11 +7158,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7296,22 +7168,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>979.2</v>
+        <v>981</v>
       </c>
       <c r="C189" t="n">
-        <v>978.2</v>
+        <v>981</v>
       </c>
       <c r="D189" t="n">
-        <v>979.2</v>
+        <v>981</v>
       </c>
       <c r="E189" t="n">
-        <v>978.2</v>
+        <v>981</v>
       </c>
       <c r="F189" t="n">
-        <v>1044.8442</v>
+        <v>198.1328</v>
       </c>
       <c r="G189" t="n">
-        <v>981.8383333333329</v>
+        <v>981.7049999999996</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7321,11 +7193,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7335,22 +7203,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>978.2</v>
+        <v>979.2</v>
       </c>
       <c r="C190" t="n">
         <v>978.2</v>
       </c>
       <c r="D190" t="n">
-        <v>978.2</v>
+        <v>979.2</v>
       </c>
       <c r="E190" t="n">
         <v>978.2</v>
       </c>
       <c r="F190" t="n">
-        <v>110.0268</v>
+        <v>1044.8442</v>
       </c>
       <c r="G190" t="n">
-        <v>981.9716666666662</v>
+        <v>981.8383333333329</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7360,11 +7228,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7374,22 +7238,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>982.8</v>
+        <v>978.2</v>
       </c>
       <c r="C191" t="n">
         <v>978.2</v>
       </c>
       <c r="D191" t="n">
-        <v>982.8</v>
+        <v>978.2</v>
       </c>
       <c r="E191" t="n">
         <v>978.2</v>
       </c>
       <c r="F191" t="n">
-        <v>2105.1459</v>
+        <v>110.0268</v>
       </c>
       <c r="G191" t="n">
-        <v>982.0083333333329</v>
+        <v>981.9716666666662</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7399,11 +7263,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7413,22 +7273,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>978</v>
+        <v>982.8</v>
       </c>
       <c r="C192" t="n">
-        <v>978</v>
+        <v>978.2</v>
       </c>
       <c r="D192" t="n">
-        <v>978</v>
+        <v>982.8</v>
       </c>
       <c r="E192" t="n">
-        <v>978</v>
+        <v>978.2</v>
       </c>
       <c r="F192" t="n">
-        <v>55.8012</v>
+        <v>2105.1459</v>
       </c>
       <c r="G192" t="n">
-        <v>982.0583333333328</v>
+        <v>982.0083333333329</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7438,11 +7298,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7452,22 +7308,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>982.7</v>
+        <v>978</v>
       </c>
       <c r="C193" t="n">
-        <v>982.7</v>
+        <v>978</v>
       </c>
       <c r="D193" t="n">
-        <v>982.7</v>
+        <v>978</v>
       </c>
       <c r="E193" t="n">
-        <v>982.7</v>
+        <v>978</v>
       </c>
       <c r="F193" t="n">
-        <v>892.4521999999999</v>
+        <v>55.8012</v>
       </c>
       <c r="G193" t="n">
-        <v>982.2199999999995</v>
+        <v>982.0583333333328</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7477,11 +7333,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7491,22 +7343,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>977.2</v>
+        <v>982.7</v>
       </c>
       <c r="C194" t="n">
-        <v>977.2</v>
+        <v>982.7</v>
       </c>
       <c r="D194" t="n">
-        <v>977.2</v>
+        <v>982.7</v>
       </c>
       <c r="E194" t="n">
-        <v>977.2</v>
+        <v>982.7</v>
       </c>
       <c r="F194" t="n">
-        <v>619.1079999999999</v>
+        <v>892.4521999999999</v>
       </c>
       <c r="G194" t="n">
-        <v>982.2899999999994</v>
+        <v>982.2199999999995</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7516,11 +7368,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7542,10 +7390,10 @@
         <v>977.2</v>
       </c>
       <c r="F195" t="n">
-        <v>741.8445</v>
+        <v>619.1079999999999</v>
       </c>
       <c r="G195" t="n">
-        <v>982.3599999999993</v>
+        <v>982.2899999999994</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7555,11 +7403,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7569,22 +7413,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>977</v>
+        <v>977.2</v>
       </c>
       <c r="C196" t="n">
-        <v>973.4</v>
+        <v>977.2</v>
       </c>
       <c r="D196" t="n">
-        <v>977</v>
+        <v>977.2</v>
       </c>
       <c r="E196" t="n">
-        <v>973.4</v>
+        <v>977.2</v>
       </c>
       <c r="F196" t="n">
-        <v>1285.23</v>
+        <v>741.8445</v>
       </c>
       <c r="G196" t="n">
-        <v>982.3333333333327</v>
+        <v>982.3599999999993</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7594,11 +7438,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7608,22 +7448,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>973.5</v>
+        <v>977</v>
       </c>
       <c r="C197" t="n">
-        <v>973.5</v>
+        <v>973.4</v>
       </c>
       <c r="D197" t="n">
-        <v>973.5</v>
+        <v>977</v>
       </c>
       <c r="E197" t="n">
-        <v>973.5</v>
+        <v>973.4</v>
       </c>
       <c r="F197" t="n">
-        <v>1384.8974</v>
+        <v>1285.23</v>
       </c>
       <c r="G197" t="n">
-        <v>982.3583333333328</v>
+        <v>982.3333333333327</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7633,11 +7473,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7647,22 +7483,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>980</v>
+        <v>973.5</v>
       </c>
       <c r="C198" t="n">
-        <v>981</v>
+        <v>973.5</v>
       </c>
       <c r="D198" t="n">
-        <v>981</v>
+        <v>973.5</v>
       </c>
       <c r="E198" t="n">
-        <v>980</v>
+        <v>973.5</v>
       </c>
       <c r="F198" t="n">
-        <v>381.4169</v>
+        <v>1384.8974</v>
       </c>
       <c r="G198" t="n">
-        <v>982.5216666666661</v>
+        <v>982.3583333333328</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7672,11 +7508,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7686,22 +7518,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>978.1</v>
+        <v>980</v>
       </c>
       <c r="C199" t="n">
-        <v>978.1</v>
+        <v>981</v>
       </c>
       <c r="D199" t="n">
-        <v>978.1</v>
+        <v>981</v>
       </c>
       <c r="E199" t="n">
-        <v>978.1</v>
+        <v>980</v>
       </c>
       <c r="F199" t="n">
-        <v>138.6816</v>
+        <v>381.4169</v>
       </c>
       <c r="G199" t="n">
-        <v>982.6483333333327</v>
+        <v>982.5216666666661</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7711,11 +7543,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7737,10 +7565,10 @@
         <v>978.1</v>
       </c>
       <c r="F200" t="n">
-        <v>60.1</v>
+        <v>138.6816</v>
       </c>
       <c r="G200" t="n">
-        <v>982.6499999999994</v>
+        <v>982.6483333333327</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7750,11 +7578,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7764,22 +7588,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>978</v>
+        <v>978.1</v>
       </c>
       <c r="C201" t="n">
-        <v>978</v>
+        <v>978.1</v>
       </c>
       <c r="D201" t="n">
-        <v>978</v>
+        <v>978.1</v>
       </c>
       <c r="E201" t="n">
-        <v>978</v>
+        <v>978.1</v>
       </c>
       <c r="F201" t="n">
-        <v>1.2184</v>
+        <v>60.1</v>
       </c>
       <c r="G201" t="n">
-        <v>982.5499999999994</v>
+        <v>982.6499999999994</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7789,11 +7613,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7815,10 +7635,10 @@
         <v>978</v>
       </c>
       <c r="F202" t="n">
-        <v>478.6225</v>
+        <v>1.2184</v>
       </c>
       <c r="G202" t="n">
-        <v>982.4333333333327</v>
+        <v>982.5499999999994</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7828,11 +7648,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7842,22 +7658,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C203" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D203" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E203" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F203" t="n">
-        <v>205.3295</v>
+        <v>478.6225</v>
       </c>
       <c r="G203" t="n">
-        <v>982.3333333333327</v>
+        <v>982.4333333333327</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7867,11 +7683,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7881,22 +7693,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C204" t="n">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D204" t="n">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E204" t="n">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="F204" t="n">
-        <v>3790.6509</v>
+        <v>205.3295</v>
       </c>
       <c r="G204" t="n">
-        <v>982.1999999999994</v>
+        <v>982.3333333333327</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7906,11 +7718,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7920,22 +7728,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>973.4</v>
+        <v>978</v>
       </c>
       <c r="C205" t="n">
-        <v>973.4</v>
+        <v>977</v>
       </c>
       <c r="D205" t="n">
-        <v>973.4</v>
+        <v>978</v>
       </c>
       <c r="E205" t="n">
-        <v>973.4</v>
+        <v>977</v>
       </c>
       <c r="F205" t="n">
-        <v>359</v>
+        <v>3790.6509</v>
       </c>
       <c r="G205" t="n">
-        <v>982.0066666666661</v>
+        <v>982.1999999999994</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7945,11 +7753,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7959,22 +7763,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>973.5</v>
+        <v>973.4</v>
       </c>
       <c r="C206" t="n">
-        <v>974</v>
+        <v>973.4</v>
       </c>
       <c r="D206" t="n">
-        <v>974</v>
+        <v>973.4</v>
       </c>
       <c r="E206" t="n">
         <v>973.4</v>
       </c>
       <c r="F206" t="n">
-        <v>1967.012</v>
+        <v>359</v>
       </c>
       <c r="G206" t="n">
-        <v>981.8716666666661</v>
+        <v>982.0066666666661</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7984,11 +7788,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8007,13 +7807,13 @@
         <v>974</v>
       </c>
       <c r="E207" t="n">
-        <v>973.5</v>
+        <v>973.4</v>
       </c>
       <c r="F207" t="n">
-        <v>2234.9879</v>
+        <v>1967.012</v>
       </c>
       <c r="G207" t="n">
-        <v>981.7049999999995</v>
+        <v>981.8716666666661</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8023,11 +7823,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8046,13 +7842,13 @@
         <v>974</v>
       </c>
       <c r="E208" t="n">
-        <v>972</v>
+        <v>973.5</v>
       </c>
       <c r="F208" t="n">
-        <v>1757.917</v>
+        <v>2234.9879</v>
       </c>
       <c r="G208" t="n">
-        <v>981.5716666666661</v>
+        <v>981.7049999999995</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8062,11 +7858,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8076,22 +7868,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>973</v>
+        <v>973.5</v>
       </c>
       <c r="C209" t="n">
-        <v>972.3</v>
+        <v>974</v>
       </c>
       <c r="D209" t="n">
         <v>974</v>
       </c>
       <c r="E209" t="n">
-        <v>972.2</v>
+        <v>972</v>
       </c>
       <c r="F209" t="n">
-        <v>1682.4362</v>
+        <v>1757.917</v>
       </c>
       <c r="G209" t="n">
-        <v>981.4599999999995</v>
+        <v>981.5716666666661</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8101,11 +7893,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8118,19 +7906,19 @@
         <v>973</v>
       </c>
       <c r="C210" t="n">
-        <v>975</v>
+        <v>972.3</v>
       </c>
       <c r="D210" t="n">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="E210" t="n">
-        <v>972.5</v>
+        <v>972.2</v>
       </c>
       <c r="F210" t="n">
-        <v>3200.8557</v>
+        <v>1682.4362</v>
       </c>
       <c r="G210" t="n">
-        <v>981.3933333333329</v>
+        <v>981.4599999999995</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8140,11 +7928,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8154,22 +7938,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C211" t="n">
         <v>975</v>
       </c>
       <c r="D211" t="n">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E211" t="n">
-        <v>974</v>
+        <v>972.5</v>
       </c>
       <c r="F211" t="n">
-        <v>1280.0154</v>
+        <v>3200.8557</v>
       </c>
       <c r="G211" t="n">
-        <v>981.2599999999995</v>
+        <v>981.3933333333329</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8179,11 +7963,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8193,22 +7973,22 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="C212" t="n">
         <v>975</v>
       </c>
       <c r="D212" t="n">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E212" t="n">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F212" t="n">
-        <v>2685.4899</v>
+        <v>1280.0154</v>
       </c>
       <c r="G212" t="n">
-        <v>981.1933333333328</v>
+        <v>981.2599999999995</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8218,11 +7998,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8232,10 +8008,10 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C213" t="n">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D213" t="n">
         <v>975</v>
@@ -8244,10 +8020,10 @@
         <v>973</v>
       </c>
       <c r="F213" t="n">
-        <v>1762.546</v>
+        <v>2685.4899</v>
       </c>
       <c r="G213" t="n">
-        <v>981.0599999999995</v>
+        <v>981.1933333333328</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8257,11 +8033,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8271,10 +8043,10 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>973.1</v>
+        <v>974</v>
       </c>
       <c r="C214" t="n">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D214" t="n">
         <v>975</v>
@@ -8283,10 +8055,10 @@
         <v>973</v>
       </c>
       <c r="F214" t="n">
-        <v>1756.3933</v>
+        <v>1762.546</v>
       </c>
       <c r="G214" t="n">
-        <v>980.8933333333329</v>
+        <v>981.0599999999995</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8296,11 +8068,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8310,22 +8078,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
+        <v>973.1</v>
+      </c>
+      <c r="C215" t="n">
         <v>973</v>
       </c>
-      <c r="C215" t="n">
-        <v>974</v>
-      </c>
       <c r="D215" t="n">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="E215" t="n">
         <v>973</v>
       </c>
       <c r="F215" t="n">
-        <v>1453.5568</v>
+        <v>1756.3933</v>
       </c>
       <c r="G215" t="n">
-        <v>980.7433333333328</v>
+        <v>980.8933333333329</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8335,11 +8103,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -8349,22 +8113,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>972.8</v>
+        <v>973</v>
       </c>
       <c r="C216" t="n">
+        <v>974</v>
+      </c>
+      <c r="D216" t="n">
+        <v>976</v>
+      </c>
+      <c r="E216" t="n">
         <v>973</v>
       </c>
-      <c r="D216" t="n">
-        <v>975</v>
-      </c>
-      <c r="E216" t="n">
-        <v>972.6</v>
-      </c>
       <c r="F216" t="n">
-        <v>2603.4662</v>
+        <v>1453.5568</v>
       </c>
       <c r="G216" t="n">
-        <v>980.5766666666661</v>
+        <v>980.7433333333328</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8374,11 +8138,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -8388,22 +8148,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>974</v>
+        <v>972.8</v>
       </c>
       <c r="C217" t="n">
         <v>973</v>
       </c>
       <c r="D217" t="n">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="E217" t="n">
-        <v>973</v>
+        <v>972.6</v>
       </c>
       <c r="F217" t="n">
-        <v>1016.7815</v>
+        <v>2603.4662</v>
       </c>
       <c r="G217" t="n">
-        <v>980.4099999999995</v>
+        <v>980.5766666666661</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8413,11 +8173,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8430,7 +8186,7 @@
         <v>974</v>
       </c>
       <c r="C218" t="n">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D218" t="n">
         <v>974</v>
@@ -8439,10 +8195,10 @@
         <v>973</v>
       </c>
       <c r="F218" t="n">
-        <v>1467.4834</v>
+        <v>1016.7815</v>
       </c>
       <c r="G218" t="n">
-        <v>980.2599999999995</v>
+        <v>980.4099999999995</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8452,11 +8208,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8466,7 +8218,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>973.1</v>
+        <v>974</v>
       </c>
       <c r="C219" t="n">
         <v>974</v>
@@ -8478,10 +8230,10 @@
         <v>973</v>
       </c>
       <c r="F219" t="n">
-        <v>486</v>
+        <v>1467.4834</v>
       </c>
       <c r="G219" t="n">
-        <v>980.1099999999994</v>
+        <v>980.2599999999995</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8491,11 +8243,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8505,7 +8253,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>973</v>
+        <v>973.1</v>
       </c>
       <c r="C220" t="n">
         <v>974</v>
@@ -8517,10 +8265,10 @@
         <v>973</v>
       </c>
       <c r="F220" t="n">
-        <v>1144</v>
+        <v>486</v>
       </c>
       <c r="G220" t="n">
-        <v>979.9599999999995</v>
+        <v>980.1099999999994</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8530,11 +8278,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8544,7 +8288,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C221" t="n">
         <v>974</v>
@@ -8553,13 +8297,13 @@
         <v>974</v>
       </c>
       <c r="E221" t="n">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F221" t="n">
-        <v>1318.1717</v>
+        <v>1144</v>
       </c>
       <c r="G221" t="n">
-        <v>979.8099999999995</v>
+        <v>979.9599999999995</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8569,11 +8313,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8586,19 +8326,19 @@
         <v>974</v>
       </c>
       <c r="C222" t="n">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D222" t="n">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="E222" t="n">
         <v>974</v>
       </c>
       <c r="F222" t="n">
-        <v>3811.5634</v>
+        <v>1318.1717</v>
       </c>
       <c r="G222" t="n">
-        <v>979.6933333333328</v>
+        <v>979.8099999999995</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8608,11 +8348,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8622,22 +8358,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
+        <v>974</v>
+      </c>
+      <c r="C223" t="n">
         <v>976</v>
       </c>
-      <c r="C223" t="n">
-        <v>977</v>
-      </c>
       <c r="D223" t="n">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="E223" t="n">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F223" t="n">
-        <v>295</v>
+        <v>3811.5634</v>
       </c>
       <c r="G223" t="n">
-        <v>979.5933333333328</v>
+        <v>979.6933333333328</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8647,11 +8383,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8661,7 +8393,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C224" t="n">
         <v>977</v>
@@ -8670,13 +8402,13 @@
         <v>977</v>
       </c>
       <c r="E224" t="n">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F224" t="n">
-        <v>19</v>
+        <v>295</v>
       </c>
       <c r="G224" t="n">
-        <v>979.5433333333328</v>
+        <v>979.5933333333328</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8686,11 +8418,7 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8712,10 +8440,10 @@
         <v>977</v>
       </c>
       <c r="F225" t="n">
-        <v>402.9204</v>
+        <v>19</v>
       </c>
       <c r="G225" t="n">
-        <v>979.4433333333328</v>
+        <v>979.5433333333328</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8725,11 +8453,7 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8739,22 +8463,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C226" t="n">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="D226" t="n">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E226" t="n">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F226" t="n">
-        <v>375</v>
+        <v>402.9204</v>
       </c>
       <c r="G226" t="n">
-        <v>979.3599999999994</v>
+        <v>979.4433333333328</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8764,11 +8488,7 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8781,19 +8501,19 @@
         <v>978</v>
       </c>
       <c r="C227" t="n">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="D227" t="n">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E227" t="n">
         <v>978</v>
       </c>
       <c r="F227" t="n">
-        <v>4006.2921</v>
+        <v>375</v>
       </c>
       <c r="G227" t="n">
-        <v>979.3099999999995</v>
+        <v>979.3599999999994</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8803,11 +8523,7 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8817,22 +8533,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C228" t="n">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D228" t="n">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E228" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F228" t="n">
-        <v>55.0318</v>
+        <v>4006.2921</v>
       </c>
       <c r="G228" t="n">
-        <v>979.2433333333328</v>
+        <v>979.3099999999995</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8842,11 +8558,7 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8868,10 +8580,10 @@
         <v>979</v>
       </c>
       <c r="F229" t="n">
-        <v>2256.73953013</v>
+        <v>55.0318</v>
       </c>
       <c r="G229" t="n">
-        <v>979.2733333333329</v>
+        <v>979.2433333333328</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8881,11 +8593,7 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8907,10 +8615,10 @@
         <v>979</v>
       </c>
       <c r="F230" t="n">
-        <v>1000</v>
+        <v>2256.73953013</v>
       </c>
       <c r="G230" t="n">
-        <v>979.2899999999995</v>
+        <v>979.2733333333329</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8920,11 +8628,7 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8946,10 +8650,10 @@
         <v>979</v>
       </c>
       <c r="F231" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="G231" t="n">
-        <v>979.3066666666662</v>
+        <v>979.2899999999995</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8959,11 +8663,7 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8985,10 +8685,10 @@
         <v>979</v>
       </c>
       <c r="F232" t="n">
-        <v>580</v>
+        <v>210</v>
       </c>
       <c r="G232" t="n">
-        <v>979.2283333333329</v>
+        <v>979.3066666666662</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8998,11 +8698,7 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -9015,19 +8711,19 @@
         <v>979</v>
       </c>
       <c r="C233" t="n">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D233" t="n">
         <v>979</v>
       </c>
       <c r="E233" t="n">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F233" t="n">
-        <v>421.8068</v>
+        <v>580</v>
       </c>
       <c r="G233" t="n">
-        <v>979.1283333333329</v>
+        <v>979.2283333333329</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9037,11 +8733,7 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -9051,22 +8743,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C234" t="n">
         <v>978</v>
       </c>
       <c r="D234" t="n">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E234" t="n">
         <v>978</v>
       </c>
       <c r="F234" t="n">
-        <v>0.8947000000000001</v>
+        <v>421.8068</v>
       </c>
       <c r="G234" t="n">
-        <v>978.9799999999996</v>
+        <v>979.1283333333329</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9076,11 +8768,7 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -9090,22 +8778,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C235" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="D235" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E235" t="n">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F235" t="n">
-        <v>157.9621</v>
+        <v>0.8947000000000001</v>
       </c>
       <c r="G235" t="n">
-        <v>978.8316666666663</v>
+        <v>978.9799999999996</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9115,11 +8803,7 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -9141,10 +8825,10 @@
         <v>979</v>
       </c>
       <c r="F236" t="n">
-        <v>47.9642</v>
+        <v>157.9621</v>
       </c>
       <c r="G236" t="n">
-        <v>978.6649999999995</v>
+        <v>978.8316666666663</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9154,11 +8838,7 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -9180,10 +8860,10 @@
         <v>979</v>
       </c>
       <c r="F237" t="n">
-        <v>4015.60266987</v>
+        <v>47.9642</v>
       </c>
       <c r="G237" t="n">
-        <v>978.4816666666662</v>
+        <v>978.6649999999995</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9193,11 +8873,7 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -9207,22 +8883,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C238" t="n">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D238" t="n">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E238" t="n">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F238" t="n">
-        <v>99.84990000000001</v>
+        <v>4015.60266987</v>
       </c>
       <c r="G238" t="n">
-        <v>978.3149999999995</v>
+        <v>978.4816666666662</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9232,11 +8908,7 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -9249,19 +8921,19 @@
         <v>980</v>
       </c>
       <c r="C239" t="n">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D239" t="n">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E239" t="n">
         <v>980</v>
       </c>
       <c r="F239" t="n">
-        <v>116.9882</v>
+        <v>99.84990000000001</v>
       </c>
       <c r="G239" t="n">
-        <v>978.1649999999995</v>
+        <v>978.3149999999995</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9271,11 +8943,7 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -9285,7 +8953,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C240" t="n">
         <v>981</v>
@@ -9294,13 +8962,13 @@
         <v>981</v>
       </c>
       <c r="E240" t="n">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F240" t="n">
-        <v>265.5403</v>
+        <v>116.9882</v>
       </c>
       <c r="G240" t="n">
-        <v>978.0149999999995</v>
+        <v>978.1649999999995</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9310,11 +8978,7 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -9324,22 +8988,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C241" t="n">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="D241" t="n">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="E241" t="n">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="F241" t="n">
-        <v>1.01522842</v>
+        <v>265.5403</v>
       </c>
       <c r="G241" t="n">
-        <v>977.9316666666662</v>
+        <v>978.0149999999995</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9349,11 +9013,7 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -9375,10 +9035,10 @@
         <v>985</v>
       </c>
       <c r="F242" t="n">
-        <v>6830.56117158</v>
+        <v>1.01522842</v>
       </c>
       <c r="G242" t="n">
-        <v>977.8466666666662</v>
+        <v>977.9316666666662</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9388,11 +9048,7 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -9414,10 +9070,10 @@
         <v>985</v>
       </c>
       <c r="F243" t="n">
-        <v>2637.20212842</v>
+        <v>6830.56117158</v>
       </c>
       <c r="G243" t="n">
-        <v>977.7616666666662</v>
+        <v>977.8466666666662</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9427,11 +9083,7 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -9453,10 +9105,10 @@
         <v>985</v>
       </c>
       <c r="F244" t="n">
-        <v>2352.4531</v>
+        <v>2637.20212842</v>
       </c>
       <c r="G244" t="n">
-        <v>977.7766666666663</v>
+        <v>977.7616666666662</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9466,11 +9118,7 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -9480,7 +9128,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>984.9</v>
+        <v>985</v>
       </c>
       <c r="C245" t="n">
         <v>985</v>
@@ -9489,13 +9137,13 @@
         <v>985</v>
       </c>
       <c r="E245" t="n">
-        <v>984.9</v>
+        <v>985</v>
       </c>
       <c r="F245" t="n">
-        <v>3224.04377158</v>
+        <v>2352.4531</v>
       </c>
       <c r="G245" t="n">
-        <v>977.793333333333</v>
+        <v>977.7766666666663</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9505,11 +9153,7 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -9519,22 +9163,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>985</v>
+        <v>984.9</v>
       </c>
       <c r="C246" t="n">
         <v>985</v>
       </c>
       <c r="D246" t="n">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E246" t="n">
-        <v>985</v>
+        <v>984.9</v>
       </c>
       <c r="F246" t="n">
-        <v>2965.3364</v>
+        <v>3224.04377158</v>
       </c>
       <c r="G246" t="n">
-        <v>977.8249999999996</v>
+        <v>977.793333333333</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9544,11 +9188,7 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9564,16 +9204,16 @@
         <v>985</v>
       </c>
       <c r="D247" t="n">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="E247" t="n">
         <v>985</v>
       </c>
       <c r="F247" t="n">
-        <v>2889.6823</v>
+        <v>2965.3364</v>
       </c>
       <c r="G247" t="n">
-        <v>977.8749999999997</v>
+        <v>977.8249999999996</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9583,11 +9223,7 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9609,10 +9245,10 @@
         <v>985</v>
       </c>
       <c r="F248" t="n">
-        <v>335.0567</v>
+        <v>2889.6823</v>
       </c>
       <c r="G248" t="n">
-        <v>977.9416666666663</v>
+        <v>977.8749999999997</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9622,11 +9258,7 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9648,10 +9280,10 @@
         <v>985</v>
       </c>
       <c r="F249" t="n">
-        <v>1268.51452842</v>
+        <v>335.0567</v>
       </c>
       <c r="G249" t="n">
-        <v>978.0549999999997</v>
+        <v>977.9416666666663</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9661,11 +9293,7 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9675,22 +9303,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="C250" t="n">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="D250" t="n">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="E250" t="n">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="F250" t="n">
-        <v>424.9764</v>
+        <v>1268.51452842</v>
       </c>
       <c r="G250" t="n">
-        <v>978.0849999999997</v>
+        <v>978.0549999999997</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9700,11 +9328,7 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9714,22 +9338,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="C251" t="n">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="D251" t="n">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="E251" t="n">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="F251" t="n">
-        <v>1104.0017</v>
+        <v>424.9764</v>
       </c>
       <c r="G251" t="n">
-        <v>978.1983333333332</v>
+        <v>978.0849999999997</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9739,11 +9363,7 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9765,10 +9385,10 @@
         <v>985</v>
       </c>
       <c r="F252" t="n">
-        <v>333.3226</v>
+        <v>1104.0017</v>
       </c>
       <c r="G252" t="n">
-        <v>978.3149999999998</v>
+        <v>978.1983333333332</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9778,11 +9398,7 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9804,10 +9420,10 @@
         <v>985</v>
       </c>
       <c r="F253" t="n">
-        <v>420</v>
+        <v>333.3226</v>
       </c>
       <c r="G253" t="n">
-        <v>978.3533333333331</v>
+        <v>978.3149999999998</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9817,11 +9433,7 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9843,10 +9455,10 @@
         <v>985</v>
       </c>
       <c r="F254" t="n">
-        <v>535.0512</v>
+        <v>420</v>
       </c>
       <c r="G254" t="n">
-        <v>978.4833333333332</v>
+        <v>978.3533333333331</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9856,11 +9468,7 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9882,10 +9490,10 @@
         <v>985</v>
       </c>
       <c r="F255" t="n">
-        <v>249.2946</v>
+        <v>535.0512</v>
       </c>
       <c r="G255" t="n">
-        <v>978.6133333333332</v>
+        <v>978.4833333333332</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9895,11 +9503,7 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9921,10 +9525,10 @@
         <v>985</v>
       </c>
       <c r="F256" t="n">
-        <v>1821.3991</v>
+        <v>249.2946</v>
       </c>
       <c r="G256" t="n">
-        <v>978.8066666666666</v>
+        <v>978.6133333333332</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -9934,11 +9538,7 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9960,10 +9560,10 @@
         <v>985</v>
       </c>
       <c r="F257" t="n">
-        <v>619.7356</v>
+        <v>1821.3991</v>
       </c>
       <c r="G257" t="n">
-        <v>978.9983333333332</v>
+        <v>978.8066666666666</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -9973,11 +9573,7 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9990,19 +9586,19 @@
         <v>985</v>
       </c>
       <c r="C258" t="n">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D258" t="n">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E258" t="n">
         <v>985</v>
       </c>
       <c r="F258" t="n">
-        <v>1347.4478</v>
+        <v>619.7356</v>
       </c>
       <c r="G258" t="n">
-        <v>979.0983333333332</v>
+        <v>978.9983333333332</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -10012,11 +9608,7 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -10026,22 +9618,22 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="C259" t="n">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="D259" t="n">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="E259" t="n">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="F259" t="n">
-        <v>1048.4636</v>
+        <v>1347.4478</v>
       </c>
       <c r="G259" t="n">
-        <v>979.3633333333332</v>
+        <v>979.0983333333332</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -10051,11 +9643,7 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -10065,22 +9653,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>993.4</v>
+        <v>988</v>
       </c>
       <c r="C260" t="n">
-        <v>993.4</v>
+        <v>994</v>
       </c>
       <c r="D260" t="n">
-        <v>993.4</v>
+        <v>994</v>
       </c>
       <c r="E260" t="n">
-        <v>993.4</v>
+        <v>988</v>
       </c>
       <c r="F260" t="n">
-        <v>2045.4934</v>
+        <v>1048.4636</v>
       </c>
       <c r="G260" t="n">
-        <v>979.6183333333333</v>
+        <v>979.3633333333332</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10090,11 +9678,7 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -10107,19 +9691,19 @@
         <v>993.4</v>
       </c>
       <c r="C261" t="n">
-        <v>995</v>
+        <v>993.4</v>
       </c>
       <c r="D261" t="n">
-        <v>995</v>
+        <v>993.4</v>
       </c>
       <c r="E261" t="n">
         <v>993.4</v>
       </c>
       <c r="F261" t="n">
-        <v>1415.6456</v>
+        <v>2045.4934</v>
       </c>
       <c r="G261" t="n">
-        <v>979.9016666666666</v>
+        <v>979.6183333333333</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10129,11 +9713,7 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -10143,22 +9723,22 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
+        <v>993.4</v>
+      </c>
+      <c r="C262" t="n">
         <v>995</v>
       </c>
-      <c r="C262" t="n">
-        <v>997</v>
-      </c>
       <c r="D262" t="n">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="E262" t="n">
-        <v>995</v>
+        <v>993.4</v>
       </c>
       <c r="F262" t="n">
-        <v>231.2712</v>
+        <v>1415.6456</v>
       </c>
       <c r="G262" t="n">
-        <v>980.2183333333334</v>
+        <v>979.9016666666666</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -10168,11 +9748,7 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -10182,22 +9758,22 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
+        <v>995</v>
+      </c>
+      <c r="C263" t="n">
         <v>997</v>
       </c>
-      <c r="C263" t="n">
-        <v>999.9</v>
-      </c>
       <c r="D263" t="n">
-        <v>999.9</v>
+        <v>997</v>
       </c>
       <c r="E263" t="n">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F263" t="n">
-        <v>2840.3325</v>
+        <v>231.2712</v>
       </c>
       <c r="G263" t="n">
-        <v>980.5666666666667</v>
+        <v>980.2183333333334</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -10207,11 +9783,7 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -10221,22 +9793,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
+        <v>997</v>
+      </c>
+      <c r="C264" t="n">
         <v>999.9</v>
       </c>
-      <c r="C264" t="n">
-        <v>1006</v>
-      </c>
       <c r="D264" t="n">
-        <v>1006</v>
+        <v>999.9</v>
       </c>
       <c r="E264" t="n">
-        <v>999.9</v>
+        <v>997</v>
       </c>
       <c r="F264" t="n">
-        <v>8605.426299999999</v>
+        <v>2840.3325</v>
       </c>
       <c r="G264" t="n">
-        <v>981.05</v>
+        <v>980.5666666666667</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -10246,11 +9818,7 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -10260,22 +9828,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
+        <v>999.9</v>
+      </c>
+      <c r="C265" t="n">
         <v>1006</v>
       </c>
-      <c r="C265" t="n">
-        <v>1013</v>
-      </c>
       <c r="D265" t="n">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="E265" t="n">
-        <v>1006</v>
+        <v>999.9</v>
       </c>
       <c r="F265" t="n">
-        <v>895.6213150999999</v>
+        <v>8605.426299999999</v>
       </c>
       <c r="G265" t="n">
-        <v>981.7099999999999</v>
+        <v>981.05</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -10285,12 +9853,43 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1006</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1013</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1013</v>
+      </c>
+      <c r="E266" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F266" t="n">
+        <v>895.6213150999999</v>
+      </c>
+      <c r="G266" t="n">
+        <v>981.7099999999999</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-16 BackTest WAVES.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M266"/>
+  <dimension ref="A1:N276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>81.3</v>
       </c>
       <c r="G2" t="n">
+        <v>961.7733333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>955.1799999999999</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>1063.1169</v>
       </c>
       <c r="G3" t="n">
+        <v>962.0400000000002</v>
+      </c>
+      <c r="H3" t="n">
         <v>955.3333333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>1510.974</v>
       </c>
       <c r="G4" t="n">
+        <v>962.0400000000002</v>
+      </c>
+      <c r="H4" t="n">
         <v>955.4366666666665</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>2896.7305</v>
       </c>
       <c r="G5" t="n">
+        <v>961.5066666666668</v>
+      </c>
+      <c r="H5" t="n">
         <v>955.4866666666665</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,25 @@
         <v>3836.5381</v>
       </c>
       <c r="G6" t="n">
+        <v>960.4600000000002</v>
+      </c>
+      <c r="H6" t="n">
         <v>955.5416666666665</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>951</v>
+      </c>
+      <c r="L6" t="n">
+        <v>951</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +647,29 @@
         <v>1298.04</v>
       </c>
       <c r="G7" t="n">
+        <v>959.5266666666668</v>
+      </c>
+      <c r="H7" t="n">
         <v>955.5249999999999</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>951.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>951</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +693,29 @@
         <v>2212.7986</v>
       </c>
       <c r="G8" t="n">
+        <v>958.4600000000002</v>
+      </c>
+      <c r="H8" t="n">
         <v>955.3916666666665</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>947</v>
+      </c>
+      <c r="L8" t="n">
+        <v>951</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,24 +739,29 @@
         <v>7526.5517</v>
       </c>
       <c r="G9" t="n">
+        <v>956.7933333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>955.1116666666665</v>
       </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>945</v>
       </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+      <c r="L9" t="n">
+        <v>951</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -734,24 +785,29 @@
         <v>1233.9827</v>
       </c>
       <c r="G10" t="n">
+        <v>955.6600000000001</v>
+      </c>
+      <c r="H10" t="n">
         <v>954.9483333333332</v>
       </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>936</v>
       </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
+      <c r="L10" t="n">
+        <v>951</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -775,22 +831,29 @@
         <v>16406.6858</v>
       </c>
       <c r="G11" t="n">
+        <v>953.9933333333335</v>
+      </c>
+      <c r="H11" t="n">
         <v>954.6649999999997</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>943</v>
+      </c>
+      <c r="L11" t="n">
+        <v>951</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -814,22 +877,27 @@
         <v>1292.6576</v>
       </c>
       <c r="G12" t="n">
+        <v>952.2600000000001</v>
+      </c>
+      <c r="H12" t="n">
         <v>954.4316666666665</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>951</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -853,22 +921,29 @@
         <v>892.2401</v>
       </c>
       <c r="G13" t="n">
+        <v>951.1933333333334</v>
+      </c>
+      <c r="H13" t="n">
         <v>954.2149999999998</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>943</v>
+      </c>
+      <c r="L13" t="n">
+        <v>951</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -892,22 +967,29 @@
         <v>315.78947368</v>
       </c>
       <c r="G14" t="n">
+        <v>950.4466666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>954.1149999999998</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>943</v>
+      </c>
+      <c r="L14" t="n">
+        <v>951</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -931,24 +1013,27 @@
         <v>5.9185</v>
       </c>
       <c r="G15" t="n">
+        <v>949.7</v>
+      </c>
+      <c r="H15" t="n">
         <v>953.9649999999998</v>
       </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>950</v>
+        <v>0</v>
       </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M15" t="n">
+      <c r="L15" t="n">
+        <v>951</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -972,22 +1057,29 @@
         <v>1043.1337</v>
       </c>
       <c r="G16" t="n">
+        <v>948.7533333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>953.7483333333331</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M16" t="n">
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>950</v>
+      </c>
+      <c r="L16" t="n">
+        <v>951</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1011,24 +1103,29 @@
         <v>58.7516</v>
       </c>
       <c r="G17" t="n">
+        <v>947.2933333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>953.5333333333331</v>
       </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>946</v>
       </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M17" t="n">
+      <c r="L17" t="n">
+        <v>951</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1052,22 +1149,29 @@
         <v>138.6287</v>
       </c>
       <c r="G18" t="n">
+        <v>946.76</v>
+      </c>
+      <c r="H18" t="n">
         <v>953.5499999999997</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>946.1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>951</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1091,22 +1195,29 @@
         <v>758.7003</v>
       </c>
       <c r="G19" t="n">
+        <v>946.4266666666666</v>
+      </c>
+      <c r="H19" t="n">
         <v>953.6166666666664</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>955</v>
+      </c>
+      <c r="L19" t="n">
+        <v>951</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1130,22 +1241,29 @@
         <v>0.0001</v>
       </c>
       <c r="G20" t="n">
+        <v>946.6933333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>953.6666666666664</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>955</v>
+      </c>
+      <c r="L20" t="n">
+        <v>951</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1169,22 +1287,27 @@
         <v>698.0802</v>
       </c>
       <c r="G21" t="n">
+        <v>946.9400000000001</v>
+      </c>
+      <c r="H21" t="n">
         <v>953.7499999999998</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M21" t="n">
+      <c r="L21" t="n">
+        <v>951</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1208,22 +1331,27 @@
         <v>138.7203</v>
       </c>
       <c r="G22" t="n">
+        <v>947.4733333333334</v>
+      </c>
+      <c r="H22" t="n">
         <v>953.8499999999998</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
+      <c r="L22" t="n">
+        <v>951</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1247,22 +1375,27 @@
         <v>168.7522</v>
       </c>
       <c r="G23" t="n">
+        <v>948.2800000000001</v>
+      </c>
+      <c r="H23" t="n">
         <v>953.9849999999998</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
+      <c r="L23" t="n">
+        <v>951</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1286,22 +1419,27 @@
         <v>955.2711</v>
       </c>
       <c r="G24" t="n">
+        <v>949.6800000000001</v>
+      </c>
+      <c r="H24" t="n">
         <v>954.1183333333331</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
+      <c r="L24" t="n">
+        <v>951</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1325,22 +1463,27 @@
         <v>596.057</v>
       </c>
       <c r="G25" t="n">
+        <v>950.6800000000001</v>
+      </c>
+      <c r="H25" t="n">
         <v>954.2683333333331</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
+      <c r="L25" t="n">
+        <v>951</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1364,22 +1507,27 @@
         <v>3010.9153</v>
       </c>
       <c r="G26" t="n">
+        <v>952.2800000000001</v>
+      </c>
+      <c r="H26" t="n">
         <v>954.4349999999997</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
+      <c r="L26" t="n">
+        <v>951</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1403,22 +1551,27 @@
         <v>70.55240000000001</v>
       </c>
       <c r="G27" t="n">
+        <v>953.1466666666668</v>
+      </c>
+      <c r="H27" t="n">
         <v>954.5516666666664</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
+      <c r="L27" t="n">
+        <v>951</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1442,22 +1595,27 @@
         <v>69.6996</v>
       </c>
       <c r="G28" t="n">
+        <v>954.0133333333334</v>
+      </c>
+      <c r="H28" t="n">
         <v>954.6683333333331</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
+      <c r="L28" t="n">
+        <v>951</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1481,22 +1639,27 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
+        <v>954.7466666666667</v>
+      </c>
+      <c r="H29" t="n">
         <v>954.8683333333331</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
+      <c r="L29" t="n">
+        <v>951</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1520,22 +1683,27 @@
         <v>2</v>
       </c>
       <c r="G30" t="n">
+        <v>955.48</v>
+      </c>
+      <c r="H30" t="n">
         <v>955.0849999999997</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
+      <c r="L30" t="n">
+        <v>951</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1559,22 +1727,27 @@
         <v>1058.8</v>
       </c>
       <c r="G31" t="n">
+        <v>956.48</v>
+      </c>
+      <c r="H31" t="n">
         <v>955.2516666666664</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
+      <c r="L31" t="n">
+        <v>951</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1598,22 +1771,27 @@
         <v>363.0511</v>
       </c>
       <c r="G32" t="n">
+        <v>957.0733333333334</v>
+      </c>
+      <c r="H32" t="n">
         <v>955.318333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
+      <c r="L32" t="n">
+        <v>951</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1637,22 +1815,27 @@
         <v>743.9775</v>
       </c>
       <c r="G33" t="n">
+        <v>957.14</v>
+      </c>
+      <c r="H33" t="n">
         <v>955.2683333333331</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
+      <c r="L33" t="n">
+        <v>951</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1676,22 +1859,27 @@
         <v>330.7066</v>
       </c>
       <c r="G34" t="n">
+        <v>957.2066666666667</v>
+      </c>
+      <c r="H34" t="n">
         <v>955.2016666666664</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
+      <c r="L34" t="n">
+        <v>951</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1715,22 +1903,27 @@
         <v>8336.2467</v>
       </c>
       <c r="G35" t="n">
+        <v>957.5400000000001</v>
+      </c>
+      <c r="H35" t="n">
         <v>955.218333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
+      <c r="L35" t="n">
+        <v>951</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1754,22 +1947,27 @@
         <v>576.79735197</v>
       </c>
       <c r="G36" t="n">
+        <v>957.8733333333333</v>
+      </c>
+      <c r="H36" t="n">
         <v>955.2849999999997</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
+      <c r="L36" t="n">
+        <v>951</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1793,22 +1991,27 @@
         <v>903.1917999999999</v>
       </c>
       <c r="G37" t="n">
+        <v>958.2733333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>955.3683333333331</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
+      <c r="L37" t="n">
+        <v>951</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1832,22 +2035,27 @@
         <v>51.92052313</v>
       </c>
       <c r="G38" t="n">
+        <v>958.7333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>955.6016666666663</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
+      <c r="L38" t="n">
+        <v>951</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1871,22 +2079,27 @@
         <v>43.32797687</v>
       </c>
       <c r="G39" t="n">
+        <v>959.2</v>
+      </c>
+      <c r="H39" t="n">
         <v>955.8516666666663</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
+      <c r="L39" t="n">
+        <v>951</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1910,22 +2123,27 @@
         <v>52.64</v>
       </c>
       <c r="G40" t="n">
+        <v>959.6066666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>956.0866666666664</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
+      <c r="L40" t="n">
+        <v>951</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1949,22 +2167,27 @@
         <v>172.7534</v>
       </c>
       <c r="G41" t="n">
+        <v>960.2</v>
+      </c>
+      <c r="H41" t="n">
         <v>956.4016666666664</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="L41" t="n">
+        <v>951</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,22 +2211,27 @@
         <v>0.745</v>
       </c>
       <c r="G42" t="n">
+        <v>960.9933333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>956.7333333333331</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="L42" t="n">
+        <v>951</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2027,22 +2255,27 @@
         <v>73.42749999999999</v>
       </c>
       <c r="G43" t="n">
+        <v>961.7866666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>956.8983333333331</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
+      <c r="L43" t="n">
+        <v>951</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2066,22 +2299,27 @@
         <v>445</v>
       </c>
       <c r="G44" t="n">
+        <v>962.2466666666666</v>
+      </c>
+      <c r="H44" t="n">
         <v>957.0633333333332</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
+      <c r="L44" t="n">
+        <v>951</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2105,22 +2343,27 @@
         <v>149.6508</v>
       </c>
       <c r="G45" t="n">
+        <v>962.7066666666666</v>
+      </c>
+      <c r="H45" t="n">
         <v>957.2116666666665</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
+      <c r="L45" t="n">
+        <v>951</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2144,22 +2387,27 @@
         <v>152.2128</v>
       </c>
       <c r="G46" t="n">
+        <v>963.3066666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>957.4283333333332</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
+      <c r="L46" t="n">
+        <v>951</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2183,22 +2431,27 @@
         <v>36.1023</v>
       </c>
       <c r="G47" t="n">
+        <v>964.3066666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>957.6116666666665</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+      <c r="L47" t="n">
+        <v>951</v>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2222,22 +2475,27 @@
         <v>53.6027</v>
       </c>
       <c r="G48" t="n">
+        <v>965.5066666666665</v>
+      </c>
+      <c r="H48" t="n">
         <v>957.8616666666665</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="L48" t="n">
+        <v>951</v>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2261,22 +2519,27 @@
         <v>1692.3377</v>
       </c>
       <c r="G49" t="n">
+        <v>967.1066666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>958.1949999999998</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
+      <c r="L49" t="n">
+        <v>951</v>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2300,22 +2563,27 @@
         <v>3645.699</v>
       </c>
       <c r="G50" t="n">
+        <v>968.1066666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>958.4616666666665</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
+      <c r="L50" t="n">
+        <v>951</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2339,22 +2607,27 @@
         <v>1</v>
       </c>
       <c r="G51" t="n">
+        <v>969.5733333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>958.7116666666665</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
+      <c r="L51" t="n">
+        <v>951</v>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2378,22 +2651,27 @@
         <v>50</v>
       </c>
       <c r="G52" t="n">
+        <v>970.9066666666665</v>
+      </c>
+      <c r="H52" t="n">
         <v>959.0449999999998</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
+      <c r="L52" t="n">
+        <v>951</v>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2417,22 +2695,27 @@
         <v>4716.5918</v>
       </c>
       <c r="G53" t="n">
+        <v>972.4999999999999</v>
+      </c>
+      <c r="H53" t="n">
         <v>959.4933333333332</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
+      <c r="L53" t="n">
+        <v>951</v>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2456,22 +2739,29 @@
         <v>7173.9715</v>
       </c>
       <c r="G54" t="n">
+        <v>973.6333333333332</v>
+      </c>
+      <c r="H54" t="n">
         <v>959.8266666666665</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>951</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2493,18 +2783,27 @@
         <v>3.6789</v>
       </c>
       <c r="G55" t="n">
+        <v>975.2933333333332</v>
+      </c>
+      <c r="H55" t="n">
         <v>960.3099999999998</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
-        <v>1</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="L55" t="n">
+        <v>951</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2528,18 +2827,27 @@
         <v>2.25126646</v>
       </c>
       <c r="G56" t="n">
+        <v>976.5666666666665</v>
+      </c>
+      <c r="H56" t="n">
         <v>960.7599999999999</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
-        <v>1</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="L56" t="n">
+        <v>951</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2563,18 +2871,27 @@
         <v>415.8677</v>
       </c>
       <c r="G57" t="n">
+        <v>977.8399999999999</v>
+      </c>
+      <c r="H57" t="n">
         <v>961.0599999999998</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
-        <v>1</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="L57" t="n">
+        <v>951</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2598,18 +2915,27 @@
         <v>3324.2294</v>
       </c>
       <c r="G58" t="n">
+        <v>978.9799999999999</v>
+      </c>
+      <c r="H58" t="n">
         <v>961.4933333333332</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
-        <v>1</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="L58" t="n">
+        <v>951</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2633,18 +2959,27 @@
         <v>454.0044</v>
       </c>
       <c r="G59" t="n">
+        <v>980.1866666666666</v>
+      </c>
+      <c r="H59" t="n">
         <v>961.9066666666665</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="L59" t="n">
+        <v>951</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2668,18 +3003,27 @@
         <v>34.7888</v>
       </c>
       <c r="G60" t="n">
+        <v>981.3933333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>962.3199999999999</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="L60" t="n">
+        <v>951</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2703,18 +3047,27 @@
         <v>55</v>
       </c>
       <c r="G61" t="n">
+        <v>982.7266666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>962.8166666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="L61" t="n">
+        <v>951</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2738,18 +3091,27 @@
         <v>7.86349848</v>
       </c>
       <c r="G62" t="n">
+        <v>983.9933333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>963.1666666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="L62" t="n">
+        <v>951</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2773,18 +3135,27 @@
         <v>2442.7393</v>
       </c>
       <c r="G63" t="n">
+        <v>984.3266666666666</v>
+      </c>
+      <c r="H63" t="n">
         <v>963.4333333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="L63" t="n">
+        <v>951</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2808,18 +3179,27 @@
         <v>546.8394</v>
       </c>
       <c r="G64" t="n">
+        <v>984.92</v>
+      </c>
+      <c r="H64" t="n">
         <v>963.9150000000001</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="L64" t="n">
+        <v>951</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2843,18 +3223,27 @@
         <v>27.2</v>
       </c>
       <c r="G65" t="n">
+        <v>985.3199999999999</v>
+      </c>
+      <c r="H65" t="n">
         <v>964.4150000000001</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="L65" t="n">
+        <v>951</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2878,18 +3267,27 @@
         <v>562</v>
       </c>
       <c r="G66" t="n">
+        <v>985.7066666666666</v>
+      </c>
+      <c r="H66" t="n">
         <v>965.0233333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="L66" t="n">
+        <v>951</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2913,18 +3311,27 @@
         <v>294.942</v>
       </c>
       <c r="G67" t="n">
+        <v>985.7733333333332</v>
+      </c>
+      <c r="H67" t="n">
         <v>965.6066666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="L67" t="n">
+        <v>951</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2948,18 +3355,27 @@
         <v>2362.4499</v>
       </c>
       <c r="G68" t="n">
+        <v>985.7666666666665</v>
+      </c>
+      <c r="H68" t="n">
         <v>966.3200000000001</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="L68" t="n">
+        <v>951</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2983,18 +3399,27 @@
         <v>1033.1342</v>
       </c>
       <c r="G69" t="n">
+        <v>985.7666666666665</v>
+      </c>
+      <c r="H69" t="n">
         <v>967.0700000000001</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="L69" t="n">
+        <v>951</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3018,18 +3443,27 @@
         <v>832.1973</v>
       </c>
       <c r="G70" t="n">
+        <v>985.3466666666666</v>
+      </c>
+      <c r="H70" t="n">
         <v>967.7316666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="L70" t="n">
+        <v>951</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3053,18 +3487,27 @@
         <v>249.0591</v>
       </c>
       <c r="G71" t="n">
+        <v>985.0066666666665</v>
+      </c>
+      <c r="H71" t="n">
         <v>968.5133333333334</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="L71" t="n">
+        <v>951</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3088,18 +3531,27 @@
         <v>249.0593</v>
       </c>
       <c r="G72" t="n">
+        <v>984.6666666666665</v>
+      </c>
+      <c r="H72" t="n">
         <v>969.1616666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="L72" t="n">
+        <v>951</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3123,18 +3575,27 @@
         <v>65.04949999999999</v>
       </c>
       <c r="G73" t="n">
+        <v>984.4599999999998</v>
+      </c>
+      <c r="H73" t="n">
         <v>969.8100000000001</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="L73" t="n">
+        <v>951</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3158,18 +3619,27 @@
         <v>18.1608</v>
       </c>
       <c r="G74" t="n">
+        <v>984.1266666666666</v>
+      </c>
+      <c r="H74" t="n">
         <v>970.3266666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="L74" t="n">
+        <v>951</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3193,18 +3663,27 @@
         <v>33.7597</v>
       </c>
       <c r="G75" t="n">
+        <v>983.5266666666665</v>
+      </c>
+      <c r="H75" t="n">
         <v>970.7766666666668</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="L75" t="n">
+        <v>951</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3228,18 +3707,27 @@
         <v>1558.1882</v>
       </c>
       <c r="G76" t="n">
+        <v>982.9266666666665</v>
+      </c>
+      <c r="H76" t="n">
         <v>971.3600000000001</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="L76" t="n">
+        <v>951</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3263,18 +3751,27 @@
         <v>832.9425</v>
       </c>
       <c r="G77" t="n">
+        <v>981.9266666666665</v>
+      </c>
+      <c r="H77" t="n">
         <v>971.8250000000002</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="L77" t="n">
+        <v>951</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3298,18 +3795,27 @@
         <v>8.378</v>
       </c>
       <c r="G78" t="n">
+        <v>981.6133333333331</v>
+      </c>
+      <c r="H78" t="n">
         <v>972.1466666666669</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="L78" t="n">
+        <v>951</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3333,18 +3839,27 @@
         <v>115.0345</v>
       </c>
       <c r="G79" t="n">
+        <v>981.1533333333332</v>
+      </c>
+      <c r="H79" t="n">
         <v>972.5966666666668</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="L79" t="n">
+        <v>951</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3368,18 +3883,27 @@
         <v>43.5125</v>
       </c>
       <c r="G80" t="n">
+        <v>981.0866666666665</v>
+      </c>
+      <c r="H80" t="n">
         <v>973.0133333333335</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="L80" t="n">
+        <v>951</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3403,18 +3927,27 @@
         <v>494.7802</v>
       </c>
       <c r="G81" t="n">
+        <v>980.8333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>973.4966666666668</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="L81" t="n">
+        <v>951</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3438,18 +3971,27 @@
         <v>38.1</v>
       </c>
       <c r="G82" t="n">
+        <v>981.2333333333332</v>
+      </c>
+      <c r="H82" t="n">
         <v>974.0466666666669</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="L82" t="n">
+        <v>951</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3473,18 +4015,27 @@
         <v>8.378</v>
       </c>
       <c r="G83" t="n">
+        <v>981.2466666666666</v>
+      </c>
+      <c r="H83" t="n">
         <v>974.5616666666668</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="L83" t="n">
+        <v>951</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,18 +4059,27 @@
         <v>50.4291</v>
       </c>
       <c r="G84" t="n">
+        <v>981.78</v>
+      </c>
+      <c r="H84" t="n">
         <v>975.0950000000001</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="L84" t="n">
+        <v>951</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3543,18 +4103,27 @@
         <v>35.71</v>
       </c>
       <c r="G85" t="n">
+        <v>982.1399999999999</v>
+      </c>
+      <c r="H85" t="n">
         <v>975.5966666666668</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="L85" t="n">
+        <v>951</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3578,18 +4147,27 @@
         <v>1058.584</v>
       </c>
       <c r="G86" t="n">
+        <v>982.6799999999999</v>
+      </c>
+      <c r="H86" t="n">
         <v>976.1133333333335</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="L86" t="n">
+        <v>951</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3613,18 +4191,27 @@
         <v>199.7309</v>
       </c>
       <c r="G87" t="n">
+        <v>983.0866666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>976.6466666666669</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="L87" t="n">
+        <v>951</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3648,18 +4235,27 @@
         <v>180.6891</v>
       </c>
       <c r="G88" t="n">
+        <v>983.36</v>
+      </c>
+      <c r="H88" t="n">
         <v>977.1466666666669</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="L88" t="n">
+        <v>951</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3683,18 +4279,27 @@
         <v>56.492</v>
       </c>
       <c r="G89" t="n">
+        <v>983.5599999999999</v>
+      </c>
+      <c r="H89" t="n">
         <v>977.5300000000002</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="L89" t="n">
+        <v>951</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3718,18 +4323,27 @@
         <v>539.9289</v>
       </c>
       <c r="G90" t="n">
+        <v>983.9599999999999</v>
+      </c>
+      <c r="H90" t="n">
         <v>977.8966666666669</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="L90" t="n">
+        <v>951</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3753,18 +4367,27 @@
         <v>39.95</v>
       </c>
       <c r="G91" t="n">
+        <v>984.0333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>978.2483333333334</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="L91" t="n">
+        <v>951</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3788,18 +4411,27 @@
         <v>1638.6868</v>
       </c>
       <c r="G92" t="n">
+        <v>984.5733333333334</v>
+      </c>
+      <c r="H92" t="n">
         <v>978.7000000000002</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="L92" t="n">
+        <v>951</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3823,18 +4455,27 @@
         <v>4.7719</v>
       </c>
       <c r="G93" t="n">
+        <v>985.0866666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>979.1333333333334</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="L93" t="n">
+        <v>951</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3858,18 +4499,27 @@
         <v>1318.6741</v>
       </c>
       <c r="G94" t="n">
+        <v>984.8333333333335</v>
+      </c>
+      <c r="H94" t="n">
         <v>979.5033333333334</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>951</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3893,18 +4543,27 @@
         <v>176.9184</v>
       </c>
       <c r="G95" t="n">
+        <v>984.7133333333335</v>
+      </c>
+      <c r="H95" t="n">
         <v>979.8066666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>951</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3928,18 +4587,27 @@
         <v>698.1337</v>
       </c>
       <c r="G96" t="n">
+        <v>984.3333333333335</v>
+      </c>
+      <c r="H96" t="n">
         <v>980.1116666666668</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>951</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3963,18 +4631,27 @@
         <v>32.9725</v>
       </c>
       <c r="G97" t="n">
+        <v>983.6866666666667</v>
+      </c>
+      <c r="H97" t="n">
         <v>980.4000000000001</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>951</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3998,18 +4675,27 @@
         <v>2749.4828</v>
       </c>
       <c r="G98" t="n">
+        <v>983.0333333333334</v>
+      </c>
+      <c r="H98" t="n">
         <v>980.6366666666668</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>951</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4033,18 +4719,27 @@
         <v>2037.1898</v>
       </c>
       <c r="G99" t="n">
+        <v>982.3066666666668</v>
+      </c>
+      <c r="H99" t="n">
         <v>980.8716666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>951</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4068,18 +4763,27 @@
         <v>1683.8689</v>
       </c>
       <c r="G100" t="n">
+        <v>981.6400000000001</v>
+      </c>
+      <c r="H100" t="n">
         <v>981.105</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>951</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4103,18 +4807,29 @@
         <v>1829.2583</v>
       </c>
       <c r="G101" t="n">
+        <v>980.8400000000001</v>
+      </c>
+      <c r="H101" t="n">
         <v>981.2733333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>978.1</v>
+      </c>
+      <c r="L101" t="n">
+        <v>951</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4138,18 +4853,27 @@
         <v>952.7177</v>
       </c>
       <c r="G102" t="n">
+        <v>980.2066666666668</v>
+      </c>
+      <c r="H102" t="n">
         <v>981.45</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>951</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4173,18 +4897,27 @@
         <v>236.2746</v>
       </c>
       <c r="G103" t="n">
+        <v>979.2733333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>981.5183333333333</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="L103" t="n">
+        <v>951</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4208,18 +4941,27 @@
         <v>630</v>
       </c>
       <c r="G104" t="n">
+        <v>978.4133333333335</v>
+      </c>
+      <c r="H104" t="n">
         <v>981.5716666666666</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>951</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4243,18 +4985,29 @@
         <v>74.8553</v>
       </c>
       <c r="G105" t="n">
+        <v>977.6133333333335</v>
+      </c>
+      <c r="H105" t="n">
         <v>981.6233333333332</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>971.1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>951</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4278,18 +5031,29 @@
         <v>2264.8172</v>
       </c>
       <c r="G106" t="n">
+        <v>977.0733333333335</v>
+      </c>
+      <c r="H106" t="n">
         <v>981.6899999999999</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>971</v>
+      </c>
+      <c r="L106" t="n">
+        <v>951</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4313,18 +5077,29 @@
         <v>237.9362</v>
       </c>
       <c r="G107" t="n">
+        <v>976.7800000000002</v>
+      </c>
+      <c r="H107" t="n">
         <v>981.8183333333332</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>974</v>
+      </c>
+      <c r="L107" t="n">
+        <v>951</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4348,18 +5123,27 @@
         <v>526</v>
       </c>
       <c r="G108" t="n">
+        <v>976.2466666666668</v>
+      </c>
+      <c r="H108" t="n">
         <v>981.8183333333332</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>951</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4383,18 +5167,27 @@
         <v>310</v>
       </c>
       <c r="G109" t="n">
+        <v>975.9666666666668</v>
+      </c>
+      <c r="H109" t="n">
         <v>981.7183333333331</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>951</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4418,18 +5211,27 @@
         <v>105</v>
       </c>
       <c r="G110" t="n">
+        <v>975.6866666666667</v>
+      </c>
+      <c r="H110" t="n">
         <v>981.7016666666665</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>951</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4453,18 +5255,27 @@
         <v>889.6532</v>
       </c>
       <c r="G111" t="n">
+        <v>975.2000000000002</v>
+      </c>
+      <c r="H111" t="n">
         <v>981.5183333333332</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>951</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4488,18 +5299,29 @@
         <v>1146.8289</v>
       </c>
       <c r="G112" t="n">
+        <v>974.7133333333335</v>
+      </c>
+      <c r="H112" t="n">
         <v>981.3516666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>971</v>
+      </c>
+      <c r="L112" t="n">
+        <v>951</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4523,18 +5345,29 @@
         <v>345</v>
       </c>
       <c r="G113" t="n">
+        <v>974.1000000000001</v>
+      </c>
+      <c r="H113" t="n">
         <v>981.0366666666665</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>971</v>
+      </c>
+      <c r="L113" t="n">
+        <v>951</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4558,18 +5391,29 @@
         <v>93.3053</v>
       </c>
       <c r="G114" t="n">
+        <v>973.3600000000001</v>
+      </c>
+      <c r="H114" t="n">
         <v>980.8033333333332</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>969</v>
+      </c>
+      <c r="L114" t="n">
+        <v>951</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4593,18 +5437,29 @@
         <v>68.1036</v>
       </c>
       <c r="G115" t="n">
+        <v>972.4200000000001</v>
+      </c>
+      <c r="H115" t="n">
         <v>980.3866666666665</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>967</v>
+      </c>
+      <c r="L115" t="n">
+        <v>951</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4628,18 +5483,29 @@
         <v>459.7813</v>
       </c>
       <c r="G116" t="n">
+        <v>971.4866666666668</v>
+      </c>
+      <c r="H116" t="n">
         <v>980.0033333333332</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>964</v>
+      </c>
+      <c r="L116" t="n">
+        <v>951</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4663,18 +5529,29 @@
         <v>2.313e-05</v>
       </c>
       <c r="G117" t="n">
+        <v>970.5200000000001</v>
+      </c>
+      <c r="H117" t="n">
         <v>979.6199999999998</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>964</v>
+      </c>
+      <c r="L117" t="n">
+        <v>951</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4698,18 +5575,29 @@
         <v>94.73237687</v>
       </c>
       <c r="G118" t="n">
+        <v>969.9866666666668</v>
+      </c>
+      <c r="H118" t="n">
         <v>979.2699999999999</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>964</v>
+      </c>
+      <c r="L118" t="n">
+        <v>951</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4733,18 +5621,29 @@
         <v>10.5296</v>
       </c>
       <c r="G119" t="n">
+        <v>969.8466666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>978.9866666666665</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>964</v>
+      </c>
+      <c r="L119" t="n">
+        <v>951</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4768,18 +5667,29 @@
         <v>235</v>
       </c>
       <c r="G120" t="n">
+        <v>969.7866666666667</v>
+      </c>
+      <c r="H120" t="n">
         <v>978.7216666666665</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>969</v>
+      </c>
+      <c r="L120" t="n">
+        <v>951</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4803,18 +5713,29 @@
         <v>102.47</v>
       </c>
       <c r="G121" t="n">
+        <v>969.5266666666668</v>
+      </c>
+      <c r="H121" t="n">
         <v>978.3899999999998</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>951</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4838,18 +5759,29 @@
         <v>785.2499</v>
       </c>
       <c r="G122" t="n">
+        <v>969.0200000000001</v>
+      </c>
+      <c r="H122" t="n">
         <v>978.0749999999997</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>951</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4873,18 +5805,29 @@
         <v>206.76</v>
       </c>
       <c r="G123" t="n">
+        <v>968.7600000000001</v>
+      </c>
+      <c r="H123" t="n">
         <v>977.9266666666664</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>951</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4908,18 +5851,29 @@
         <v>320.8702</v>
       </c>
       <c r="G124" t="n">
+        <v>968.5066666666668</v>
+      </c>
+      <c r="H124" t="n">
         <v>977.6149999999997</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="L124" t="n">
+        <v>951</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4943,18 +5897,29 @@
         <v>77.3013</v>
       </c>
       <c r="G125" t="n">
+        <v>968.3133333333335</v>
+      </c>
+      <c r="H125" t="n">
         <v>977.4499999999996</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>970.2</v>
+      </c>
+      <c r="L125" t="n">
+        <v>951</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4978,18 +5943,29 @@
         <v>277.5007</v>
       </c>
       <c r="G126" t="n">
+        <v>968.2600000000002</v>
+      </c>
+      <c r="H126" t="n">
         <v>977.1566666666662</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>971.1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>951</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5013,18 +5989,29 @@
         <v>473.4222</v>
       </c>
       <c r="G127" t="n">
+        <v>968.2066666666669</v>
+      </c>
+      <c r="H127" t="n">
         <v>976.9599999999995</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>970.2</v>
+      </c>
+      <c r="L127" t="n">
+        <v>951</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5048,18 +6035,29 @@
         <v>475.4387</v>
       </c>
       <c r="G128" t="n">
+        <v>968.3000000000003</v>
+      </c>
+      <c r="H128" t="n">
         <v>976.6699999999995</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>970.2</v>
+      </c>
+      <c r="L128" t="n">
+        <v>951</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5083,18 +6081,29 @@
         <v>220.11</v>
       </c>
       <c r="G129" t="n">
+        <v>968.5200000000002</v>
+      </c>
+      <c r="H129" t="n">
         <v>976.4916666666662</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>970.4</v>
+      </c>
+      <c r="L129" t="n">
+        <v>951</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5118,18 +6127,29 @@
         <v>648.3099</v>
       </c>
       <c r="G130" t="n">
+        <v>968.9333333333336</v>
+      </c>
+      <c r="H130" t="n">
         <v>976.2833333333328</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>970.3</v>
+      </c>
+      <c r="L130" t="n">
+        <v>951</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5153,18 +6173,29 @@
         <v>2406.2712</v>
       </c>
       <c r="G131" t="n">
+        <v>969.3466666666669</v>
+      </c>
+      <c r="H131" t="n">
         <v>976.0883333333328</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>970.2</v>
+      </c>
+      <c r="L131" t="n">
+        <v>951</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5188,18 +6219,29 @@
         <v>800</v>
       </c>
       <c r="G132" t="n">
+        <v>970.146666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>975.9899999999994</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>970.2</v>
+      </c>
+      <c r="L132" t="n">
+        <v>951</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5223,18 +6265,29 @@
         <v>245.5901</v>
       </c>
       <c r="G133" t="n">
+        <v>970.8800000000003</v>
+      </c>
+      <c r="H133" t="n">
         <v>975.8749999999994</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>976</v>
+      </c>
+      <c r="L133" t="n">
+        <v>951</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5258,18 +6311,29 @@
         <v>14.1433</v>
       </c>
       <c r="G134" t="n">
+        <v>971.146666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>975.7416666666661</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>975</v>
+      </c>
+      <c r="L134" t="n">
+        <v>951</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,18 +6357,29 @@
         <v>88.9933</v>
       </c>
       <c r="G135" t="n">
+        <v>971.3400000000003</v>
+      </c>
+      <c r="H135" t="n">
         <v>975.6749999999994</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>973</v>
+      </c>
+      <c r="L135" t="n">
+        <v>951</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5328,18 +6403,29 @@
         <v>0.0001</v>
       </c>
       <c r="G136" t="n">
+        <v>971.5333333333335</v>
+      </c>
+      <c r="H136" t="n">
         <v>975.5416666666661</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>973</v>
+      </c>
+      <c r="L136" t="n">
+        <v>951</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5363,18 +6449,29 @@
         <v>0.0001</v>
       </c>
       <c r="G137" t="n">
+        <v>971.8600000000002</v>
+      </c>
+      <c r="H137" t="n">
         <v>975.5583333333327</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>973</v>
+      </c>
+      <c r="L137" t="n">
+        <v>951</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5398,18 +6495,29 @@
         <v>13.2013</v>
       </c>
       <c r="G138" t="n">
+        <v>971.9866666666669</v>
+      </c>
+      <c r="H138" t="n">
         <v>975.5199999999993</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>975</v>
+      </c>
+      <c r="L138" t="n">
+        <v>951</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5433,18 +6541,29 @@
         <v>37.4513</v>
       </c>
       <c r="G139" t="n">
+        <v>972.0533333333335</v>
+      </c>
+      <c r="H139" t="n">
         <v>975.3399999999993</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>972</v>
+      </c>
+      <c r="L139" t="n">
+        <v>951</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5468,18 +6587,29 @@
         <v>633.6436</v>
       </c>
       <c r="G140" t="n">
+        <v>972.0133333333335</v>
+      </c>
+      <c r="H140" t="n">
         <v>975.1816666666659</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>971.2</v>
+      </c>
+      <c r="L140" t="n">
+        <v>951</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5503,18 +6633,29 @@
         <v>123.2387</v>
       </c>
       <c r="G141" t="n">
+        <v>972.5333333333334</v>
+      </c>
+      <c r="H141" t="n">
         <v>975.0816666666659</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>970.5</v>
+      </c>
+      <c r="L141" t="n">
+        <v>951</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5538,18 +6679,27 @@
         <v>713.2138</v>
       </c>
       <c r="G142" t="n">
+        <v>973.4533333333334</v>
+      </c>
+      <c r="H142" t="n">
         <v>975.0149999999993</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>951</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5573,18 +6723,27 @@
         <v>630</v>
       </c>
       <c r="G143" t="n">
+        <v>974.4266666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>974.9649999999993</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>951</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5608,18 +6767,27 @@
         <v>711.7296</v>
       </c>
       <c r="G144" t="n">
+        <v>975.4066666666669</v>
+      </c>
+      <c r="H144" t="n">
         <v>974.8983333333326</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>951</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5643,18 +6811,27 @@
         <v>355.8648</v>
       </c>
       <c r="G145" t="n">
+        <v>976.3933333333334</v>
+      </c>
+      <c r="H145" t="n">
         <v>974.846666666666</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>951</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5678,18 +6855,27 @@
         <v>687.8086</v>
       </c>
       <c r="G146" t="n">
+        <v>977.38</v>
+      </c>
+      <c r="H146" t="n">
         <v>974.7633333333326</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>951</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5713,18 +6899,27 @@
         <v>50</v>
       </c>
       <c r="G147" t="n">
+        <v>977.7866666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>974.6649999999993</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>951</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5748,18 +6943,27 @@
         <v>9.03252032</v>
       </c>
       <c r="G148" t="n">
+        <v>978.3866666666668</v>
+      </c>
+      <c r="H148" t="n">
         <v>974.631666666666</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="L148" t="n">
+        <v>951</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5783,18 +6987,27 @@
         <v>7.8267</v>
       </c>
       <c r="G149" t="n">
+        <v>978.9866666666668</v>
+      </c>
+      <c r="H149" t="n">
         <v>974.5983333333327</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="L149" t="n">
+        <v>951</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5818,18 +7031,27 @@
         <v>35.2</v>
       </c>
       <c r="G150" t="n">
+        <v>979.3866666666668</v>
+      </c>
+      <c r="H150" t="n">
         <v>974.531666666666</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="L150" t="n">
+        <v>951</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5853,18 +7075,27 @@
         <v>59.4866</v>
       </c>
       <c r="G151" t="n">
+        <v>979.7866666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>974.4799999999993</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="L151" t="n">
+        <v>951</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5888,18 +7119,27 @@
         <v>30</v>
       </c>
       <c r="G152" t="n">
+        <v>980.3200000000001</v>
+      </c>
+      <c r="H152" t="n">
         <v>974.4949999999993</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="L152" t="n">
+        <v>951</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5923,18 +7163,27 @@
         <v>1.69</v>
       </c>
       <c r="G153" t="n">
+        <v>980.7866666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>974.4449999999994</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>951</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5958,18 +7207,27 @@
         <v>40.9</v>
       </c>
       <c r="G154" t="n">
+        <v>981.5066666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>974.5083333333328</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="L154" t="n">
+        <v>951</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5993,18 +7251,27 @@
         <v>195.1579</v>
       </c>
       <c r="G155" t="n">
+        <v>982.34</v>
+      </c>
+      <c r="H155" t="n">
         <v>974.5883333333328</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>951</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6028,18 +7295,27 @@
         <v>136.4366</v>
       </c>
       <c r="G156" t="n">
+        <v>982.6733333333334</v>
+      </c>
+      <c r="H156" t="n">
         <v>974.6666666666661</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>951</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6063,18 +7339,27 @@
         <v>346.5839</v>
       </c>
       <c r="G157" t="n">
+        <v>982.6066666666667</v>
+      </c>
+      <c r="H157" t="n">
         <v>974.7449999999993</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>951</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6098,18 +7383,27 @@
         <v>466.1398</v>
       </c>
       <c r="G158" t="n">
+        <v>982.4733333333334</v>
+      </c>
+      <c r="H158" t="n">
         <v>974.8249999999994</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>951</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6133,18 +7427,27 @@
         <v>151.3654</v>
       </c>
       <c r="G159" t="n">
+        <v>982.34</v>
+      </c>
+      <c r="H159" t="n">
         <v>974.9066666666661</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>951</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6168,18 +7471,27 @@
         <v>233.0699</v>
       </c>
       <c r="G160" t="n">
+        <v>982.2066666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>974.9883333333328</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>951</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6203,18 +7515,27 @@
         <v>922.2789</v>
       </c>
       <c r="G161" t="n">
+        <v>982.0733333333334</v>
+      </c>
+      <c r="H161" t="n">
         <v>975.0716666666661</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>951</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6238,18 +7559,27 @@
         <v>1282.6984</v>
       </c>
       <c r="G162" t="n">
+        <v>982.1333333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>975.1466666666661</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>951</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6273,18 +7603,27 @@
         <v>510.8532</v>
       </c>
       <c r="G163" t="n">
+        <v>982.0666666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>975.3299999999995</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>951</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6308,18 +7647,27 @@
         <v>1</v>
       </c>
       <c r="G164" t="n">
+        <v>982.1333333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>975.5283333333329</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>951</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6343,18 +7691,27 @@
         <v>34</v>
       </c>
       <c r="G165" t="n">
+        <v>982.2</v>
+      </c>
+      <c r="H165" t="n">
         <v>975.6783333333328</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>951</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6378,18 +7735,27 @@
         <v>160.1759</v>
       </c>
       <c r="G166" t="n">
+        <v>982.4666666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>975.8283333333328</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>951</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6413,18 +7779,27 @@
         <v>4535.7584</v>
       </c>
       <c r="G167" t="n">
+        <v>982.4666666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>975.9166666666662</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>951</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6448,18 +7823,27 @@
         <v>464.2415</v>
       </c>
       <c r="G168" t="n">
+        <v>982.7333333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>976.0666666666662</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>951</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6483,18 +7867,27 @@
         <v>10.2004</v>
       </c>
       <c r="G169" t="n">
+        <v>982.8</v>
+      </c>
+      <c r="H169" t="n">
         <v>976.2166666666661</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>951</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6518,18 +7911,27 @@
         <v>1022.3494</v>
       </c>
       <c r="G170" t="n">
+        <v>982.4133333333334</v>
+      </c>
+      <c r="H170" t="n">
         <v>976.2699999999994</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>951</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6553,18 +7955,27 @@
         <v>162.129</v>
       </c>
       <c r="G171" t="n">
+        <v>982.08</v>
+      </c>
+      <c r="H171" t="n">
         <v>976.3866666666661</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>951</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6588,18 +7999,27 @@
         <v>581.6648</v>
       </c>
       <c r="G172" t="n">
+        <v>981.7466666666667</v>
+      </c>
+      <c r="H172" t="n">
         <v>976.5033333333328</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>951</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6623,18 +8043,27 @@
         <v>507.0172</v>
       </c>
       <c r="G173" t="n">
+        <v>981.7933333333334</v>
+      </c>
+      <c r="H173" t="n">
         <v>976.7483333333328</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>951</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6658,18 +8087,27 @@
         <v>43.7662</v>
       </c>
       <c r="G174" t="n">
+        <v>981.8600000000001</v>
+      </c>
+      <c r="H174" t="n">
         <v>977.0316666666661</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>951</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6693,18 +8131,27 @@
         <v>200</v>
       </c>
       <c r="G175" t="n">
+        <v>982.1200000000001</v>
+      </c>
+      <c r="H175" t="n">
         <v>977.4133333333327</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>951</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6728,18 +8175,27 @@
         <v>212.597</v>
       </c>
       <c r="G176" t="n">
+        <v>982.4466666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>977.8116666666662</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>951</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6763,18 +8219,27 @@
         <v>37.8565</v>
       </c>
       <c r="G177" t="n">
+        <v>982.8466666666667</v>
+      </c>
+      <c r="H177" t="n">
         <v>978.2283333333328</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>951</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6798,18 +8263,27 @@
         <v>225</v>
       </c>
       <c r="G178" t="n">
+        <v>983.3133333333334</v>
+      </c>
+      <c r="H178" t="n">
         <v>978.6616666666662</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>951</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6833,18 +8307,27 @@
         <v>260.3977</v>
       </c>
       <c r="G179" t="n">
+        <v>983.7800000000001</v>
+      </c>
+      <c r="H179" t="n">
         <v>979.0116666666661</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>951</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6868,18 +8351,27 @@
         <v>258.7725</v>
       </c>
       <c r="G180" t="n">
+        <v>984.4466666666667</v>
+      </c>
+      <c r="H180" t="n">
         <v>979.3433333333328</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="L180" t="n">
+        <v>951</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6903,18 +8395,27 @@
         <v>171.7006</v>
       </c>
       <c r="G181" t="n">
+        <v>984.9133333333334</v>
+      </c>
+      <c r="H181" t="n">
         <v>979.6749999999995</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="L181" t="n">
+        <v>951</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6938,18 +8439,27 @@
         <v>379.873</v>
       </c>
       <c r="G182" t="n">
+        <v>985.38</v>
+      </c>
+      <c r="H182" t="n">
         <v>980.0066666666662</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="L182" t="n">
+        <v>951</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6973,18 +8483,27 @@
         <v>70.7079</v>
       </c>
       <c r="G183" t="n">
+        <v>985.8533333333334</v>
+      </c>
+      <c r="H183" t="n">
         <v>980.3399999999996</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="L183" t="n">
+        <v>951</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7008,18 +8527,27 @@
         <v>485.3405</v>
       </c>
       <c r="G184" t="n">
+        <v>986.3266666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>980.6716666666663</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>951</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7043,18 +8571,27 @@
         <v>155.9988</v>
       </c>
       <c r="G185" t="n">
+        <v>986.7866666666667</v>
+      </c>
+      <c r="H185" t="n">
         <v>980.8883333333329</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>951</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7078,18 +8615,27 @@
         <v>189.6065</v>
       </c>
       <c r="G186" t="n">
+        <v>987.1866666666667</v>
+      </c>
+      <c r="H186" t="n">
         <v>981.118333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="L186" t="n">
+        <v>951</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7113,18 +8659,27 @@
         <v>186.0041</v>
       </c>
       <c r="G187" t="n">
+        <v>987.5266666666668</v>
+      </c>
+      <c r="H187" t="n">
         <v>981.3333333333329</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="L187" t="n">
+        <v>951</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7148,18 +8703,27 @@
         <v>22.7502</v>
       </c>
       <c r="G188" t="n">
+        <v>987.4133333333334</v>
+      </c>
+      <c r="H188" t="n">
         <v>981.5266666666663</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>951</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7183,18 +8747,27 @@
         <v>198.1328</v>
       </c>
       <c r="G189" t="n">
+        <v>987.2133333333334</v>
+      </c>
+      <c r="H189" t="n">
         <v>981.7049999999996</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>951</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7218,18 +8791,27 @@
         <v>1044.8442</v>
       </c>
       <c r="G190" t="n">
+        <v>986.6333333333334</v>
+      </c>
+      <c r="H190" t="n">
         <v>981.8383333333329</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>951</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7253,18 +8835,27 @@
         <v>110.0268</v>
       </c>
       <c r="G191" t="n">
+        <v>985.9866666666669</v>
+      </c>
+      <c r="H191" t="n">
         <v>981.9716666666662</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="L191" t="n">
+        <v>951</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7288,18 +8879,27 @@
         <v>2105.1459</v>
       </c>
       <c r="G192" t="n">
+        <v>985.2666666666669</v>
+      </c>
+      <c r="H192" t="n">
         <v>982.0083333333329</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>951</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7323,18 +8923,27 @@
         <v>55.8012</v>
       </c>
       <c r="G193" t="n">
+        <v>984.4666666666669</v>
+      </c>
+      <c r="H193" t="n">
         <v>982.0583333333328</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>951</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7358,18 +8967,29 @@
         <v>892.4521999999999</v>
       </c>
       <c r="G194" t="n">
+        <v>983.9800000000002</v>
+      </c>
+      <c r="H194" t="n">
         <v>982.2199999999995</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>978</v>
+      </c>
+      <c r="L194" t="n">
+        <v>951</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7393,18 +9013,29 @@
         <v>619.1079999999999</v>
       </c>
       <c r="G195" t="n">
+        <v>983.126666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>982.2899999999994</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>982.7</v>
+      </c>
+      <c r="L195" t="n">
+        <v>951</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7428,18 +9059,29 @@
         <v>741.8445</v>
       </c>
       <c r="G196" t="n">
+        <v>982.2733333333338</v>
+      </c>
+      <c r="H196" t="n">
         <v>982.3599999999993</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>977.2</v>
+      </c>
+      <c r="L196" t="n">
+        <v>951</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7463,18 +9105,29 @@
         <v>1285.23</v>
       </c>
       <c r="G197" t="n">
+        <v>981.1666666666671</v>
+      </c>
+      <c r="H197" t="n">
         <v>982.3333333333327</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>977.2</v>
+      </c>
+      <c r="L197" t="n">
+        <v>951</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7498,18 +9151,29 @@
         <v>1384.8974</v>
       </c>
       <c r="G198" t="n">
+        <v>980.0600000000003</v>
+      </c>
+      <c r="H198" t="n">
         <v>982.3583333333328</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>973.4</v>
+      </c>
+      <c r="L198" t="n">
+        <v>951</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7533,18 +9197,29 @@
         <v>381.4169</v>
       </c>
       <c r="G199" t="n">
+        <v>979.4533333333336</v>
+      </c>
+      <c r="H199" t="n">
         <v>982.5216666666661</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>973.5</v>
+      </c>
+      <c r="L199" t="n">
+        <v>951</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7568,18 +9243,29 @@
         <v>138.6816</v>
       </c>
       <c r="G200" t="n">
+        <v>979.0533333333336</v>
+      </c>
+      <c r="H200" t="n">
         <v>982.6483333333327</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>981</v>
+      </c>
+      <c r="L200" t="n">
+        <v>951</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7603,18 +9289,27 @@
         <v>60.1</v>
       </c>
       <c r="G201" t="n">
+        <v>978.6600000000003</v>
+      </c>
+      <c r="H201" t="n">
         <v>982.6499999999994</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="L201" t="n">
+        <v>951</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7638,18 +9333,27 @@
         <v>1.2184</v>
       </c>
       <c r="G202" t="n">
+        <v>978.3200000000003</v>
+      </c>
+      <c r="H202" t="n">
         <v>982.5499999999994</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="L202" t="n">
+        <v>951</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7673,18 +9377,27 @@
         <v>478.6225</v>
       </c>
       <c r="G203" t="n">
+        <v>978.0533333333336</v>
+      </c>
+      <c r="H203" t="n">
         <v>982.4333333333327</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="L203" t="n">
+        <v>951</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7708,18 +9421,27 @@
         <v>205.3295</v>
       </c>
       <c r="G204" t="n">
+        <v>977.9200000000003</v>
+      </c>
+      <c r="H204" t="n">
         <v>982.3333333333327</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>951</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7743,18 +9465,27 @@
         <v>3790.6509</v>
       </c>
       <c r="G205" t="n">
+        <v>977.8400000000003</v>
+      </c>
+      <c r="H205" t="n">
         <v>982.1999999999994</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="L205" t="n">
+        <v>951</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7778,18 +9509,27 @@
         <v>359</v>
       </c>
       <c r="G206" t="n">
+        <v>977.5200000000002</v>
+      </c>
+      <c r="H206" t="n">
         <v>982.0066666666661</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="L206" t="n">
+        <v>951</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7813,18 +9553,27 @@
         <v>1967.012</v>
       </c>
       <c r="G207" t="n">
+        <v>977.2400000000001</v>
+      </c>
+      <c r="H207" t="n">
         <v>981.8716666666661</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="L207" t="n">
+        <v>951</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7848,18 +9597,29 @@
         <v>2234.9879</v>
       </c>
       <c r="G208" t="n">
+        <v>976.9733333333335</v>
+      </c>
+      <c r="H208" t="n">
         <v>981.7049999999995</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>974</v>
+      </c>
+      <c r="L208" t="n">
+        <v>951</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7883,18 +9643,29 @@
         <v>1757.917</v>
       </c>
       <c r="G209" t="n">
+        <v>976.3933333333334</v>
+      </c>
+      <c r="H209" t="n">
         <v>981.5716666666661</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>974</v>
+      </c>
+      <c r="L209" t="n">
+        <v>951</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7918,18 +9689,29 @@
         <v>1682.4362</v>
       </c>
       <c r="G210" t="n">
+        <v>976.0666666666667</v>
+      </c>
+      <c r="H210" t="n">
         <v>981.4599999999995</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>974</v>
+      </c>
+      <c r="L210" t="n">
+        <v>951</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7953,18 +9735,29 @@
         <v>3200.8557</v>
       </c>
       <c r="G211" t="n">
+        <v>975.92</v>
+      </c>
+      <c r="H211" t="n">
         <v>981.3933333333329</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>972.3</v>
+      </c>
+      <c r="L211" t="n">
+        <v>951</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7988,18 +9781,29 @@
         <v>1280.0154</v>
       </c>
       <c r="G212" t="n">
+        <v>976.0266666666666</v>
+      </c>
+      <c r="H212" t="n">
         <v>981.2599999999995</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>975</v>
+      </c>
+      <c r="L212" t="n">
+        <v>951</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8023,18 +9827,27 @@
         <v>2685.4899</v>
       </c>
       <c r="G213" t="n">
+        <v>976.1266666666667</v>
+      </c>
+      <c r="H213" t="n">
         <v>981.1933333333328</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="L213" t="n">
+        <v>951</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8058,18 +9871,29 @@
         <v>1762.546</v>
       </c>
       <c r="G214" t="n">
+        <v>975.66</v>
+      </c>
+      <c r="H214" t="n">
         <v>981.0599999999995</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>975</v>
+      </c>
+      <c r="L214" t="n">
+        <v>951</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8093,18 +9917,29 @@
         <v>1756.3933</v>
       </c>
       <c r="G215" t="n">
+        <v>975.3199999999999</v>
+      </c>
+      <c r="H215" t="n">
         <v>980.8933333333329</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>974</v>
+      </c>
+      <c r="L215" t="n">
+        <v>951</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8128,18 +9963,29 @@
         <v>1453.5568</v>
       </c>
       <c r="G216" t="n">
+        <v>975.0466666666666</v>
+      </c>
+      <c r="H216" t="n">
         <v>980.7433333333328</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>973</v>
+      </c>
+      <c r="L216" t="n">
+        <v>951</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8163,18 +10009,29 @@
         <v>2603.4662</v>
       </c>
       <c r="G217" t="n">
+        <v>974.7133333333333</v>
+      </c>
+      <c r="H217" t="n">
         <v>980.5766666666661</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>974</v>
+      </c>
+      <c r="L217" t="n">
+        <v>951</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8198,18 +10055,29 @@
         <v>1016.7815</v>
       </c>
       <c r="G218" t="n">
+        <v>974.3799999999999</v>
+      </c>
+      <c r="H218" t="n">
         <v>980.4099999999995</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="n">
+        <v>973</v>
+      </c>
+      <c r="L218" t="n">
+        <v>951</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8233,18 +10101,29 @@
         <v>1467.4834</v>
       </c>
       <c r="G219" t="n">
+        <v>974.0466666666666</v>
+      </c>
+      <c r="H219" t="n">
         <v>980.2599999999995</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>973</v>
+      </c>
+      <c r="L219" t="n">
+        <v>951</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8268,18 +10147,27 @@
         <v>486</v>
       </c>
       <c r="G220" t="n">
+        <v>973.8466666666666</v>
+      </c>
+      <c r="H220" t="n">
         <v>980.1099999999994</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
+      <c r="L220" t="n">
+        <v>951</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8303,18 +10191,27 @@
         <v>1144</v>
       </c>
       <c r="G221" t="n">
+        <v>973.8866666666667</v>
+      </c>
+      <c r="H221" t="n">
         <v>979.9599999999995</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
+      <c r="L221" t="n">
+        <v>951</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8338,18 +10235,27 @@
         <v>1318.1717</v>
       </c>
       <c r="G222" t="n">
+        <v>973.8866666666667</v>
+      </c>
+      <c r="H222" t="n">
         <v>979.8099999999995</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
+      <c r="L222" t="n">
+        <v>951</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8373,18 +10279,27 @@
         <v>3811.5634</v>
       </c>
       <c r="G223" t="n">
+        <v>974.02</v>
+      </c>
+      <c r="H223" t="n">
         <v>979.6933333333328</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
+      <c r="L223" t="n">
+        <v>951</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8408,18 +10323,29 @@
         <v>295</v>
       </c>
       <c r="G224" t="n">
+        <v>974.2199999999999</v>
+      </c>
+      <c r="H224" t="n">
         <v>979.5933333333328</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="n">
+        <v>976</v>
+      </c>
+      <c r="L224" t="n">
+        <v>951</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8443,18 +10369,27 @@
         <v>19</v>
       </c>
       <c r="G225" t="n">
+        <v>974.5333333333333</v>
+      </c>
+      <c r="H225" t="n">
         <v>979.5433333333328</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
+      <c r="L225" t="n">
+        <v>951</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8478,18 +10413,27 @@
         <v>402.9204</v>
       </c>
       <c r="G226" t="n">
+        <v>974.6666666666666</v>
+      </c>
+      <c r="H226" t="n">
         <v>979.4433333333328</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
+      <c r="L226" t="n">
+        <v>951</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8513,18 +10457,27 @@
         <v>375</v>
       </c>
       <c r="G227" t="n">
+        <v>974.8666666666667</v>
+      </c>
+      <c r="H227" t="n">
         <v>979.3599999999994</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="L227" t="n">
+        <v>951</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8548,18 +10501,27 @@
         <v>4006.2921</v>
       </c>
       <c r="G228" t="n">
+        <v>975.2</v>
+      </c>
+      <c r="H228" t="n">
         <v>979.3099999999995</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="L228" t="n">
+        <v>951</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8583,18 +10545,27 @@
         <v>55.0318</v>
       </c>
       <c r="G229" t="n">
+        <v>975.5333333333333</v>
+      </c>
+      <c r="H229" t="n">
         <v>979.2433333333328</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="L229" t="n">
+        <v>951</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8618,18 +10589,27 @@
         <v>2256.73953013</v>
       </c>
       <c r="G230" t="n">
+        <v>975.9333333333333</v>
+      </c>
+      <c r="H230" t="n">
         <v>979.2733333333329</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="L230" t="n">
+        <v>951</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8653,18 +10633,27 @@
         <v>1000</v>
       </c>
       <c r="G231" t="n">
+        <v>976.2666666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>979.2899999999995</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="L231" t="n">
+        <v>951</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8688,18 +10677,27 @@
         <v>210</v>
       </c>
       <c r="G232" t="n">
+        <v>976.6666666666666</v>
+      </c>
+      <c r="H232" t="n">
         <v>979.3066666666662</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="L232" t="n">
+        <v>951</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8723,18 +10721,27 @@
         <v>580</v>
       </c>
       <c r="G233" t="n">
+        <v>977.0666666666667</v>
+      </c>
+      <c r="H233" t="n">
         <v>979.2283333333329</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="L233" t="n">
+        <v>951</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8758,18 +10765,27 @@
         <v>421.8068</v>
       </c>
       <c r="G234" t="n">
+        <v>977.3333333333334</v>
+      </c>
+      <c r="H234" t="n">
         <v>979.1283333333329</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="L234" t="n">
+        <v>951</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8793,18 +10809,27 @@
         <v>0.8947000000000001</v>
       </c>
       <c r="G235" t="n">
+        <v>977.6</v>
+      </c>
+      <c r="H235" t="n">
         <v>978.9799999999996</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="L235" t="n">
+        <v>951</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8828,18 +10853,27 @@
         <v>157.9621</v>
       </c>
       <c r="G236" t="n">
+        <v>977.9333333333333</v>
+      </c>
+      <c r="H236" t="n">
         <v>978.8316666666663</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="L236" t="n">
+        <v>951</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8863,18 +10897,27 @@
         <v>47.9642</v>
       </c>
       <c r="G237" t="n">
+        <v>978.2666666666667</v>
+      </c>
+      <c r="H237" t="n">
         <v>978.6649999999995</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="L237" t="n">
+        <v>951</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8898,18 +10941,27 @@
         <v>4015.60266987</v>
       </c>
       <c r="G238" t="n">
+        <v>978.4666666666667</v>
+      </c>
+      <c r="H238" t="n">
         <v>978.4816666666662</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="L238" t="n">
+        <v>951</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8933,18 +10985,29 @@
         <v>99.84990000000001</v>
       </c>
       <c r="G239" t="n">
+        <v>978.6666666666666</v>
+      </c>
+      <c r="H239" t="n">
         <v>978.3149999999995</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>979</v>
+      </c>
+      <c r="L239" t="n">
+        <v>951</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8968,18 +11031,29 @@
         <v>116.9882</v>
       </c>
       <c r="G240" t="n">
+        <v>978.9333333333333</v>
+      </c>
+      <c r="H240" t="n">
         <v>978.1649999999995</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>980</v>
+      </c>
+      <c r="L240" t="n">
+        <v>951</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9003,18 +11077,29 @@
         <v>265.5403</v>
       </c>
       <c r="G241" t="n">
+        <v>979.2</v>
+      </c>
+      <c r="H241" t="n">
         <v>978.0149999999995</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>981</v>
+      </c>
+      <c r="L241" t="n">
+        <v>951</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9038,18 +11123,29 @@
         <v>1.01522842</v>
       </c>
       <c r="G242" t="n">
+        <v>979.6666666666666</v>
+      </c>
+      <c r="H242" t="n">
         <v>977.9316666666662</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>981</v>
+      </c>
+      <c r="L242" t="n">
+        <v>951</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9073,18 +11169,29 @@
         <v>6830.56117158</v>
       </c>
       <c r="G243" t="n">
+        <v>980</v>
+      </c>
+      <c r="H243" t="n">
         <v>977.8466666666662</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="n">
+        <v>985</v>
+      </c>
+      <c r="L243" t="n">
+        <v>951</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9108,18 +11215,27 @@
         <v>2637.20212842</v>
       </c>
       <c r="G244" t="n">
+        <v>980.4</v>
+      </c>
+      <c r="H244" t="n">
         <v>977.7616666666662</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="L244" t="n">
+        <v>951</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9143,18 +11259,27 @@
         <v>2352.4531</v>
       </c>
       <c r="G245" t="n">
+        <v>980.8</v>
+      </c>
+      <c r="H245" t="n">
         <v>977.7766666666663</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="L245" t="n">
+        <v>951</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9178,18 +11303,27 @@
         <v>3224.04377158</v>
       </c>
       <c r="G246" t="n">
+        <v>981.2</v>
+      </c>
+      <c r="H246" t="n">
         <v>977.793333333333</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="L246" t="n">
+        <v>951</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9213,18 +11347,27 @@
         <v>2965.3364</v>
       </c>
       <c r="G247" t="n">
+        <v>981.6</v>
+      </c>
+      <c r="H247" t="n">
         <v>977.8249999999996</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="L247" t="n">
+        <v>951</v>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9248,18 +11391,27 @@
         <v>2889.6823</v>
       </c>
       <c r="G248" t="n">
+        <v>982</v>
+      </c>
+      <c r="H248" t="n">
         <v>977.8749999999997</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="L248" t="n">
+        <v>951</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9283,18 +11435,27 @@
         <v>335.0567</v>
       </c>
       <c r="G249" t="n">
+        <v>982.4666666666667</v>
+      </c>
+      <c r="H249" t="n">
         <v>977.9416666666663</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="L249" t="n">
+        <v>951</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9318,18 +11479,27 @@
         <v>1268.51452842</v>
       </c>
       <c r="G250" t="n">
+        <v>982.9333333333333</v>
+      </c>
+      <c r="H250" t="n">
         <v>978.0549999999997</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="L250" t="n">
+        <v>951</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9353,18 +11523,27 @@
         <v>424.9764</v>
       </c>
       <c r="G251" t="n">
+        <v>983</v>
+      </c>
+      <c r="H251" t="n">
         <v>978.0849999999997</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="L251" t="n">
+        <v>951</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9388,18 +11567,27 @@
         <v>1104.0017</v>
       </c>
       <c r="G252" t="n">
+        <v>983.4</v>
+      </c>
+      <c r="H252" t="n">
         <v>978.1983333333332</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="L252" t="n">
+        <v>951</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9423,18 +11611,27 @@
         <v>333.3226</v>
       </c>
       <c r="G253" t="n">
+        <v>983.8</v>
+      </c>
+      <c r="H253" t="n">
         <v>978.3149999999998</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="L253" t="n">
+        <v>951</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9458,18 +11655,27 @@
         <v>420</v>
       </c>
       <c r="G254" t="n">
+        <v>984.1333333333333</v>
+      </c>
+      <c r="H254" t="n">
         <v>978.3533333333331</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="L254" t="n">
+        <v>951</v>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9493,18 +11699,27 @@
         <v>535.0512</v>
       </c>
       <c r="G255" t="n">
+        <v>984.4</v>
+      </c>
+      <c r="H255" t="n">
         <v>978.4833333333332</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="L255" t="n">
+        <v>951</v>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9528,18 +11743,27 @@
         <v>249.2946</v>
       </c>
       <c r="G256" t="n">
+        <v>984.6666666666666</v>
+      </c>
+      <c r="H256" t="n">
         <v>978.6133333333332</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="L256" t="n">
+        <v>951</v>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9563,18 +11787,27 @@
         <v>1821.3991</v>
       </c>
       <c r="G257" t="n">
+        <v>984.6666666666666</v>
+      </c>
+      <c r="H257" t="n">
         <v>978.8066666666666</v>
       </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
+      <c r="L257" t="n">
+        <v>951</v>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9598,18 +11831,27 @@
         <v>619.7356</v>
       </c>
       <c r="G258" t="n">
+        <v>984.6666666666666</v>
+      </c>
+      <c r="H258" t="n">
         <v>978.9983333333332</v>
       </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
+      <c r="L258" t="n">
+        <v>951</v>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9633,18 +11875,27 @@
         <v>1347.4478</v>
       </c>
       <c r="G259" t="n">
+        <v>984.8</v>
+      </c>
+      <c r="H259" t="n">
         <v>979.0983333333332</v>
       </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
+      <c r="L259" t="n">
+        <v>951</v>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9668,18 +11919,27 @@
         <v>1048.4636</v>
       </c>
       <c r="G260" t="n">
+        <v>985.4</v>
+      </c>
+      <c r="H260" t="n">
         <v>979.3633333333332</v>
       </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
+      <c r="L260" t="n">
+        <v>951</v>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N260" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9703,18 +11963,27 @@
         <v>2045.4934</v>
       </c>
       <c r="G261" t="n">
+        <v>985.9599999999999</v>
+      </c>
+      <c r="H261" t="n">
         <v>979.6183333333333</v>
       </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
+      <c r="L261" t="n">
+        <v>951</v>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9738,18 +12007,27 @@
         <v>1415.6456</v>
       </c>
       <c r="G262" t="n">
+        <v>986.6266666666667</v>
+      </c>
+      <c r="H262" t="n">
         <v>979.9016666666666</v>
       </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
+      <c r="L262" t="n">
+        <v>951</v>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9773,18 +12051,27 @@
         <v>231.2712</v>
       </c>
       <c r="G263" t="n">
+        <v>987.4266666666666</v>
+      </c>
+      <c r="H263" t="n">
         <v>980.2183333333334</v>
       </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
+      <c r="L263" t="n">
+        <v>951</v>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9808,18 +12095,27 @@
         <v>2840.3325</v>
       </c>
       <c r="G264" t="n">
+        <v>988.42</v>
+      </c>
+      <c r="H264" t="n">
         <v>980.5666666666667</v>
       </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
+      <c r="L264" t="n">
+        <v>951</v>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9843,18 +12139,27 @@
         <v>8605.426299999999</v>
       </c>
       <c r="G265" t="n">
+        <v>989.8199999999999</v>
+      </c>
+      <c r="H265" t="n">
         <v>981.05</v>
       </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
+      <c r="L265" t="n">
+        <v>951</v>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9878,18 +12183,431 @@
         <v>895.6213150999999</v>
       </c>
       <c r="G266" t="n">
+        <v>992.02</v>
+      </c>
+      <c r="H266" t="n">
         <v>981.7099999999999</v>
       </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
+      <c r="L266" t="n">
+        <v>951</v>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1015</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1015</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1015</v>
+      </c>
+      <c r="E267" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F267" t="n">
+        <v>744.3264</v>
+      </c>
+      <c r="G267" t="n">
+        <v>994.02</v>
+      </c>
+      <c r="H267" t="n">
+        <v>982.3933333333333</v>
+      </c>
+      <c r="I267" t="n">
+        <v>0</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>951</v>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1015</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1015</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1015</v>
+      </c>
+      <c r="E268" t="n">
+        <v>1015</v>
+      </c>
+      <c r="F268" t="n">
+        <v>419.8654</v>
+      </c>
+      <c r="G268" t="n">
+        <v>996.02</v>
+      </c>
+      <c r="H268" t="n">
+        <v>983.0766666666666</v>
+      </c>
+      <c r="I268" t="n">
+        <v>0</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>951</v>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N268" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1017</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1017</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1017</v>
+      </c>
+      <c r="E269" t="n">
+        <v>1017</v>
+      </c>
+      <c r="F269" t="n">
+        <v>2522.6371</v>
+      </c>
+      <c r="G269" t="n">
+        <v>998.1533333333333</v>
+      </c>
+      <c r="H269" t="n">
+        <v>983.7933333333333</v>
+      </c>
+      <c r="I269" t="n">
+        <v>0</v>
+      </c>
+      <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>951</v>
+      </c>
+      <c r="M269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N269" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1023</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1023</v>
+      </c>
+      <c r="E270" t="n">
+        <v>1018</v>
+      </c>
+      <c r="F270" t="n">
+        <v>4137.8715</v>
+      </c>
+      <c r="G270" t="n">
+        <v>1000.686666666667</v>
+      </c>
+      <c r="H270" t="n">
+        <v>984.6383333333332</v>
+      </c>
+      <c r="I270" t="n">
+        <v>0</v>
+      </c>
+      <c r="J270" t="n">
+        <v>1</v>
+      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>951</v>
+      </c>
+      <c r="M270" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N270" t="n">
+        <v>1.070709779179811</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1023</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1021</v>
+      </c>
+      <c r="D271" t="n">
+        <v>1024</v>
+      </c>
+      <c r="E271" t="n">
+        <v>1021</v>
+      </c>
+      <c r="F271" t="n">
+        <v>113.778</v>
+      </c>
+      <c r="G271" t="n">
+        <v>1003.086666666667</v>
+      </c>
+      <c r="H271" t="n">
+        <v>985.405</v>
+      </c>
+      <c r="I271" t="n">
+        <v>0</v>
+      </c>
+      <c r="J271" t="n">
+        <v>1</v>
+      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1020</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1020</v>
+      </c>
+      <c r="E272" t="n">
+        <v>1012</v>
+      </c>
+      <c r="F272" t="n">
+        <v>1967.7253</v>
+      </c>
+      <c r="G272" t="n">
+        <v>1005.42</v>
+      </c>
+      <c r="H272" t="n">
+        <v>986.155</v>
+      </c>
+      <c r="I272" t="n">
+        <v>0</v>
+      </c>
+      <c r="J272" t="n">
+        <v>1</v>
+      </c>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1011</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1011</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1011</v>
+      </c>
+      <c r="E273" t="n">
+        <v>1011</v>
+      </c>
+      <c r="F273" t="n">
+        <v>1905.1197</v>
+      </c>
+      <c r="G273" t="n">
+        <v>1007.153333333333</v>
+      </c>
+      <c r="H273" t="n">
+        <v>986.7549999999999</v>
+      </c>
+      <c r="I273" t="n">
+        <v>0</v>
+      </c>
+      <c r="J273" t="n">
+        <v>1</v>
+      </c>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1007</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1006</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1007</v>
+      </c>
+      <c r="E274" t="n">
+        <v>1006</v>
+      </c>
+      <c r="F274" t="n">
+        <v>3751.8848</v>
+      </c>
+      <c r="G274" t="n">
+        <v>1008.42</v>
+      </c>
+      <c r="H274" t="n">
+        <v>987.2883333333333</v>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>1</v>
+      </c>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1000</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E275" t="n">
+        <v>1000</v>
+      </c>
+      <c r="F275" t="n">
+        <v>785.9215</v>
+      </c>
+      <c r="G275" t="n">
+        <v>1008.82</v>
+      </c>
+      <c r="H275" t="n">
+        <v>987.7383333333332</v>
+      </c>
+      <c r="I275" t="n">
+        <v>0</v>
+      </c>
+      <c r="J275" t="n">
+        <v>1</v>
+      </c>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1001</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1001</v>
+      </c>
+      <c r="E276" t="n">
+        <v>1001</v>
+      </c>
+      <c r="F276" t="n">
+        <v>39.3527</v>
+      </c>
+      <c r="G276" t="n">
+        <v>1009.326666666667</v>
+      </c>
+      <c r="H276" t="n">
+        <v>988.1883333333333</v>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>1</v>
+      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-16 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-16 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-16582.7507</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>-16622.3654</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>953.8</v>
-      </c>
-      <c r="J3" t="n">
-        <v>953.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,19 +517,11 @@
         <v>-16622.3654</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>948</v>
-      </c>
-      <c r="J4" t="n">
-        <v>953.8</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,19 +550,11 @@
         <v>-16622.3654</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>948</v>
-      </c>
-      <c r="J5" t="n">
-        <v>953.8</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,14 +583,10 @@
         <v>-16166.456</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>948</v>
-      </c>
-      <c r="J6" t="n">
-        <v>948</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
@@ -640,19 +616,11 @@
         <v>-16312.0942</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>953</v>
-      </c>
-      <c r="J7" t="n">
-        <v>948</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -681,19 +649,11 @@
         <v>-16312.0942</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>952.8</v>
-      </c>
-      <c r="J8" t="n">
-        <v>948</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -755,14 +715,10 @@
         <v>-18016.3743</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>952</v>
-      </c>
-      <c r="J10" t="n">
-        <v>952</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -792,19 +748,11 @@
         <v>-18092.4482</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>957</v>
-      </c>
-      <c r="J11" t="n">
-        <v>952</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -833,19 +781,11 @@
         <v>-18092.4482</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>956</v>
-      </c>
-      <c r="J12" t="n">
-        <v>952</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -874,14 +814,10 @@
         <v>-18023.1512</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>956</v>
-      </c>
-      <c r="J13" t="n">
-        <v>956</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -911,17 +847,11 @@
         <v>-18023.1512</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>956</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -950,17 +880,11 @@
         <v>-18023.1512</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>956</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -1055,14 +979,10 @@
         <v>-18822.07229999999</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>951</v>
-      </c>
-      <c r="J18" t="n">
-        <v>951</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
@@ -1092,17 +1012,11 @@
         <v>-18847.94079999999</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>951</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1131,19 +1045,11 @@
         <v>-19237.77399999999</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>950</v>
-      </c>
-      <c r="J20" t="n">
-        <v>951</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1172,7 +1078,7 @@
         <v>-19237.77399999999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1205,7 +1111,7 @@
         <v>-19237.77399999999</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1238,7 +1144,7 @@
         <v>-19237.77399999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1271,14 +1177,10 @@
         <v>-19237.77399999999</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>949</v>
-      </c>
-      <c r="J24" t="n">
-        <v>949</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
@@ -1308,17 +1210,11 @@
         <v>-19237.77399999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>949</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1347,17 +1243,11 @@
         <v>-19237.77399999999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>949</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1386,17 +1276,11 @@
         <v>-19237.77399999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>949</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1425,19 +1309,11 @@
         <v>-19458.32169999999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>949</v>
-      </c>
-      <c r="J28" t="n">
-        <v>949</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1466,17 +1342,11 @@
         <v>-19248.01675783999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>949</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1505,17 +1375,11 @@
         <v>-19248.01675783999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>949</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1544,17 +1408,11 @@
         <v>-18726.64025783999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>949</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1583,19 +1441,11 @@
         <v>-17968.51285783999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>959</v>
-      </c>
-      <c r="J32" t="n">
-        <v>949</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1624,19 +1474,11 @@
         <v>-18474.97295783999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>960</v>
-      </c>
-      <c r="J33" t="n">
-        <v>949</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1665,17 +1507,11 @@
         <v>-18494.79105783999</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>949</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1704,17 +1540,11 @@
         <v>-18494.79105783999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>949</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1743,19 +1573,11 @@
         <v>-20464.31425783999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>956</v>
-      </c>
-      <c r="J36" t="n">
-        <v>949</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1784,19 +1606,11 @@
         <v>-27181.51415783999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>950</v>
-      </c>
-      <c r="J37" t="n">
-        <v>949</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1825,7 +1639,7 @@
         <v>-27143.09575783999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>949</v>
@@ -1833,11 +1647,7 @@
       <c r="J38" t="n">
         <v>949</v>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1866,7 +1676,7 @@
         <v>-28409.75535783999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>950</v>
@@ -1876,7 +1686,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L39" t="n">
@@ -1907,7 +1717,7 @@
         <v>-28415.68535783999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>949</v>
@@ -1948,7 +1758,7 @@
         <v>-28362.17935783999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>948</v>
@@ -1989,9 +1799,11 @@
         <v>-28362.17935783999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>958</v>
+      </c>
       <c r="J42" t="n">
         <v>949</v>
       </c>
@@ -2223,11 +2035,9 @@
         <v>-30780.01026482999</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
         <v>949</v>
       </c>
@@ -2264,11 +2074,9 @@
         <v>-9326.203960179995</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>959</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
         <v>949</v>
       </c>
@@ -2617,11 +2425,9 @@
         <v>-11073.14186018</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>961.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>949</v>
       </c>
@@ -2931,11 +2737,9 @@
         <v>-17175.94746018</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>947</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>949</v>
       </c>
@@ -3401,9 +3205,11 @@
         <v>-39112.50858649999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>955</v>
+      </c>
       <c r="J78" t="n">
         <v>949</v>
       </c>
@@ -3752,11 +3558,9 @@
         <v>-36361.60758649999</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
-      </c>
-      <c r="I87" t="n">
-        <v>956</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>949</v>
       </c>
@@ -4456,7 +4260,7 @@
         <v>-26311.71596336998</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
@@ -5197,9 +5001,11 @@
         <v>-34900.61502830999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>981</v>
+      </c>
       <c r="J124" t="n">
         <v>949</v>
       </c>
@@ -5236,19 +5042,21 @@
         <v>-35195.55702831</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>987.8</v>
+      </c>
       <c r="J125" t="n">
         <v>949</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>1.02977344573235</v>
+        <v>1</v>
       </c>
       <c r="M125" t="inlineStr"/>
     </row>
@@ -5275,11 +5083,19 @@
         <v>-32833.10712831</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>982</v>
+      </c>
+      <c r="J126" t="n">
+        <v>949</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5308,11 +5124,19 @@
         <v>-33866.24132831</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>987.8</v>
+      </c>
+      <c r="J127" t="n">
+        <v>949</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5341,11 +5165,19 @@
         <v>-33034.04402831</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>981</v>
+      </c>
+      <c r="J128" t="n">
+        <v>949</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5374,11 +5206,19 @@
         <v>-33283.10312830999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>982.7</v>
+      </c>
+      <c r="J129" t="n">
+        <v>949</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5407,11 +5247,19 @@
         <v>-33283.10312830999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>981.9</v>
+      </c>
+      <c r="J130" t="n">
+        <v>949</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5440,11 +5288,19 @@
         <v>-33283.10312830999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>981.9</v>
+      </c>
+      <c r="J131" t="n">
+        <v>949</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5475,9 +5331,17 @@
       <c r="H132" t="n">
         <v>1</v>
       </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>981.9</v>
+      </c>
+      <c r="J132" t="n">
+        <v>949</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5506,11 +5370,19 @@
         <v>-33335.02362830999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>981</v>
+      </c>
+      <c r="J133" t="n">
+        <v>949</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5539,11 +5411,19 @@
         <v>-31776.83542830999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>977</v>
+      </c>
+      <c r="J134" t="n">
+        <v>949</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5572,11 +5452,19 @@
         <v>-32609.77792831</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>981</v>
+      </c>
+      <c r="J135" t="n">
+        <v>949</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5605,11 +5493,19 @@
         <v>-32601.39992830999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>974</v>
+      </c>
+      <c r="J136" t="n">
+        <v>949</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5638,15 +5534,19 @@
         <v>-32486.36542830999</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>974.3</v>
       </c>
       <c r="J137" t="n">
-        <v>974.3</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
+        <v>949</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5677,13 +5577,15 @@
       <c r="H138" t="n">
         <v>1</v>
       </c>
-      <c r="I138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>982</v>
+      </c>
       <c r="J138" t="n">
-        <v>974.3</v>
+        <v>949</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L138" t="n">
@@ -5714,15 +5616,17 @@
         <v>-32035.09772830999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>980</v>
+      </c>
       <c r="J139" t="n">
-        <v>974.3</v>
+        <v>949</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L139" t="n">
@@ -5755,9 +5659,17 @@
       <c r="H140" t="n">
         <v>1</v>
       </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>984</v>
+      </c>
+      <c r="J140" t="n">
+        <v>949</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5789,8 +5701,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>949</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5822,8 +5740,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>949</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5855,8 +5779,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>949</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5888,8 +5818,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>949</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5921,8 +5857,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>949</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5954,8 +5896,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>949</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5984,11 +5932,19 @@
         <v>-31360.60662830999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>986</v>
+      </c>
+      <c r="J147" t="n">
+        <v>949</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6017,11 +5973,19 @@
         <v>-31900.53552830999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>984</v>
+      </c>
+      <c r="J148" t="n">
+        <v>949</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6050,11 +6014,19 @@
         <v>-31940.48552830999</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>983</v>
+      </c>
+      <c r="J149" t="n">
+        <v>949</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6083,11 +6055,19 @@
         <v>-31940.48552830999</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>982.1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>949</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6116,11 +6096,19 @@
         <v>-31945.25742830999</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>982.1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>949</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6149,11 +6137,19 @@
         <v>-33263.93152830999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>982</v>
+      </c>
+      <c r="J152" t="n">
+        <v>949</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6182,11 +6178,19 @@
         <v>-33263.93152830999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>978.2</v>
+      </c>
+      <c r="J153" t="n">
+        <v>949</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6215,11 +6219,19 @@
         <v>-32565.79782830999</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>978.2</v>
+      </c>
+      <c r="J154" t="n">
+        <v>949</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6248,11 +6260,19 @@
         <v>-32565.79782830999</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>978.3</v>
+      </c>
+      <c r="J155" t="n">
+        <v>949</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6283,9 +6303,17 @@
       <c r="H156" t="n">
         <v>1</v>
       </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>978.3</v>
+      </c>
+      <c r="J156" t="n">
+        <v>949</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6314,11 +6342,19 @@
         <v>-37352.47042830999</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>978.2</v>
+      </c>
+      <c r="J157" t="n">
+        <v>949</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6347,11 +6383,19 @@
         <v>-37352.47042830999</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I158" t="n">
+        <v>978.1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>949</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6380,11 +6424,19 @@
         <v>-39181.72872830999</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>978.1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>949</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6413,11 +6465,19 @@
         <v>-38229.01102830999</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>978</v>
+      </c>
+      <c r="J160" t="n">
+        <v>949</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6446,11 +6506,19 @@
         <v>-38465.28562830998</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>978.5</v>
+      </c>
+      <c r="J161" t="n">
+        <v>949</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6481,9 +6549,17 @@
       <c r="H162" t="n">
         <v>1</v>
       </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>972</v>
+      </c>
+      <c r="J162" t="n">
+        <v>949</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6512,11 +6588,19 @@
         <v>-39170.14092830999</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>971.1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>949</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6547,9 +6631,17 @@
       <c r="H164" t="n">
         <v>1</v>
       </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>971</v>
+      </c>
+      <c r="J164" t="n">
+        <v>949</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6580,9 +6672,17 @@
       <c r="H165" t="n">
         <v>1</v>
       </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>974</v>
+      </c>
+      <c r="J165" t="n">
+        <v>949</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6613,9 +6713,17 @@
       <c r="H166" t="n">
         <v>1</v>
       </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>977.7</v>
+      </c>
+      <c r="J166" t="n">
+        <v>949</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6646,9 +6754,17 @@
       <c r="H167" t="n">
         <v>1</v>
       </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>974</v>
+      </c>
+      <c r="J167" t="n">
+        <v>949</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6679,9 +6795,17 @@
       <c r="H168" t="n">
         <v>1</v>
       </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>974</v>
+      </c>
+      <c r="J168" t="n">
+        <v>949</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6712,9 +6836,17 @@
       <c r="H169" t="n">
         <v>1</v>
       </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>974</v>
+      </c>
+      <c r="J169" t="n">
+        <v>949</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6745,9 +6877,17 @@
       <c r="H170" t="n">
         <v>1</v>
       </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>971</v>
+      </c>
+      <c r="J170" t="n">
+        <v>949</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6778,9 +6918,17 @@
       <c r="H171" t="n">
         <v>1</v>
       </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>971</v>
+      </c>
+      <c r="J171" t="n">
+        <v>949</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6811,9 +6959,17 @@
       <c r="H172" t="n">
         <v>1</v>
       </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>969</v>
+      </c>
+      <c r="J172" t="n">
+        <v>949</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6844,9 +7000,17 @@
       <c r="H173" t="n">
         <v>1</v>
       </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>967</v>
+      </c>
+      <c r="J173" t="n">
+        <v>949</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6877,9 +7041,17 @@
       <c r="H174" t="n">
         <v>1</v>
       </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>964</v>
+      </c>
+      <c r="J174" t="n">
+        <v>949</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6910,9 +7082,17 @@
       <c r="H175" t="n">
         <v>1</v>
       </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>964</v>
+      </c>
+      <c r="J175" t="n">
+        <v>949</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6943,9 +7123,17 @@
       <c r="H176" t="n">
         <v>1</v>
       </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>964</v>
+      </c>
+      <c r="J176" t="n">
+        <v>949</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6976,9 +7164,17 @@
       <c r="H177" t="n">
         <v>1</v>
       </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>964</v>
+      </c>
+      <c r="J177" t="n">
+        <v>949</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7009,9 +7205,17 @@
       <c r="H178" t="n">
         <v>1</v>
       </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>969</v>
+      </c>
+      <c r="J178" t="n">
+        <v>949</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7042,9 +7246,17 @@
       <c r="H179" t="n">
         <v>1</v>
       </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>949</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7075,9 +7287,17 @@
       <c r="H180" t="n">
         <v>1</v>
       </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>949</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7108,9 +7328,17 @@
       <c r="H181" t="n">
         <v>1</v>
       </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>949</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7141,9 +7369,17 @@
       <c r="H182" t="n">
         <v>1</v>
       </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>949</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7174,9 +7410,17 @@
       <c r="H183" t="n">
         <v>1</v>
       </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>970.2</v>
+      </c>
+      <c r="J183" t="n">
+        <v>949</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7207,9 +7451,17 @@
       <c r="H184" t="n">
         <v>1</v>
       </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>971.1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>949</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7240,9 +7492,17 @@
       <c r="H185" t="n">
         <v>1</v>
       </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>970.2</v>
+      </c>
+      <c r="J185" t="n">
+        <v>949</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7273,9 +7533,17 @@
       <c r="H186" t="n">
         <v>1</v>
       </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>970.2</v>
+      </c>
+      <c r="J186" t="n">
+        <v>949</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7306,9 +7574,17 @@
       <c r="H187" t="n">
         <v>1</v>
       </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>970.4</v>
+      </c>
+      <c r="J187" t="n">
+        <v>949</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7339,9 +7615,17 @@
       <c r="H188" t="n">
         <v>1</v>
       </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>970.3</v>
+      </c>
+      <c r="J188" t="n">
+        <v>949</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7372,9 +7656,17 @@
       <c r="H189" t="n">
         <v>1</v>
       </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>970.2</v>
+      </c>
+      <c r="J189" t="n">
+        <v>949</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7405,9 +7697,17 @@
       <c r="H190" t="n">
         <v>1</v>
       </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>970.2</v>
+      </c>
+      <c r="J190" t="n">
+        <v>949</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7438,9 +7738,17 @@
       <c r="H191" t="n">
         <v>1</v>
       </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>976</v>
+      </c>
+      <c r="J191" t="n">
+        <v>949</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7469,11 +7777,19 @@
         <v>-38075.96382831</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>975</v>
+      </c>
+      <c r="J192" t="n">
+        <v>949</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7502,11 +7818,19 @@
         <v>-38075.96382831</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>973</v>
+      </c>
+      <c r="J193" t="n">
+        <v>949</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7537,9 +7861,17 @@
       <c r="H194" t="n">
         <v>1</v>
       </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>973</v>
+      </c>
+      <c r="J194" t="n">
+        <v>949</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7570,9 +7902,17 @@
       <c r="H195" t="n">
         <v>1</v>
       </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>973</v>
+      </c>
+      <c r="J195" t="n">
+        <v>949</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7603,9 +7943,17 @@
       <c r="H196" t="n">
         <v>1</v>
       </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>975</v>
+      </c>
+      <c r="J196" t="n">
+        <v>949</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7634,11 +7982,19 @@
         <v>-38126.61632831</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>972</v>
+      </c>
+      <c r="J197" t="n">
+        <v>949</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7667,11 +8023,19 @@
         <v>-38760.25992831001</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>971.2</v>
+      </c>
+      <c r="J198" t="n">
+        <v>949</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7700,11 +8064,19 @@
         <v>-38637.02122831</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>970.5</v>
+      </c>
+      <c r="J199" t="n">
+        <v>949</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7733,11 +8105,19 @@
         <v>-37923.80742831001</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>978</v>
+      </c>
+      <c r="J200" t="n">
+        <v>949</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7766,11 +8146,19 @@
         <v>-37293.80742831001</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>984</v>
+      </c>
+      <c r="J201" t="n">
+        <v>949</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7799,11 +8187,19 @@
         <v>-37293.80742831001</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>985</v>
+      </c>
+      <c r="J202" t="n">
+        <v>949</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7834,9 +8230,17 @@
       <c r="H203" t="n">
         <v>1</v>
       </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>985</v>
+      </c>
+      <c r="J203" t="n">
+        <v>949</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7865,11 +8269,19 @@
         <v>-37293.80742831001</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>985</v>
+      </c>
+      <c r="J204" t="n">
+        <v>949</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7898,11 +8310,19 @@
         <v>-37343.80742831001</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>985</v>
+      </c>
+      <c r="J205" t="n">
+        <v>949</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7931,11 +8351,19 @@
         <v>-37334.77490799001</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>982.1</v>
+      </c>
+      <c r="J206" t="n">
+        <v>949</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7964,11 +8392,19 @@
         <v>-37342.60160799001</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>984</v>
+      </c>
+      <c r="J207" t="n">
+        <v>949</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7997,11 +8433,19 @@
         <v>-37377.80160799</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>982</v>
+      </c>
+      <c r="J208" t="n">
+        <v>949</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8030,11 +8474,19 @@
         <v>-37377.80160799</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>979</v>
+      </c>
+      <c r="J209" t="n">
+        <v>949</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8063,11 +8515,19 @@
         <v>-37347.80160799</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>979</v>
+      </c>
+      <c r="J210" t="n">
+        <v>949</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8096,11 +8556,19 @@
         <v>-37349.49160799001</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>983</v>
+      </c>
+      <c r="J211" t="n">
+        <v>949</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8129,11 +8597,19 @@
         <v>-37308.59160799001</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>979</v>
+      </c>
+      <c r="J212" t="n">
+        <v>949</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8162,11 +8638,19 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>982</v>
+      </c>
+      <c r="J213" t="n">
+        <v>949</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8195,11 +8679,19 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>983</v>
+      </c>
+      <c r="J214" t="n">
+        <v>949</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8228,11 +8720,19 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>983</v>
+      </c>
+      <c r="J215" t="n">
+        <v>949</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8261,11 +8761,19 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>983</v>
+      </c>
+      <c r="J216" t="n">
+        <v>949</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8294,11 +8802,19 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>983</v>
+      </c>
+      <c r="J217" t="n">
+        <v>949</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8327,11 +8843,19 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>983</v>
+      </c>
+      <c r="J218" t="n">
+        <v>949</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8360,11 +8884,19 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>983</v>
+      </c>
+      <c r="J219" t="n">
+        <v>949</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8393,11 +8925,19 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>983</v>
+      </c>
+      <c r="J220" t="n">
+        <v>949</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8426,11 +8966,19 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>983</v>
+      </c>
+      <c r="J221" t="n">
+        <v>949</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8459,11 +9007,19 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>983</v>
+      </c>
+      <c r="J222" t="n">
+        <v>949</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8492,11 +9048,19 @@
         <v>-37147.43370799001</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>983</v>
+      </c>
+      <c r="J223" t="n">
+        <v>949</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8525,15 +9089,19 @@
         <v>-36987.25780799</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>980</v>
       </c>
       <c r="J224" t="n">
-        <v>980</v>
-      </c>
-      <c r="K224" t="inlineStr"/>
+        <v>949</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8562,17 +9130,17 @@
         <v>-36987.25780799</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>983</v>
       </c>
       <c r="J225" t="n">
-        <v>980</v>
+        <v>949</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L225" t="n">
@@ -8603,17 +9171,17 @@
         <v>-36987.25780799</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>983</v>
       </c>
       <c r="J226" t="n">
-        <v>980</v>
+        <v>949</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L226" t="n">
@@ -8644,15 +9212,19 @@
         <v>-36987.25780799</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>983</v>
       </c>
       <c r="J227" t="n">
-        <v>983</v>
-      </c>
-      <c r="K227" t="inlineStr"/>
+        <v>949</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8681,17 +9253,17 @@
         <v>-38009.60720799</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>983</v>
       </c>
       <c r="J228" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L228" t="n">
@@ -8722,13 +9294,13 @@
         <v>-37847.47820799</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>977.2</v>
       </c>
       <c r="J229" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8763,13 +9335,13 @@
         <v>-37847.47820799</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>978</v>
       </c>
       <c r="J230" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8804,11 +9376,13 @@
         <v>-37340.46100799</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>978</v>
+      </c>
       <c r="J231" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8843,13 +9417,13 @@
         <v>-37296.69480799</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>983.7</v>
       </c>
       <c r="J232" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8884,11 +9458,13 @@
         <v>-37096.69480799</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>984</v>
+      </c>
       <c r="J233" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8923,11 +9499,13 @@
         <v>-36884.09780799</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>986.9</v>
+      </c>
       <c r="J234" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8962,11 +9540,13 @@
         <v>-36846.24130799</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>987.9</v>
+      </c>
       <c r="J235" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9001,11 +9581,13 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>989</v>
+      </c>
       <c r="J236" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9040,11 +9622,13 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>990</v>
+      </c>
       <c r="J237" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9079,11 +9663,13 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>990</v>
+      </c>
       <c r="J238" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9118,11 +9704,13 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>990</v>
+      </c>
       <c r="J239" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9157,11 +9745,13 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>990</v>
+      </c>
       <c r="J240" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9196,11 +9786,13 @@
         <v>-36550.53340799</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>990</v>
+      </c>
       <c r="J241" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9235,11 +9827,13 @@
         <v>-36550.53340799</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>990.1</v>
+      </c>
       <c r="J242" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9274,11 +9868,13 @@
         <v>-36706.53220799</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>990.1</v>
+      </c>
       <c r="J243" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9313,11 +9909,13 @@
         <v>-36896.13870799</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>984.1</v>
+      </c>
       <c r="J244" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9352,11 +9950,13 @@
         <v>-37082.14280799</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>984</v>
+      </c>
       <c r="J245" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9391,11 +9991,13 @@
         <v>-37104.89300799</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>983.1</v>
+      </c>
       <c r="J246" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -9430,11 +10032,13 @@
         <v>-37303.02580799</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>982</v>
+      </c>
       <c r="J247" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9469,11 +10073,13 @@
         <v>-38347.87000799</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>981</v>
+      </c>
       <c r="J248" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9508,11 +10114,13 @@
         <v>-38347.87000799</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>978.2</v>
+      </c>
       <c r="J249" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9547,11 +10155,13 @@
         <v>-38347.87000799</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>978.2</v>
+      </c>
       <c r="J250" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9586,11 +10196,13 @@
         <v>-38403.67120799</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>978.2</v>
+      </c>
       <c r="J251" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9625,11 +10237,13 @@
         <v>-37511.21900799</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>978</v>
+      </c>
       <c r="J252" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9664,11 +10278,13 @@
         <v>-38130.32700799</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>982.7</v>
+      </c>
       <c r="J253" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9703,11 +10319,13 @@
         <v>-38130.32700799</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>977.2</v>
+      </c>
       <c r="J254" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9742,11 +10360,13 @@
         <v>-39415.55700799001</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>977.2</v>
+      </c>
       <c r="J255" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9781,11 +10401,13 @@
         <v>-38030.65960799</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>973.4</v>
+      </c>
       <c r="J256" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9820,11 +10442,13 @@
         <v>-37649.24270799001</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>973.5</v>
+      </c>
       <c r="J257" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9859,11 +10483,13 @@
         <v>-37787.92430799001</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>981</v>
+      </c>
       <c r="J258" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9898,11 +10524,13 @@
         <v>-37787.92430799001</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>978.1</v>
+      </c>
       <c r="J259" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9937,11 +10565,13 @@
         <v>-37789.14270799001</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>978.1</v>
+      </c>
       <c r="J260" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9976,11 +10606,13 @@
         <v>-37789.14270799001</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>978</v>
+      </c>
       <c r="J261" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10015,11 +10647,13 @@
         <v>-37583.81320799001</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>978</v>
+      </c>
       <c r="J262" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10054,11 +10688,13 @@
         <v>-41374.46410799001</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>979</v>
+      </c>
       <c r="J263" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10093,11 +10729,13 @@
         <v>-41733.46410799001</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>977</v>
+      </c>
       <c r="J264" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10132,11 +10770,13 @@
         <v>-39766.45210799001</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>973.4</v>
+      </c>
       <c r="J265" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10171,11 +10811,13 @@
         <v>-39766.45210799001</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>974</v>
+      </c>
       <c r="J266" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10210,11 +10852,13 @@
         <v>-39766.45210799001</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>974</v>
+      </c>
       <c r="J267" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10249,11 +10893,13 @@
         <v>-41448.88830799001</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>974</v>
+      </c>
       <c r="J268" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10288,11 +10934,13 @@
         <v>-38248.03260799001</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>972.3</v>
+      </c>
       <c r="J269" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10327,11 +10975,13 @@
         <v>-38248.03260799001</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>975</v>
+      </c>
       <c r="J270" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -10366,11 +11016,13 @@
         <v>-38248.03260799001</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>975</v>
+      </c>
       <c r="J271" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -10405,11 +11057,13 @@
         <v>-40010.57860799001</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>975</v>
+      </c>
       <c r="J272" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10444,11 +11098,13 @@
         <v>-41766.97190799002</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>974</v>
+      </c>
       <c r="J273" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10483,11 +11139,13 @@
         <v>-40313.41510799002</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>973</v>
+      </c>
       <c r="J274" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10522,11 +11180,13 @@
         <v>-42916.88130799002</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>974</v>
+      </c>
       <c r="J275" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10561,11 +11221,13 @@
         <v>-42916.88130799002</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>973</v>
+      </c>
       <c r="J276" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10600,11 +11262,13 @@
         <v>-41449.39790799002</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>973</v>
+      </c>
       <c r="J277" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10639,11 +11303,13 @@
         <v>-41449.39790799002</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>974</v>
+      </c>
       <c r="J278" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10678,11 +11344,13 @@
         <v>-41449.39790799002</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>974</v>
+      </c>
       <c r="J279" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10717,11 +11385,13 @@
         <v>-41449.39790799002</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>974</v>
+      </c>
       <c r="J280" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10756,11 +11426,13 @@
         <v>-37637.83450799002</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>974</v>
+      </c>
       <c r="J281" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10795,11 +11467,13 @@
         <v>-37342.83450799002</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>976</v>
+      </c>
       <c r="J282" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10834,11 +11508,13 @@
         <v>-37342.83450799002</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>977</v>
+      </c>
       <c r="J283" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10873,11 +11549,13 @@
         <v>-37342.83450799002</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I284" t="n">
+        <v>977</v>
+      </c>
       <c r="J284" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10912,11 +11590,13 @@
         <v>-36967.83450799002</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>977</v>
+      </c>
       <c r="J285" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10951,11 +11631,13 @@
         <v>-32961.54240799003</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>978</v>
+      </c>
       <c r="J286" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10990,11 +11672,13 @@
         <v>-33016.57420799002</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>980</v>
+      </c>
       <c r="J287" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11029,11 +11713,13 @@
         <v>-33016.57420799002</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>979</v>
+      </c>
       <c r="J288" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11068,11 +11754,13 @@
         <v>-33016.57420799002</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>979</v>
+      </c>
       <c r="J289" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11107,11 +11795,13 @@
         <v>-33016.57420799002</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>979</v>
+      </c>
       <c r="J290" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11146,11 +11836,13 @@
         <v>-33016.57420799002</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>979</v>
+      </c>
       <c r="J291" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11185,11 +11877,13 @@
         <v>-33438.38100799002</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>979</v>
+      </c>
       <c r="J292" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11224,11 +11918,13 @@
         <v>-33438.38100799002</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>978</v>
+      </c>
       <c r="J293" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11263,11 +11959,13 @@
         <v>-33280.41890799002</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>978</v>
+      </c>
       <c r="J294" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -11302,11 +12000,13 @@
         <v>-33280.41890799002</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>979</v>
+      </c>
       <c r="J295" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -11345,7 +12045,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -11380,11 +12080,13 @@
         <v>-33180.56900799002</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>979</v>
+      </c>
       <c r="J297" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -11419,11 +12121,13 @@
         <v>-33063.58080799002</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>980</v>
+      </c>
       <c r="J298" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -11458,11 +12162,13 @@
         <v>-33063.58080799002</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>981</v>
+      </c>
       <c r="J299" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -11497,11 +12203,13 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>981</v>
+      </c>
       <c r="J300" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11536,11 +12244,13 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>985</v>
+      </c>
       <c r="J301" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11575,11 +12285,13 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>985</v>
+      </c>
       <c r="J302" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11614,11 +12326,13 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>985</v>
+      </c>
       <c r="J303" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11653,11 +12367,13 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>985</v>
+      </c>
       <c r="J304" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11692,11 +12408,13 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>985</v>
+      </c>
       <c r="J305" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11731,11 +12449,13 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>985</v>
+      </c>
       <c r="J306" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11770,11 +12490,13 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>985</v>
+      </c>
       <c r="J307" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11809,11 +12531,13 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>985</v>
+      </c>
       <c r="J308" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11848,11 +12572,13 @@
         <v>-33487.54197957002</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>985</v>
+      </c>
       <c r="J309" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11887,11 +12613,13 @@
         <v>-32383.54027957002</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>980</v>
+      </c>
       <c r="J310" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11926,11 +12654,13 @@
         <v>-32383.54027957002</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>985</v>
+      </c>
       <c r="J311" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11965,11 +12695,13 @@
         <v>-32383.54027957002</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>985</v>
+      </c>
       <c r="J312" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12008,7 +12740,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12047,7 +12779,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12082,11 +12814,13 @@
         <v>-32383.54027957002</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>985</v>
+      </c>
       <c r="J315" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12121,11 +12855,13 @@
         <v>-32383.54027957002</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>985</v>
+      </c>
       <c r="J316" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12160,11 +12896,13 @@
         <v>-31036.09247957002</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>985</v>
+      </c>
       <c r="J317" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12199,11 +12937,13 @@
         <v>-29987.62887957002</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>987</v>
+      </c>
       <c r="J318" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -12238,11 +12978,13 @@
         <v>-32033.12227957002</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>994</v>
+      </c>
       <c r="J319" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -12277,11 +13019,13 @@
         <v>-30617.47667957002</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>993.4</v>
+      </c>
       <c r="J320" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -12316,11 +13060,13 @@
         <v>-30386.20547957002</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>995</v>
+      </c>
       <c r="J321" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -12355,11 +13101,13 @@
         <v>-27545.87297957002</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
-      </c>
-      <c r="I322" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I322" t="n">
+        <v>997</v>
+      </c>
       <c r="J322" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -12398,7 +13146,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -12433,19 +13181,19 @@
         <v>-18044.82536447002</v>
       </c>
       <c r="H324" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L324" t="n">
-        <v>1.025518819938962</v>
+        <v>1</v>
       </c>
       <c r="M324" t="inlineStr"/>
     </row>
@@ -12472,11 +13220,17 @@
         <v>-17300.49896447002</v>
       </c>
       <c r="H325" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>949</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12505,11 +13259,17 @@
         <v>-17300.49896447002</v>
       </c>
       <c r="H326" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>949</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12538,11 +13298,17 @@
         <v>-14777.86186447002</v>
       </c>
       <c r="H327" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>949</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12571,11 +13337,17 @@
         <v>-10639.99036447002</v>
       </c>
       <c r="H328" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>949</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12604,15 +13376,23 @@
         <v>-10753.76836447002</v>
       </c>
       <c r="H329" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>949</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L329" t="n">
-        <v>1</v>
-      </c>
-      <c r="M329" t="inlineStr"/>
+        <v>1.070869336143309</v>
+      </c>
+      <c r="M329" t="n">
+        <v>1.014799154334038</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12637,7 +13417,7 @@
         <v>-12721.49366447002</v>
       </c>
       <c r="H330" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12670,7 +13450,7 @@
         <v>-14626.61336447002</v>
       </c>
       <c r="H331" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12703,7 +13483,7 @@
         <v>-18378.49816447002</v>
       </c>
       <c r="H332" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12736,7 +13516,7 @@
         <v>-19164.41966447002</v>
       </c>
       <c r="H333" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12769,7 +13549,7 @@
         <v>-19125.06696447002</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12780,6 +13560,6 @@
       <c r="M334" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-16 BackTest WAVES.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1639,14 +1639,10 @@
         <v>-27143.09575783999</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>949</v>
-      </c>
-      <c r="J38" t="n">
-        <v>949</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
@@ -1676,19 +1672,11 @@
         <v>-28409.75535783999</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>950</v>
-      </c>
-      <c r="J39" t="n">
-        <v>949</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1717,19 +1705,11 @@
         <v>-28415.68535783999</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>949</v>
-      </c>
-      <c r="J40" t="n">
-        <v>949</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1758,19 +1738,11 @@
         <v>-28362.17935783999</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>948</v>
-      </c>
-      <c r="J41" t="n">
-        <v>949</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1799,19 +1771,11 @@
         <v>-28362.17935783999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>958</v>
-      </c>
-      <c r="J42" t="n">
-        <v>949</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1843,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>949</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1882,14 +1840,8 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>949</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1921,14 +1873,8 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>949</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1960,14 +1906,8 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>949</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1999,14 +1939,8 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>949</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2038,14 +1972,8 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>949</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2077,14 +2005,8 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>949</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2116,14 +2038,8 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>949</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2155,14 +2071,8 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>949</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2194,14 +2104,8 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>949</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2233,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>949</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2272,14 +2170,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>949</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2311,14 +2203,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>949</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2350,14 +2236,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>949</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2389,14 +2269,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>949</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2428,14 +2302,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>949</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2467,14 +2335,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>949</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2506,14 +2368,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>949</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2545,14 +2401,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>949</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2584,14 +2434,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>949</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2623,14 +2467,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>949</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2662,14 +2500,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>949</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2701,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>949</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2740,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>949</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2779,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>949</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2818,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>949</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2857,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>949</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2896,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>949</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2935,14 +2731,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>949</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2974,14 +2764,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>949</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3013,14 +2797,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>949</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3052,14 +2830,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>949</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3091,14 +2863,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>949</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3130,14 +2896,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>949</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3169,14 +2929,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>949</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3205,19 +2959,11 @@
         <v>-39112.50858649999</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>955</v>
-      </c>
-      <c r="J78" t="n">
-        <v>949</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3249,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>949</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3288,14 +3028,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>949</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3327,14 +3061,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>949</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3366,14 +3094,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>949</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3405,14 +3127,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>949</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3444,14 +3160,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>949</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3483,14 +3193,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>949</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3522,14 +3226,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>949</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3561,14 +3259,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>949</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3600,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>949</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3639,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>949</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3678,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>949</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3717,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>949</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3756,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>949</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3795,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>949</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3834,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>949</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3873,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>949</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3912,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>949</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3951,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>949</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3990,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>949</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4029,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>949</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4068,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>949</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4107,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>949</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4146,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>949</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4185,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>949</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4224,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>949</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4263,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>949</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4302,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>949</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4341,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>949</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4380,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>949</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4419,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>949</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4458,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>949</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4497,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>949</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4533,17 +4081,11 @@
         <v>-30717.85426336998</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>949</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4572,17 +4114,11 @@
         <v>-30714.17536336998</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>949</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4611,17 +4147,11 @@
         <v>-30716.42662982998</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>949</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4650,17 +4180,11 @@
         <v>-30716.42662982998</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>949</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4689,17 +4213,11 @@
         <v>-34040.65602982999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>949</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4728,17 +4246,11 @@
         <v>-33586.65162982999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>949</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4767,17 +4279,11 @@
         <v>-33586.65162982999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>949</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4806,17 +4312,11 @@
         <v>-33531.65162982999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>949</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4845,17 +4345,11 @@
         <v>-33539.51512830999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>949</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4884,17 +4378,11 @@
         <v>-35982.25442830999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>949</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4923,17 +4411,11 @@
         <v>-35435.41502831</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>949</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4962,17 +4444,11 @@
         <v>-35462.61502830999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>949</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5001,19 +4477,11 @@
         <v>-34900.61502830999</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>981</v>
-      </c>
-      <c r="J124" t="n">
-        <v>949</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5042,19 +4510,11 @@
         <v>-35195.55702831</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>987.8</v>
-      </c>
-      <c r="J125" t="n">
-        <v>949</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5083,19 +4543,11 @@
         <v>-32833.10712831</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>982</v>
-      </c>
-      <c r="J126" t="n">
-        <v>949</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5124,19 +4576,11 @@
         <v>-33866.24132831</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>987.8</v>
-      </c>
-      <c r="J127" t="n">
-        <v>949</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5165,19 +4609,11 @@
         <v>-33034.04402831</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>981</v>
-      </c>
-      <c r="J128" t="n">
-        <v>949</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5206,19 +4642,11 @@
         <v>-33283.10312830999</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>982.7</v>
-      </c>
-      <c r="J129" t="n">
-        <v>949</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5247,19 +4675,11 @@
         <v>-33283.10312830999</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>981.9</v>
-      </c>
-      <c r="J130" t="n">
-        <v>949</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5288,19 +4708,11 @@
         <v>-33283.10312830999</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>981.9</v>
-      </c>
-      <c r="J131" t="n">
-        <v>949</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5329,19 +4741,11 @@
         <v>-33301.26392830999</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>981.9</v>
-      </c>
-      <c r="J132" t="n">
-        <v>949</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5370,19 +4774,11 @@
         <v>-33335.02362830999</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>981</v>
-      </c>
-      <c r="J133" t="n">
-        <v>949</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5411,19 +4807,11 @@
         <v>-31776.83542830999</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>977</v>
-      </c>
-      <c r="J134" t="n">
-        <v>949</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5452,19 +4840,11 @@
         <v>-32609.77792831</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>981</v>
-      </c>
-      <c r="J135" t="n">
-        <v>949</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5493,19 +4873,11 @@
         <v>-32601.39992830999</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>974</v>
-      </c>
-      <c r="J136" t="n">
-        <v>949</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5534,19 +4906,11 @@
         <v>-32486.36542830999</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>974.3</v>
-      </c>
-      <c r="J137" t="n">
-        <v>949</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5575,19 +4939,11 @@
         <v>-32529.87792830999</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>982</v>
-      </c>
-      <c r="J138" t="n">
-        <v>949</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5616,19 +4972,11 @@
         <v>-32035.09772830999</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>980</v>
-      </c>
-      <c r="J139" t="n">
-        <v>949</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5657,19 +5005,11 @@
         <v>-31996.99772830999</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>984</v>
-      </c>
-      <c r="J140" t="n">
-        <v>949</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5698,17 +5038,11 @@
         <v>-31996.99772830999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>949</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5737,17 +5071,11 @@
         <v>-31946.56862830999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>949</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5776,17 +5104,11 @@
         <v>-31982.27862830999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>949</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5815,17 +5137,11 @@
         <v>-30923.69462830999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>949</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5854,17 +5170,11 @@
         <v>-31123.42552830999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>949</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5893,17 +5203,11 @@
         <v>-31304.11462830999</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>949</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5932,19 +5236,11 @@
         <v>-31360.60662830999</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>986</v>
-      </c>
-      <c r="J147" t="n">
-        <v>949</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5973,19 +5269,11 @@
         <v>-31900.53552830999</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>984</v>
-      </c>
-      <c r="J148" t="n">
-        <v>949</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6014,19 +5302,11 @@
         <v>-31940.48552830999</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>983</v>
-      </c>
-      <c r="J149" t="n">
-        <v>949</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6055,19 +5335,11 @@
         <v>-31940.48552830999</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>982.1</v>
-      </c>
-      <c r="J150" t="n">
-        <v>949</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6096,19 +5368,11 @@
         <v>-31945.25742830999</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>982.1</v>
-      </c>
-      <c r="J151" t="n">
-        <v>949</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6137,19 +5401,11 @@
         <v>-33263.93152830999</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>982</v>
-      </c>
-      <c r="J152" t="n">
-        <v>949</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6178,19 +5434,11 @@
         <v>-33263.93152830999</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>978.2</v>
-      </c>
-      <c r="J153" t="n">
-        <v>949</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6219,19 +5467,11 @@
         <v>-32565.79782830999</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>978.2</v>
-      </c>
-      <c r="J154" t="n">
-        <v>949</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6260,19 +5500,11 @@
         <v>-32565.79782830999</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>978.3</v>
-      </c>
-      <c r="J155" t="n">
-        <v>949</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6301,19 +5533,11 @@
         <v>-35315.28062830999</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>978.3</v>
-      </c>
-      <c r="J156" t="n">
-        <v>949</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6342,19 +5566,11 @@
         <v>-37352.47042830999</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>978.2</v>
-      </c>
-      <c r="J157" t="n">
-        <v>949</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6383,19 +5599,11 @@
         <v>-37352.47042830999</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>978.1</v>
-      </c>
-      <c r="J158" t="n">
-        <v>949</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6424,19 +5632,11 @@
         <v>-39181.72872830999</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>978.1</v>
-      </c>
-      <c r="J159" t="n">
-        <v>949</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6465,19 +5665,11 @@
         <v>-38229.01102830999</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>978</v>
-      </c>
-      <c r="J160" t="n">
-        <v>949</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6506,19 +5698,11 @@
         <v>-38465.28562830998</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>978.5</v>
-      </c>
-      <c r="J161" t="n">
-        <v>949</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6547,19 +5731,11 @@
         <v>-39095.28562830998</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>972</v>
-      </c>
-      <c r="J162" t="n">
-        <v>949</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6588,19 +5764,11 @@
         <v>-39170.14092830999</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>971.1</v>
-      </c>
-      <c r="J163" t="n">
-        <v>949</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6629,19 +5797,11 @@
         <v>-36905.32372830999</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>971</v>
-      </c>
-      <c r="J164" t="n">
-        <v>949</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6670,19 +5830,11 @@
         <v>-36667.38752830999</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>974</v>
-      </c>
-      <c r="J165" t="n">
-        <v>949</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6711,19 +5863,11 @@
         <v>-37193.38752830999</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>977.7</v>
-      </c>
-      <c r="J166" t="n">
-        <v>949</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6752,19 +5896,11 @@
         <v>-37193.38752830999</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>974</v>
-      </c>
-      <c r="J167" t="n">
-        <v>949</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6793,19 +5929,11 @@
         <v>-37193.38752830999</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>974</v>
-      </c>
-      <c r="J168" t="n">
-        <v>949</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6834,19 +5962,11 @@
         <v>-38083.04072830999</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>974</v>
-      </c>
-      <c r="J169" t="n">
-        <v>949</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6875,19 +5995,11 @@
         <v>-38083.04072830999</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>971</v>
-      </c>
-      <c r="J170" t="n">
-        <v>949</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6916,19 +6028,11 @@
         <v>-38428.04072830999</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>971</v>
-      </c>
-      <c r="J171" t="n">
-        <v>949</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6957,19 +6061,11 @@
         <v>-38521.34602830999</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>969</v>
-      </c>
-      <c r="J172" t="n">
-        <v>949</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6998,19 +6094,11 @@
         <v>-38589.44962830999</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>967</v>
-      </c>
-      <c r="J173" t="n">
-        <v>949</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7039,19 +6127,11 @@
         <v>-38589.44962830999</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>964</v>
-      </c>
-      <c r="J174" t="n">
-        <v>949</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7080,19 +6160,11 @@
         <v>-38589.44962830999</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>964</v>
-      </c>
-      <c r="J175" t="n">
-        <v>949</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7121,19 +6193,11 @@
         <v>-38589.44962830999</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>964</v>
-      </c>
-      <c r="J176" t="n">
-        <v>949</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7162,19 +6226,11 @@
         <v>-38578.92002830999</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>964</v>
-      </c>
-      <c r="J177" t="n">
-        <v>949</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7203,19 +6259,11 @@
         <v>-38343.92002830999</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>969</v>
-      </c>
-      <c r="J178" t="n">
-        <v>949</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7244,19 +6292,11 @@
         <v>-38343.92002830999</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>970.1</v>
-      </c>
-      <c r="J179" t="n">
-        <v>949</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7285,19 +6325,11 @@
         <v>-38343.92002830999</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>970.1</v>
-      </c>
-      <c r="J180" t="n">
-        <v>949</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7326,19 +6358,11 @@
         <v>-38343.92002830999</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>970.1</v>
-      </c>
-      <c r="J181" t="n">
-        <v>949</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7367,19 +6391,11 @@
         <v>-38023.04982831</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>970.1</v>
-      </c>
-      <c r="J182" t="n">
-        <v>949</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7408,19 +6424,11 @@
         <v>-37945.74852831</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>970.2</v>
-      </c>
-      <c r="J183" t="n">
-        <v>949</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7449,19 +6457,11 @@
         <v>-38223.24922830999</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>971.1</v>
-      </c>
-      <c r="J184" t="n">
-        <v>949</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7490,19 +6490,11 @@
         <v>-38223.24922830999</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>970.2</v>
-      </c>
-      <c r="J185" t="n">
-        <v>949</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7531,19 +6523,11 @@
         <v>-37747.81052830999</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>970.2</v>
-      </c>
-      <c r="J186" t="n">
-        <v>949</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7572,19 +6556,11 @@
         <v>-37967.92052830999</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>970.4</v>
-      </c>
-      <c r="J187" t="n">
-        <v>949</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7613,19 +6589,11 @@
         <v>-38616.23042830999</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>970.3</v>
-      </c>
-      <c r="J188" t="n">
-        <v>949</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7660,13 +6628,9 @@
         <v>970.2</v>
       </c>
       <c r="J189" t="n">
-        <v>949</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>970.2</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7695,17 +6659,15 @@
         <v>-37816.23042830999</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
         <v>970.2</v>
       </c>
-      <c r="J190" t="n">
-        <v>949</v>
-      </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L190" t="n">
@@ -7736,17 +6698,15 @@
         <v>-38061.82052831</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>976</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>949</v>
+        <v>970.2</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L191" t="n">
@@ -7783,13 +6743,9 @@
         <v>975</v>
       </c>
       <c r="J192" t="n">
-        <v>949</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>975</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7824,11 +6780,11 @@
         <v>973</v>
       </c>
       <c r="J193" t="n">
-        <v>949</v>
+        <v>975</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L193" t="n">
@@ -7865,11 +6821,11 @@
         <v>973</v>
       </c>
       <c r="J194" t="n">
-        <v>949</v>
+        <v>975</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L194" t="n">
@@ -7906,13 +6862,9 @@
         <v>973</v>
       </c>
       <c r="J195" t="n">
-        <v>949</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>973</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7947,11 +6899,11 @@
         <v>975</v>
       </c>
       <c r="J196" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L196" t="n">
@@ -7988,11 +6940,11 @@
         <v>972</v>
       </c>
       <c r="J197" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L197" t="n">
@@ -8029,7 +6981,7 @@
         <v>971.2</v>
       </c>
       <c r="J198" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8064,13 +7016,11 @@
         <v>-38637.02122831</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>970.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8105,13 +7055,11 @@
         <v>-37923.80742831001</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>978</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8146,13 +7094,11 @@
         <v>-37293.80742831001</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8187,13 +7133,11 @@
         <v>-37293.80742831001</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8228,13 +7172,11 @@
         <v>-37293.80742831001</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8269,13 +7211,11 @@
         <v>-37293.80742831001</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8310,13 +7250,11 @@
         <v>-37343.80742831001</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8351,13 +7289,11 @@
         <v>-37334.77490799001</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>982.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8392,13 +7328,11 @@
         <v>-37342.60160799001</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8433,13 +7367,11 @@
         <v>-37377.80160799</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8480,7 +7412,7 @@
         <v>979</v>
       </c>
       <c r="J209" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8521,7 +7453,7 @@
         <v>979</v>
       </c>
       <c r="J210" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8556,13 +7488,11 @@
         <v>-37349.49160799001</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8597,13 +7527,11 @@
         <v>-37308.59160799001</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>979</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8638,13 +7566,11 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8679,13 +7605,11 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8720,13 +7644,11 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8761,13 +7683,11 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8802,13 +7722,11 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8843,13 +7761,11 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8884,13 +7800,11 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8925,13 +7839,11 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -8966,13 +7878,11 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -9007,13 +7917,11 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9048,13 +7956,11 @@
         <v>-37147.43370799001</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9089,13 +7995,11 @@
         <v>-36987.25780799</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9130,13 +8034,11 @@
         <v>-36987.25780799</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9171,13 +8073,11 @@
         <v>-36987.25780799</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9212,13 +8112,11 @@
         <v>-36987.25780799</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9253,13 +8151,11 @@
         <v>-38009.60720799</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>983</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -9294,13 +8190,11 @@
         <v>-37847.47820799</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>977.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -9335,13 +8229,11 @@
         <v>-37847.47820799</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>978</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -9376,13 +8268,11 @@
         <v>-37340.46100799</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>978</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -9417,13 +8307,11 @@
         <v>-37296.69480799</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>983.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -9458,13 +8346,11 @@
         <v>-37096.69480799</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -9499,13 +8385,11 @@
         <v>-36884.09780799</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>986.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -9540,13 +8424,11 @@
         <v>-36846.24130799</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>987.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -9581,13 +8463,11 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>989</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -9622,13 +8502,11 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -9663,13 +8541,11 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -9704,13 +8580,11 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -9745,13 +8619,11 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -9786,13 +8658,11 @@
         <v>-36550.53340799</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -9827,13 +8697,11 @@
         <v>-36550.53340799</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>990.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -9868,13 +8736,11 @@
         <v>-36706.53220799</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>990.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -9909,13 +8775,11 @@
         <v>-36896.13870799</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>984.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -9950,13 +8814,11 @@
         <v>-37082.14280799</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>984</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -9991,13 +8853,11 @@
         <v>-37104.89300799</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>983.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -10032,13 +8892,11 @@
         <v>-37303.02580799</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>982</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -10073,13 +8931,11 @@
         <v>-38347.87000799</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>981</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -10114,13 +8970,11 @@
         <v>-38347.87000799</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>978.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -10155,13 +9009,11 @@
         <v>-38347.87000799</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>978.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -10196,13 +9048,11 @@
         <v>-38403.67120799</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>978.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -10237,13 +9087,11 @@
         <v>-37511.21900799</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>978</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -10278,13 +9126,11 @@
         <v>-38130.32700799</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>982.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -10319,13 +9165,11 @@
         <v>-38130.32700799</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>977.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -10360,13 +9204,11 @@
         <v>-39415.55700799001</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>977.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -10401,13 +9243,11 @@
         <v>-38030.65960799</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>973.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -10442,13 +9282,11 @@
         <v>-37649.24270799001</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>973.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -10483,13 +9321,11 @@
         <v>-37787.92430799001</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>981</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -10524,13 +9360,11 @@
         <v>-37787.92430799001</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>978.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -10565,13 +9399,11 @@
         <v>-37789.14270799001</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>978.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -10606,13 +9438,11 @@
         <v>-37789.14270799001</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>978</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -10647,13 +9477,11 @@
         <v>-37583.81320799001</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>978</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -10688,13 +9516,11 @@
         <v>-41374.46410799001</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>979</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -10729,13 +9555,11 @@
         <v>-41733.46410799001</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>977</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -10770,13 +9594,11 @@
         <v>-39766.45210799001</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>973.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -10811,13 +9633,11 @@
         <v>-39766.45210799001</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>974</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -10852,13 +9672,11 @@
         <v>-39766.45210799001</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>974</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -10893,13 +9711,11 @@
         <v>-41448.88830799001</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>974</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -10934,13 +9750,11 @@
         <v>-38248.03260799001</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>972.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -10975,13 +9789,11 @@
         <v>-38248.03260799001</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>975</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -11016,13 +9828,11 @@
         <v>-38248.03260799001</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>975</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -11057,13 +9867,11 @@
         <v>-40010.57860799001</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>975</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -11098,13 +9906,11 @@
         <v>-41766.97190799002</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>974</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -11139,13 +9945,11 @@
         <v>-40313.41510799002</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>973</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -11180,13 +9984,11 @@
         <v>-42916.88130799002</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>974</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -11221,13 +10023,11 @@
         <v>-42916.88130799002</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>973</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -11262,13 +10062,11 @@
         <v>-41449.39790799002</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>973</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -11303,13 +10101,11 @@
         <v>-41449.39790799002</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>974</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -11344,13 +10140,11 @@
         <v>-41449.39790799002</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>974</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -11385,13 +10179,11 @@
         <v>-41449.39790799002</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>974</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -11432,7 +10224,7 @@
         <v>974</v>
       </c>
       <c r="J281" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -11467,13 +10259,11 @@
         <v>-37342.83450799002</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>976</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -11514,7 +10304,7 @@
         <v>977</v>
       </c>
       <c r="J283" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -11555,7 +10345,7 @@
         <v>977</v>
       </c>
       <c r="J284" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -11596,7 +10386,7 @@
         <v>977</v>
       </c>
       <c r="J285" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -11637,7 +10427,7 @@
         <v>978</v>
       </c>
       <c r="J286" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -11678,7 +10468,7 @@
         <v>980</v>
       </c>
       <c r="J287" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -11719,7 +10509,7 @@
         <v>979</v>
       </c>
       <c r="J288" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -11760,7 +10550,7 @@
         <v>979</v>
       </c>
       <c r="J289" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -11795,13 +10585,11 @@
         <v>-33016.57420799002</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>979</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -11836,13 +10624,11 @@
         <v>-33016.57420799002</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>979</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -11883,7 +10669,7 @@
         <v>979</v>
       </c>
       <c r="J292" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -11924,7 +10710,7 @@
         <v>978</v>
       </c>
       <c r="J293" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -11959,13 +10745,11 @@
         <v>-33280.41890799002</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>978</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -12000,13 +10784,11 @@
         <v>-33280.41890799002</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>979</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -12045,7 +10827,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -12080,13 +10862,11 @@
         <v>-33180.56900799002</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>979</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -12121,13 +10901,11 @@
         <v>-33063.58080799002</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -12162,13 +10940,11 @@
         <v>-33063.58080799002</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>981</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -12203,13 +10979,11 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>981</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -12244,13 +11018,11 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -12285,13 +11057,11 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -12326,13 +11096,11 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -12367,13 +11135,11 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -12408,13 +11174,11 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -12449,13 +11213,11 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -12490,13 +11252,11 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -12531,13 +11291,11 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -12572,13 +11330,11 @@
         <v>-33487.54197957002</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -12613,13 +11369,11 @@
         <v>-32383.54027957002</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -12654,13 +11408,11 @@
         <v>-32383.54027957002</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -12695,13 +11447,11 @@
         <v>-32383.54027957002</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -12740,7 +11490,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -12779,7 +11529,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -12814,13 +11564,11 @@
         <v>-32383.54027957002</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -12855,13 +11603,11 @@
         <v>-32383.54027957002</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -12896,13 +11642,11 @@
         <v>-31036.09247957002</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>985</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -12937,13 +11681,11 @@
         <v>-29987.62887957002</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>987</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -12978,13 +11720,11 @@
         <v>-32033.12227957002</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>994</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -13019,13 +11759,11 @@
         <v>-30617.47667957002</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>993.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -13060,13 +11798,11 @@
         <v>-30386.20547957002</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>995</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -13101,13 +11837,11 @@
         <v>-27545.87297957002</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>997</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -13146,7 +11880,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -13185,7 +11919,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -13224,7 +11958,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -13263,7 +11997,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -13302,7 +12036,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -13341,7 +12075,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
@@ -13376,23 +12110,21 @@
         <v>-10753.76836447002</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L329" t="n">
-        <v>1.070869336143309</v>
-      </c>
-      <c r="M329" t="n">
-        <v>1.014799154334038</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M329" t="inlineStr"/>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -13417,11 +12149,17 @@
         <v>-12721.49366447002</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>973</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13450,11 +12188,17 @@
         <v>-14626.61336447002</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>973</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13483,11 +12227,17 @@
         <v>-18378.49816447002</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>973</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13516,11 +12266,17 @@
         <v>-19164.41966447002</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>973</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13549,17 +12305,23 @@
         <v>-19125.06696447002</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>973</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
       <c r="M334" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest WAVES.xlsx
+++ b/BackTest/2020-01-16 BackTest WAVES.xlsx
@@ -4081,7 +4081,7 @@
         <v>-30717.85426336998</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-30714.17536336998</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-30716.42662982998</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-30716.42662982998</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-34040.65602982999</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-33586.65162982999</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-33586.65162982999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-33531.65162982999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-33539.51512830999</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-35982.25442830999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-35435.41502831</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-35462.61502830999</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-34900.61502830999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-35195.55702831</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-32833.10712831</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-33283.10312830999</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-33301.26392830999</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-33335.02362830999</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-31776.83542830999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-32609.77792831</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-32601.39992830999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-32486.36542830999</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-32529.87792830999</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-32035.09772830999</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-31996.99772830999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-31996.99772830999</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-31946.56862830999</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-31982.27862830999</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-30923.69462830999</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-31123.42552830999</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-31304.11462830999</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-31360.60662830999</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-31900.53552830999</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-33263.93152830999</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6160,10 +6160,14 @@
         <v>-38589.44962830999</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>964</v>
+      </c>
+      <c r="J175" t="n">
+        <v>964</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
@@ -6193,11 +6197,19 @@
         <v>-38589.44962830999</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>964</v>
+      </c>
+      <c r="J176" t="n">
+        <v>964</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6226,11 +6238,19 @@
         <v>-38578.92002830999</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>964</v>
+      </c>
+      <c r="J177" t="n">
+        <v>964</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6259,10 +6279,14 @@
         <v>-38343.92002830999</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>969</v>
+      </c>
+      <c r="J178" t="n">
+        <v>969</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
@@ -6292,11 +6316,19 @@
         <v>-38343.92002830999</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>969</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6325,11 +6357,19 @@
         <v>-38343.92002830999</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>969</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6358,10 +6398,14 @@
         <v>-38343.92002830999</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>970.1</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
@@ -6391,11 +6435,19 @@
         <v>-38023.04982831</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6424,11 +6476,19 @@
         <v>-37945.74852831</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>970.2</v>
+      </c>
+      <c r="J183" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6457,11 +6517,19 @@
         <v>-38223.24922830999</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>971.1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6490,11 +6558,19 @@
         <v>-38223.24922830999</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>970.2</v>
+      </c>
+      <c r="J185" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6523,11 +6599,19 @@
         <v>-37747.81052830999</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>970.2</v>
+      </c>
+      <c r="J186" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6556,11 +6640,19 @@
         <v>-37967.92052830999</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>970.4</v>
+      </c>
+      <c r="J187" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6589,11 +6681,19 @@
         <v>-38616.23042830999</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>970.3</v>
+      </c>
+      <c r="J188" t="n">
+        <v>970.1</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6628,9 +6728,13 @@
         <v>970.2</v>
       </c>
       <c r="J189" t="n">
-        <v>970.2</v>
-      </c>
-      <c r="K189" t="inlineStr"/>
+        <v>970.1</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6659,15 +6763,17 @@
         <v>-37816.23042830999</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>970.2</v>
+      </c>
       <c r="J190" t="n">
-        <v>970.2</v>
+        <v>970.1</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L190" t="n">
@@ -6698,15 +6804,17 @@
         <v>-38061.82052831</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>976</v>
+      </c>
       <c r="J191" t="n">
-        <v>970.2</v>
+        <v>970.1</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L191" t="n">
@@ -6743,9 +6851,13 @@
         <v>975</v>
       </c>
       <c r="J192" t="n">
-        <v>975</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
+        <v>970.1</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6780,11 +6892,11 @@
         <v>973</v>
       </c>
       <c r="J193" t="n">
-        <v>975</v>
+        <v>970.1</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L193" t="n">
@@ -6821,11 +6933,11 @@
         <v>973</v>
       </c>
       <c r="J194" t="n">
-        <v>975</v>
+        <v>970.1</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L194" t="n">
@@ -6862,9 +6974,13 @@
         <v>973</v>
       </c>
       <c r="J195" t="n">
-        <v>973</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
+        <v>970.1</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6899,11 +7015,11 @@
         <v>975</v>
       </c>
       <c r="J196" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L196" t="n">
@@ -6940,11 +7056,11 @@
         <v>972</v>
       </c>
       <c r="J197" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L197" t="n">
@@ -6981,7 +7097,7 @@
         <v>971.2</v>
       </c>
       <c r="J198" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -7016,11 +7132,13 @@
         <v>-38637.02122831</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>970.5</v>
+      </c>
       <c r="J199" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -7055,11 +7173,13 @@
         <v>-37923.80742831001</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>978</v>
+      </c>
       <c r="J200" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -7094,11 +7214,13 @@
         <v>-37293.80742831001</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>984</v>
+      </c>
       <c r="J201" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -7133,11 +7255,13 @@
         <v>-37293.80742831001</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>985</v>
+      </c>
       <c r="J202" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -7172,11 +7296,13 @@
         <v>-37293.80742831001</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>985</v>
+      </c>
       <c r="J203" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -7211,11 +7337,13 @@
         <v>-37293.80742831001</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>985</v>
+      </c>
       <c r="J204" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -7250,11 +7378,13 @@
         <v>-37343.80742831001</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>985</v>
+      </c>
       <c r="J205" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -7289,11 +7419,13 @@
         <v>-37334.77490799001</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>982.1</v>
+      </c>
       <c r="J206" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7328,11 +7460,13 @@
         <v>-37342.60160799001</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>984</v>
+      </c>
       <c r="J207" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7367,11 +7501,13 @@
         <v>-37377.80160799</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>982</v>
+      </c>
       <c r="J208" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7412,7 +7548,7 @@
         <v>979</v>
       </c>
       <c r="J209" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7453,7 +7589,7 @@
         <v>979</v>
       </c>
       <c r="J210" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7488,11 +7624,13 @@
         <v>-37349.49160799001</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>983</v>
+      </c>
       <c r="J211" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7527,11 +7665,13 @@
         <v>-37308.59160799001</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>979</v>
+      </c>
       <c r="J212" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7566,11 +7706,13 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>982</v>
+      </c>
       <c r="J213" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7605,11 +7747,13 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>983</v>
+      </c>
       <c r="J214" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7644,11 +7788,13 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>983</v>
+      </c>
       <c r="J215" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7683,11 +7829,13 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>983</v>
+      </c>
       <c r="J216" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7722,11 +7870,13 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>983</v>
+      </c>
       <c r="J217" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -7761,11 +7911,13 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>983</v>
+      </c>
       <c r="J218" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -7800,11 +7952,13 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>983</v>
+      </c>
       <c r="J219" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -7839,11 +7993,13 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>983</v>
+      </c>
       <c r="J220" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -7878,11 +8034,13 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>983</v>
+      </c>
       <c r="J221" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -7917,11 +8075,13 @@
         <v>-37113.43370799001</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>983</v>
+      </c>
       <c r="J222" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -7956,11 +8116,13 @@
         <v>-37147.43370799001</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>983</v>
+      </c>
       <c r="J223" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -7995,11 +8157,13 @@
         <v>-36987.25780799</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>980</v>
+      </c>
       <c r="J224" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8034,11 +8198,13 @@
         <v>-36987.25780799</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>983</v>
+      </c>
       <c r="J225" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8073,11 +8239,13 @@
         <v>-36987.25780799</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>983</v>
+      </c>
       <c r="J226" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8112,11 +8280,13 @@
         <v>-36987.25780799</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>983</v>
+      </c>
       <c r="J227" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8151,11 +8321,13 @@
         <v>-38009.60720799</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>983</v>
+      </c>
       <c r="J228" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8190,11 +8362,13 @@
         <v>-37847.47820799</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>977.2</v>
+      </c>
       <c r="J229" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8229,11 +8403,13 @@
         <v>-37847.47820799</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>978</v>
+      </c>
       <c r="J230" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8268,11 +8444,13 @@
         <v>-37340.46100799</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>978</v>
+      </c>
       <c r="J231" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8307,11 +8485,13 @@
         <v>-37296.69480799</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>983.7</v>
+      </c>
       <c r="J232" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8346,11 +8526,13 @@
         <v>-37096.69480799</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>984</v>
+      </c>
       <c r="J233" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8385,11 +8567,13 @@
         <v>-36884.09780799</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>986.9</v>
+      </c>
       <c r="J234" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8424,11 +8608,13 @@
         <v>-36846.24130799</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>987.9</v>
+      </c>
       <c r="J235" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8463,11 +8649,13 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>989</v>
+      </c>
       <c r="J236" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8502,11 +8690,13 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>990</v>
+      </c>
       <c r="J237" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8541,11 +8731,13 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>990</v>
+      </c>
       <c r="J238" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8580,11 +8772,13 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>990</v>
+      </c>
       <c r="J239" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8619,11 +8813,13 @@
         <v>-36621.24130799</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>990</v>
+      </c>
       <c r="J240" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8658,11 +8854,13 @@
         <v>-36550.53340799</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>990</v>
+      </c>
       <c r="J241" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8697,11 +8895,13 @@
         <v>-36550.53340799</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>990.1</v>
+      </c>
       <c r="J242" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8736,11 +8936,13 @@
         <v>-36706.53220799</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>990.1</v>
+      </c>
       <c r="J243" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8775,11 +8977,13 @@
         <v>-36896.13870799</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>984.1</v>
+      </c>
       <c r="J244" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8814,11 +9018,13 @@
         <v>-37082.14280799</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>984</v>
+      </c>
       <c r="J245" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8853,11 +9059,13 @@
         <v>-37104.89300799</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>983.1</v>
+      </c>
       <c r="J246" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8892,11 +9100,13 @@
         <v>-37303.02580799</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>982</v>
+      </c>
       <c r="J247" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -8931,11 +9141,13 @@
         <v>-38347.87000799</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>981</v>
+      </c>
       <c r="J248" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -8970,11 +9182,13 @@
         <v>-38347.87000799</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>978.2</v>
+      </c>
       <c r="J249" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9009,11 +9223,13 @@
         <v>-38347.87000799</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>978.2</v>
+      </c>
       <c r="J250" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9048,11 +9264,13 @@
         <v>-38403.67120799</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>978.2</v>
+      </c>
       <c r="J251" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9087,11 +9305,13 @@
         <v>-37511.21900799</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>978</v>
+      </c>
       <c r="J252" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9126,11 +9346,13 @@
         <v>-38130.32700799</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>982.7</v>
+      </c>
       <c r="J253" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9165,11 +9387,13 @@
         <v>-38130.32700799</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>977.2</v>
+      </c>
       <c r="J254" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9204,11 +9428,13 @@
         <v>-39415.55700799001</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>977.2</v>
+      </c>
       <c r="J255" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9243,11 +9469,13 @@
         <v>-38030.65960799</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>973.4</v>
+      </c>
       <c r="J256" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9282,11 +9510,13 @@
         <v>-37649.24270799001</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>973.5</v>
+      </c>
       <c r="J257" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9321,11 +9551,13 @@
         <v>-37787.92430799001</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>981</v>
+      </c>
       <c r="J258" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9360,11 +9592,13 @@
         <v>-37787.92430799001</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>978.1</v>
+      </c>
       <c r="J259" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9399,11 +9633,13 @@
         <v>-37789.14270799001</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>978.1</v>
+      </c>
       <c r="J260" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9438,11 +9674,13 @@
         <v>-37789.14270799001</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>978</v>
+      </c>
       <c r="J261" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9477,11 +9715,13 @@
         <v>-37583.81320799001</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>978</v>
+      </c>
       <c r="J262" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9516,11 +9756,13 @@
         <v>-41374.46410799001</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>979</v>
+      </c>
       <c r="J263" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9555,11 +9797,13 @@
         <v>-41733.46410799001</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>977</v>
+      </c>
       <c r="J264" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9594,11 +9838,13 @@
         <v>-39766.45210799001</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>973.4</v>
+      </c>
       <c r="J265" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9633,11 +9879,13 @@
         <v>-39766.45210799001</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>974</v>
+      </c>
       <c r="J266" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9672,11 +9920,13 @@
         <v>-39766.45210799001</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>974</v>
+      </c>
       <c r="J267" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9711,11 +9961,13 @@
         <v>-41448.88830799001</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>974</v>
+      </c>
       <c r="J268" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9750,11 +10002,13 @@
         <v>-38248.03260799001</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>972.3</v>
+      </c>
       <c r="J269" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9789,11 +10043,13 @@
         <v>-38248.03260799001</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>975</v>
+      </c>
       <c r="J270" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9828,11 +10084,13 @@
         <v>-38248.03260799001</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>975</v>
+      </c>
       <c r="J271" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9867,11 +10125,13 @@
         <v>-40010.57860799001</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>975</v>
+      </c>
       <c r="J272" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -9906,11 +10166,13 @@
         <v>-41766.97190799002</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>974</v>
+      </c>
       <c r="J273" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -9945,11 +10207,13 @@
         <v>-40313.41510799002</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>973</v>
+      </c>
       <c r="J274" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -9984,11 +10248,13 @@
         <v>-42916.88130799002</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>974</v>
+      </c>
       <c r="J275" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10023,11 +10289,13 @@
         <v>-42916.88130799002</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>973</v>
+      </c>
       <c r="J276" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10062,11 +10330,13 @@
         <v>-41449.39790799002</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>973</v>
+      </c>
       <c r="J277" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10101,11 +10371,13 @@
         <v>-41449.39790799002</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>974</v>
+      </c>
       <c r="J278" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
@@ -10140,11 +10412,13 @@
         <v>-41449.39790799002</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>974</v>
+      </c>
       <c r="J279" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
@@ -10179,11 +10453,13 @@
         <v>-41449.39790799002</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>974</v>
+      </c>
       <c r="J280" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K280" t="inlineStr">
         <is>
@@ -10224,7 +10500,7 @@
         <v>974</v>
       </c>
       <c r="J281" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
@@ -10259,11 +10535,13 @@
         <v>-37342.83450799002</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>976</v>
+      </c>
       <c r="J282" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
@@ -10304,7 +10582,7 @@
         <v>977</v>
       </c>
       <c r="J283" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K283" t="inlineStr">
         <is>
@@ -10345,7 +10623,7 @@
         <v>977</v>
       </c>
       <c r="J284" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
@@ -10386,7 +10664,7 @@
         <v>977</v>
       </c>
       <c r="J285" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
@@ -10427,7 +10705,7 @@
         <v>978</v>
       </c>
       <c r="J286" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
@@ -10468,7 +10746,7 @@
         <v>980</v>
       </c>
       <c r="J287" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
@@ -10509,7 +10787,7 @@
         <v>979</v>
       </c>
       <c r="J288" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K288" t="inlineStr">
         <is>
@@ -10550,7 +10828,7 @@
         <v>979</v>
       </c>
       <c r="J289" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K289" t="inlineStr">
         <is>
@@ -10585,11 +10863,13 @@
         <v>-33016.57420799002</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>979</v>
+      </c>
       <c r="J290" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K290" t="inlineStr">
         <is>
@@ -10628,7 +10908,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K291" t="inlineStr">
         <is>
@@ -10669,7 +10949,7 @@
         <v>979</v>
       </c>
       <c r="J292" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K292" t="inlineStr">
         <is>
@@ -10704,13 +10984,11 @@
         <v>-33438.38100799002</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>978</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K293" t="inlineStr">
         <is>
@@ -10749,7 +11027,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K294" t="inlineStr">
         <is>
@@ -10788,7 +11066,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K295" t="inlineStr">
         <is>
@@ -10823,11 +11101,13 @@
         <v>-33280.41890799002</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>979</v>
+      </c>
       <c r="J296" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K296" t="inlineStr">
         <is>
@@ -10862,11 +11142,13 @@
         <v>-33180.56900799002</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>979</v>
+      </c>
       <c r="J297" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
@@ -10901,11 +11183,13 @@
         <v>-33063.58080799002</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>980</v>
+      </c>
       <c r="J298" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
@@ -10944,7 +11228,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K299" t="inlineStr">
         <is>
@@ -10979,11 +11263,13 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>981</v>
+      </c>
       <c r="J300" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K300" t="inlineStr">
         <is>
@@ -11018,11 +11304,13 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>985</v>
+      </c>
       <c r="J301" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K301" t="inlineStr">
         <is>
@@ -11061,7 +11349,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K302" t="inlineStr">
         <is>
@@ -11096,11 +11384,13 @@
         <v>-33062.56557957002</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>985</v>
+      </c>
       <c r="J303" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K303" t="inlineStr">
         <is>
@@ -11139,7 +11429,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -11178,7 +11468,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -11217,7 +11507,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K306" t="inlineStr">
         <is>
@@ -11256,7 +11546,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -11295,7 +11585,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -11334,7 +11624,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K309" t="inlineStr">
         <is>
@@ -11373,7 +11663,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K310" t="inlineStr">
         <is>
@@ -11412,7 +11702,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K311" t="inlineStr">
         <is>
@@ -11451,7 +11741,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K312" t="inlineStr">
         <is>
@@ -11490,7 +11780,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K313" t="inlineStr">
         <is>
@@ -11529,7 +11819,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K314" t="inlineStr">
         <is>
@@ -11568,7 +11858,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
@@ -11607,7 +11897,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
@@ -11646,7 +11936,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11685,7 +11975,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11724,7 +12014,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11763,7 +12053,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11802,7 +12092,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11841,7 +12131,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11880,7 +12170,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11919,7 +12209,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11958,7 +12248,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11997,7 +12287,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -12036,7 +12326,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K327" t="inlineStr">
         <is>
@@ -12071,19 +12361,19 @@
         <v>-10639.99036447002</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
-        <v>973</v>
+        <v>970.1</v>
       </c>
       <c r="K328" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L328" t="n">
-        <v>1</v>
+        <v>1.04953046077724</v>
       </c>
       <c r="M328" t="inlineStr"/>
     </row>
@@ -12110,17 +12400,11 @@
         <v>-10753.76836447002</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>973</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12149,17 +12433,11 @@
         <v>-12721.49366447002</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>973</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12188,17 +12466,11 @@
         <v>-14626.61336447002</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>973</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12227,17 +12499,11 @@
         <v>-18378.49816447002</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>973</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12266,17 +12532,11 @@
         <v>-19164.41966447002</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>973</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12308,14 +12568,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>973</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
